--- a/vt_REGION1_IND-PGM.xlsx
+++ b/vt_REGION1_IND-PGM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AD8E2D-DD60-41F5-9565-8B9C6405AEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1F9D0A-E8A7-4CCE-8BC2-BF95288C72BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="1260" windowWidth="31365" windowHeight="14340" tabRatio="759" firstSheet="7" activeTab="16" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="759" firstSheet="2" activeTab="13" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues outstanding" sheetId="73" r:id="rId1"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="620">
   <si>
     <t>Comment</t>
   </si>
@@ -2027,9 +2027,6 @@
     <t>FOM</t>
   </si>
   <si>
-    <t>2020USD to 2015ZAR</t>
-  </si>
-  <si>
     <t xml:space="preserve">From Waterberg project by Platinum Group Metals inc. </t>
   </si>
   <si>
@@ -2108,9 +2105,6 @@
     <t>tonnes = PJ</t>
   </si>
   <si>
-    <t>To local demand</t>
-  </si>
-  <si>
     <t>PEXPGM</t>
   </si>
   <si>
@@ -2262,6 +2256,45 @@
   </si>
   <si>
     <t>Commgrp</t>
+  </si>
+  <si>
+    <t>INDGAS</t>
+  </si>
+  <si>
+    <t>Industry - PGMs - to local demand</t>
+  </si>
+  <si>
+    <t>2020USD to 2022ZAR</t>
+  </si>
+  <si>
+    <t>PRC_ACTFLO~2017</t>
+  </si>
+  <si>
+    <t>PRC_ACTFLO~2030</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>*Unit</t>
+  </si>
+  <si>
+    <t>Demand Commodity Name</t>
+  </si>
+  <si>
+    <t>Demand Unit</t>
+  </si>
+  <si>
+    <t>Demand Value</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>FLO_SHAR</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
 </sst>
 </file>
@@ -2289,10 +2322,17 @@
     <numFmt numFmtId="179" formatCode="&quot;R&quot;#,##0.00000;[Red]\-&quot;R&quot;#,##0.00000"/>
     <numFmt numFmtId="180" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2710,6 +2750,18 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3321,161 +3373,161 @@
   </borders>
   <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="57" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="12" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="12" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="17" xfId="19"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="17" xfId="19"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3483,219 +3535,219 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="19" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="19" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="16" xfId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="4" borderId="16" xfId="22" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="19" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="19" xfId="20" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="12" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="45" fillId="3" borderId="11" xfId="21" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="46" fillId="3" borderId="11" xfId="21" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="45" fillId="3" borderId="2" xfId="21" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="23" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="23"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="23" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="23" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="23" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="21" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="46" fillId="3" borderId="2" xfId="21" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="23" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="23"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="23" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="5" borderId="21" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="21" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="23" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="20" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="21" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="21" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="47" fillId="6" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="48" fillId="6" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="47" fillId="6" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="48" fillId="6" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="20" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="20" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="21" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="47" fillId="0" borderId="21" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="48" fillId="0" borderId="21" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="22" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="22" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="23" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="24" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="47" fillId="0" borderId="24" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="48" fillId="0" borderId="24" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="23" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="23" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="23" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="23" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="23" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="25" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="20" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="20" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="49" fillId="0" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="50" fillId="0" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="49" fillId="0" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="49" fillId="0" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="27" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="28" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="22" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="29" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="29" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="49" fillId="0" borderId="26" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="50" fillId="0" borderId="26" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="33" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="33" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="21" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="21" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="49" fillId="0" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="50" fillId="0" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="49" fillId="0" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="50" fillId="0" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="10" fontId="49" fillId="0" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="26" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="21" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="21" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="49" fillId="0" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="21" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="10" xfId="23" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="10" xfId="23" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="21" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="21" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="37" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -3704,275 +3756,287 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="37" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="23" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="23" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="23" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="38" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="10" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="10" xfId="23" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="10" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="10" xfId="23" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="38" xfId="24" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="24" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="25" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="53" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="54" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="25" applyFont="1"/>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" xfId="25" applyFont="1"/>
-    <xf numFmtId="167" fontId="31" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="23" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" xfId="25" applyFont="1"/>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="23" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="6" fillId="0" borderId="4" xfId="23" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="23" applyFont="1"/>
-    <xf numFmtId="168" fontId="54" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="41" fillId="0" borderId="0" xfId="14" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="41" fillId="9" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="41" fillId="10" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="41" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="41" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="41" fillId="0" borderId="10" xfId="14" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="41" fillId="10" borderId="10" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="41" fillId="11" borderId="10" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="41" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="4" xfId="23" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="23" applyFont="1"/>
+    <xf numFmtId="168" fontId="55" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="0" xfId="14" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="42" fillId="9" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="42" fillId="10" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="42" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="10" xfId="14" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="42" fillId="10" borderId="10" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="42" fillId="11" borderId="10" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="42" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="14"/>
-    <xf numFmtId="174" fontId="41" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="41" fillId="0" borderId="0" xfId="14" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="41" fillId="12" borderId="10" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="41" fillId="12" borderId="10" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="41" fillId="0" borderId="0" xfId="14" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="14"/>
+    <xf numFmtId="174" fontId="42" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="14" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="42" fillId="12" borderId="10" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="42" fillId="12" borderId="10" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="42" fillId="0" borderId="0" xfId="14" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="0" xfId="14" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="42" fillId="0" borderId="0" xfId="14" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="41" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="41" fillId="0" borderId="14" xfId="14" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="42" fillId="14" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="14" xfId="14" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="27"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="27" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="27" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="28" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="27"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="27" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="27" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="28" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="23" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="23" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="23" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="23" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="23" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="23" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="23" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="23" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="23" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="23" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="23" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="23" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="29"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="29"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="18" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="59" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="60" fillId="17" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="18" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="23" applyFont="1"/>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="32" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="12" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="23" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="23" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="12" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="12" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="12" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="180" fontId="45" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="31" applyFill="1"/>
+    <xf numFmtId="180" fontId="45" fillId="0" borderId="2" xfId="31" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="23" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="23" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="31"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="31" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="12" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="12" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="34" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="23" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="33" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="180" fontId="44" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="31" applyFill="1"/>
-    <xf numFmtId="180" fontId="44" fillId="0" borderId="2" xfId="31" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="33" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="35" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="50" fillId="0" borderId="36" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="34" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="33" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="35" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="36" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="0" borderId="30" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="0" borderId="29" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="0" borderId="31" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="0" borderId="32" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="0" borderId="34" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="0" borderId="33" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="0" borderId="35" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="50" fillId="0" borderId="36" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="7" borderId="7" xfId="23" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="56" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="7" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="7" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="49" fillId="0" borderId="34" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="49" fillId="0" borderId="33" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="49" fillId="0" borderId="35" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="49" fillId="0" borderId="36" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="34" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="33" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="35" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="36" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="49" fillId="0" borderId="30" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="49" fillId="0" borderId="29" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="49" fillId="0" borderId="31" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="49" fillId="0" borderId="32" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="49" fillId="0" borderId="34" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="49" fillId="0" borderId="33" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="49" fillId="0" borderId="35" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="49" fillId="0" borderId="36" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="7" borderId="7" xfId="23" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="56" fillId="0" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="55" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="56" fillId="0" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="41" fillId="7" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="42" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="41" fillId="7" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="41" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="41" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="41" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="41" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="55" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="56" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -18644,7 +18708,7 @@
                   <a14:compatExt spid="_x0000_s128001"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000001F40100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000001F40100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18702,7 +18766,7 @@
                   <a14:compatExt spid="_x0000_s128002"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002F40100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002F40100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18760,7 +18824,7 @@
                   <a14:compatExt spid="_x0000_s128003"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003F40100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003F40100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18816,7 +18880,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s257025"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18869,7 +18933,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s257026"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18929,7 +18993,7 @@
                   <a14:compatExt spid="_x0000_s126977"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000001F00100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001F00100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18987,7 +19051,7 @@
                   <a14:compatExt spid="_x0000_s126978"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002F00100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002F00100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19045,7 +19109,7 @@
                   <a14:compatExt spid="_x0000_s126979"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003F00100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003F00100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19103,7 +19167,7 @@
                   <a14:compatExt spid="_x0000_s126980"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004F00100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004F00100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19161,7 +19225,7 @@
                   <a14:compatExt spid="_x0000_s126981"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005F00100}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005F00100}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19224,7 +19288,7 @@
                   <a14:compatExt spid="_x0000_s157697"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000001680200}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000001680200}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19282,7 +19346,7 @@
                   <a14:compatExt spid="_x0000_s157698"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002680200}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002680200}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19340,7 +19404,7 @@
                   <a14:compatExt spid="_x0000_s157699"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003680200}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003680200}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19398,7 +19462,7 @@
                   <a14:compatExt spid="_x0000_s157700"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004680200}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004680200}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19456,7 +19520,7 @@
                   <a14:compatExt spid="_x0000_s157701"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005680200}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005680200}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19514,7 +19578,7 @@
                   <a14:compatExt spid="_x0000_s157702"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006680200}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006680200}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19572,7 +19636,7 @@
                   <a14:compatExt spid="_x0000_s157703"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007680200}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000007680200}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19628,7 +19692,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s259086"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19681,7 +19745,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s259087"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19734,7 +19798,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s259088"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19787,7 +19851,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s259089"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19840,7 +19904,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s259090"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19893,7 +19957,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s259091"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19946,7 +20010,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s259092"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20077,6 +20141,7 @@
       <sheetName val="IS-Items"/>
       <sheetName val="IS-TSData"/>
       <sheetName val="IS-TIDData"/>
+      <sheetName val="Iron &amp; Steel"/>
     </sheetNames>
     <definedNames>
       <definedName name="pamsindex" refersTo="='PAMS central control panel'!$C$2"/>
@@ -20139,17 +20204,70 @@
       <sheetData sheetId="54"/>
       <sheetData sheetId="55">
         <row r="31">
+          <cell r="P31"/>
           <cell r="R31">
             <v>4.5246489747494749</v>
           </cell>
           <cell r="S31">
             <v>32.653642004977343</v>
           </cell>
+          <cell r="T31"/>
+        </row>
+        <row r="32">
+          <cell r="P32"/>
+          <cell r="R32"/>
+          <cell r="S32"/>
+          <cell r="T32"/>
+        </row>
+        <row r="33">
+          <cell r="P33"/>
+          <cell r="R33"/>
+          <cell r="S33"/>
+          <cell r="T33"/>
+        </row>
+        <row r="34">
+          <cell r="P34"/>
+          <cell r="R34"/>
+          <cell r="S34"/>
+          <cell r="T34"/>
+        </row>
+        <row r="35">
+          <cell r="P35"/>
+          <cell r="R35"/>
+          <cell r="S35"/>
+          <cell r="T35"/>
         </row>
         <row r="36">
+          <cell r="P36"/>
+          <cell r="R36"/>
           <cell r="S36">
             <v>6.6440578329725435</v>
           </cell>
+          <cell r="T36"/>
+        </row>
+        <row r="37">
+          <cell r="P37"/>
+          <cell r="R37"/>
+          <cell r="S37"/>
+          <cell r="T37"/>
+        </row>
+        <row r="38">
+          <cell r="P38"/>
+          <cell r="R38"/>
+          <cell r="S38"/>
+          <cell r="T38"/>
+        </row>
+        <row r="39">
+          <cell r="P39"/>
+          <cell r="R39"/>
+          <cell r="S39"/>
+          <cell r="T39"/>
+        </row>
+        <row r="40">
+          <cell r="P40"/>
+          <cell r="R40"/>
+          <cell r="S40"/>
+          <cell r="T40"/>
         </row>
       </sheetData>
       <sheetData sheetId="56"/>
@@ -20199,6 +20317,7 @@
       <sheetData sheetId="89" refreshError="1"/>
       <sheetData sheetId="90" refreshError="1"/>
       <sheetData sheetId="91" refreshError="1"/>
+      <sheetData sheetId="92" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -20786,13 +20905,13 @@
     </row>
     <row r="2" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C2" s="271" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>551</v>
-      </c>
-      <c r="E2" s="281" t="s">
         <v>550</v>
+      </c>
+      <c r="E2" s="280" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -21131,7 +21250,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -21146,7 +21265,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="301" t="str">
+      <c r="A1" s="300" t="str">
         <f ca="1">IF(INDEX([2]Index!$E$6:$E$37,MATCH(A2,[2]Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
         <v>Processes</v>
       </c>
@@ -21161,7 +21280,7 @@
       <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="302" t="str">
+      <c r="A2" s="301" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Processes_BASE</v>
       </c>
@@ -21205,38 +21324,38 @@
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
-      <c r="B6" s="303" t="s">
-        <v>592</v>
-      </c>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="304"/>
-      <c r="G6" s="304"/>
-      <c r="H6" s="304"/>
+      <c r="B6" s="302" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" s="303"/>
+      <c r="D6" s="303"/>
+      <c r="E6" s="303"/>
+      <c r="F6" s="303"/>
+      <c r="G6" s="303"/>
+      <c r="H6" s="303"/>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
-      <c r="B7" s="305" t="s">
+      <c r="B7" s="304" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="304" t="s">
+        <v>592</v>
+      </c>
+      <c r="D7" s="304" t="s">
         <v>593</v>
       </c>
-      <c r="C7" s="305" t="s">
+      <c r="E7" s="304" t="s">
         <v>594</v>
       </c>
-      <c r="D7" s="305" t="s">
+      <c r="F7" s="304" t="s">
         <v>595</v>
       </c>
-      <c r="E7" s="305" t="s">
+      <c r="G7" s="304" t="s">
         <v>596</v>
       </c>
-      <c r="F7" s="305" t="s">
+      <c r="H7" s="304" t="s">
         <v>597</v>
-      </c>
-      <c r="G7" s="305" t="s">
-        <v>598</v>
-      </c>
-      <c r="H7" s="305" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="31" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -21259,16 +21378,16 @@
         <v>116</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>121</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>601</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
@@ -21284,16 +21403,16 @@
         <v>116</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>121</v>
       </c>
       <c r="G10" s="17" t="s">
+        <v>599</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>601</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="31" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -21304,22 +21423,22 @@
       </c>
       <c r="C11" s="31" t="str">
         <f>RES!T7</f>
-        <v>To local demand</v>
+        <v>Industry - PGMs - to local demand</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>116</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>121</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="31" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -21336,16 +21455,13 @@
         <v>116</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F12" s="31" t="s">
         <v>121</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="31" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -21362,16 +21478,13 @@
         <v>116</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F13" s="31" t="s">
         <v>121</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="31" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -21690,10 +21803,10 @@
   <sheetPr codeName="Sheet17">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+      <selection activeCell="D23" sqref="D23:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -21701,8 +21814,10 @@
     <col min="1" max="1" width="14.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="21.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="3"/>
+    <col min="4" max="4" width="12" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -21843,10 +21958,10 @@
         <f>'PGM methodology'!L22</f>
         <v>31</v>
       </c>
-      <c r="K8" s="300">
+      <c r="K8" s="299">
         <v>30.822038664165241</v>
       </c>
-      <c r="L8" s="300">
+      <c r="L8" s="299">
         <v>30.425949170614519</v>
       </c>
       <c r="M8" s="269">
@@ -21868,6 +21983,94 @@
     </row>
     <row r="10" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="D12" s="313" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D14" s="310" t="s">
+        <v>602</v>
+      </c>
+      <c r="E14" s="310"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="D15" s="310" t="s">
+        <v>612</v>
+      </c>
+      <c r="E15" s="310" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="310" t="s">
+        <v>613</v>
+      </c>
+      <c r="G15" s="310">
+        <v>2017</v>
+      </c>
+      <c r="H15" s="310">
+        <v>2018</v>
+      </c>
+      <c r="I15" s="310">
+        <v>2019</v>
+      </c>
+      <c r="J15" s="310">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D16" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D17" s="311" t="s">
+        <v>543</v>
+      </c>
+      <c r="E17" s="32" t="str">
+        <f>B8</f>
+        <v>IPGMD</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="3">
+        <f>J8</f>
+        <v>31</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" ref="H17:J17" si="0">K8</f>
+        <v>30.822038664165241</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>30.425949170614519</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="O24" s="312"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
@@ -22009,10 +22212,10 @@
   <sheetPr codeName="Sheet30">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:AF20"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22022,7 +22225,7 @@
     <col min="3" max="3" width="36.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
     <col min="7" max="12" width="9.140625" style="3"/>
     <col min="13" max="13" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -22033,8 +22236,8 @@
     <col min="24" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="301" t="str">
+    <row r="1" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="300" t="str">
         <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
         <v>ProcData</v>
       </c>
@@ -22046,25 +22249,25 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
-      <c r="AC1" s="3" t="str">
+      <c r="Y1" s="3" t="str">
         <f>IF(Index!$M$10,"","*")</f>
         <v>*</v>
       </c>
-      <c r="AD1" s="3" t="str">
+      <c r="Z1" s="3" t="str">
         <f>IF(Index!$M$10,"","*")</f>
         <v>*</v>
       </c>
-      <c r="AE1" s="3" t="str">
+      <c r="AA1" s="3" t="str">
         <f>IF(Index!$M$10,"","*")</f>
         <v>*</v>
       </c>
-      <c r="AF1" s="3" t="str">
+      <c r="AB1" s="3" t="str">
         <f>IF(Index!$M$10,"","*")</f>
         <v>*</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="302" t="str">
+    <row r="2" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="301" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>ProcData_PGM</v>
       </c>
@@ -22086,7 +22289,7 @@
       <c r="O2" s="31"/>
       <c r="P2" s="31"/>
     </row>
-    <row r="3" spans="1:32" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -22125,13 +22328,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="306"/>
+      <c r="D4" s="305"/>
+      <c r="E4" s="305"/>
+      <c r="F4" s="305"/>
       <c r="G4" s="39" t="s">
         <v>120</v>
       </c>
@@ -22154,13 +22357,13 @@
         <v>522</v>
       </c>
       <c r="N4" s="89" t="s">
+        <v>533</v>
+      </c>
+      <c r="O4" s="89" t="s">
         <v>534</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="P4" s="89" t="s">
         <v>535</v>
-      </c>
-      <c r="P4" s="89" t="s">
-        <v>536</v>
       </c>
       <c r="Q4" s="39" t="s">
         <v>119</v>
@@ -22186,40 +22389,8 @@
       <c r="X4" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="Y4" s="3" t="str">
-        <f>S4</f>
-        <v>PRC_ACTFLO</v>
-      </c>
-      <c r="Z4" s="3" t="str">
-        <f t="shared" ref="Z4:Z5" si="0">T4</f>
-        <v>PRC_ACTFLO</v>
-      </c>
-      <c r="AA4" s="3" t="str">
-        <f t="shared" ref="AA4:AA5" si="1">U4</f>
-        <v>PRC_ACTFLO</v>
-      </c>
-      <c r="AB4" s="3" t="str">
-        <f t="shared" ref="AB4:AB5" si="2">V4</f>
-        <v>PRC_ACTFLO</v>
-      </c>
-      <c r="AC4" s="3" t="str">
-        <f t="shared" ref="AC4:AF5" si="3">Y4</f>
-        <v>PRC_ACTFLO</v>
-      </c>
-      <c r="AD4" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>PRC_ACTFLO</v>
-      </c>
-      <c r="AE4" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>PRC_ACTFLO</v>
-      </c>
-      <c r="AF4" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>PRC_ACTFLO</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -22230,7 +22401,7 @@
         <v>27</v>
       </c>
       <c r="H5" s="39">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="I5" s="39">
         <v>2030</v>
@@ -22265,7 +22436,7 @@
       </c>
       <c r="V5" s="3" t="str">
         <f>D12</f>
-        <v>INFGAS</v>
+        <v>INDGAS</v>
       </c>
       <c r="W5" s="3" t="str">
         <f>R5</f>
@@ -22275,46 +22446,14 @@
         <f>E14</f>
         <v>IPGMOP</v>
       </c>
-      <c r="Y5" s="3" t="str">
-        <f t="shared" ref="Y5" si="4">S5</f>
-        <v>INDCOA</v>
-      </c>
-      <c r="Z5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>INFELC</v>
-      </c>
-      <c r="AA5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>INDODS</v>
-      </c>
-      <c r="AB5" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>INFGAS</v>
-      </c>
-      <c r="AC5" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INDCOA</v>
-      </c>
-      <c r="AD5" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INFELC</v>
-      </c>
-      <c r="AE5" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INDODS</v>
-      </c>
-      <c r="AF5" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>INFGAS</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="39" t="s">
@@ -22325,45 +22464,45 @@
       <c r="J6" s="39"/>
       <c r="Q6" s="34"/>
     </row>
-    <row r="7" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
-      <c r="B7" s="301" t="s">
-        <v>593</v>
-      </c>
-      <c r="C7" s="301" t="s">
+      <c r="B7" s="300" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="300" t="s">
+        <v>603</v>
+      </c>
+      <c r="D7" s="300" t="s">
+        <v>604</v>
+      </c>
+      <c r="E7" s="300" t="s">
         <v>605</v>
       </c>
-      <c r="D7" s="301" t="s">
-        <v>606</v>
-      </c>
-      <c r="E7" s="301" t="s">
-        <v>607</v>
-      </c>
-      <c r="F7" s="307" t="s">
-        <v>608</v>
+      <c r="F7" s="306" t="s">
+        <v>619</v>
       </c>
       <c r="G7" s="31" t="str">
         <f>IFERROR(REPLACE(G4,SEARCH("-",G4),1,"~"),G4)</f>
         <v>ACT_EFF</v>
       </c>
       <c r="H7" s="91" t="str">
-        <f t="shared" ref="H7:J7" si="5">IFERROR(REPLACE(H4,SEARCH("-",H4),1,"~"),H4)&amp;"~"&amp;H5</f>
-        <v>PRC_RESID~2012</v>
+        <f t="shared" ref="H7:J7" si="0">IFERROR(REPLACE(H4,SEARCH("-",H4),1,"~"),H4)&amp;"~"&amp;H5</f>
+        <v>PRC_RESID~2017</v>
       </c>
       <c r="I7" s="91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>PRC_RESID~2030</v>
       </c>
       <c r="J7" s="91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>PRC_RESID~2050</v>
       </c>
       <c r="K7" s="91" t="str">
-        <f t="shared" ref="K7:L7" si="6">IFERROR(REPLACE(K4,SEARCH("-",K4),1,"~"),K4)&amp;"~"&amp;K5</f>
+        <f t="shared" ref="K7:L7" si="1">IFERROR(REPLACE(K4,SEARCH("-",K4),1,"~"),K4)&amp;"~"&amp;K5</f>
         <v>CAP_BND~UP~</v>
       </c>
       <c r="L7" s="91" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>CAP_BND~UP~0</v>
       </c>
       <c r="M7" s="91" t="str">
@@ -22371,83 +22510,57 @@
         <v>NCAP_START</v>
       </c>
       <c r="N7" s="91" t="str">
-        <f t="shared" ref="N7:R7" si="7">IFERROR(REPLACE(N4,SEARCH("-",N4),1,"~"),N4)</f>
+        <f t="shared" ref="N7:R7" si="2">IFERROR(REPLACE(N4,SEARCH("-",N4),1,"~"),N4)</f>
         <v>NCAP_COST</v>
       </c>
       <c r="O7" s="91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>NCAP_FOM</v>
       </c>
       <c r="P7" s="91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>NCAP_TLIFE</v>
       </c>
       <c r="Q7" s="91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>PRC_CAPACT</v>
       </c>
       <c r="R7" s="91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>PRC_ACTUNT</v>
       </c>
-      <c r="S7" s="91" t="str">
-        <f>IFERROR(REPLACE(S4,SEARCH("-",S4),1,"~"),S4)&amp;"~"&amp;2012</f>
-        <v>PRC_ACTFLO~2012</v>
-      </c>
-      <c r="T7" s="91" t="str">
-        <f t="shared" ref="T7:X7" si="8">IFERROR(REPLACE(T4,SEARCH("-",T4),1,"~"),T4)&amp;"~"&amp;2012</f>
-        <v>PRC_ACTFLO~2012</v>
-      </c>
-      <c r="U7" s="91" t="str">
-        <f t="shared" si="8"/>
-        <v>PRC_ACTFLO~2012</v>
-      </c>
-      <c r="V7" s="91" t="str">
-        <f t="shared" si="8"/>
-        <v>PRC_ACTFLO~2012</v>
-      </c>
-      <c r="W7" s="91" t="str">
-        <f t="shared" si="8"/>
-        <v>PRC_ACTFLO~2012</v>
-      </c>
-      <c r="X7" s="91" t="str">
-        <f t="shared" si="8"/>
-        <v>PRC_ACTFLO~2012</v>
-      </c>
-      <c r="Y7" s="91" t="str">
-        <f>IFERROR(REPLACE(Y4,SEARCH("-",Y4),1,"~"),Y4)&amp;"~"&amp;2017</f>
-        <v>PRC_ACTFLO~2017</v>
-      </c>
-      <c r="Z7" s="91" t="str">
-        <f t="shared" ref="Z7:AB7" si="9">IFERROR(REPLACE(Z4,SEARCH("-",Z4),1,"~"),Z4)&amp;"~"&amp;2017</f>
-        <v>PRC_ACTFLO~2017</v>
-      </c>
-      <c r="AA7" s="91" t="str">
-        <f t="shared" si="9"/>
-        <v>PRC_ACTFLO~2017</v>
-      </c>
-      <c r="AB7" s="91" t="str">
-        <f t="shared" si="9"/>
-        <v>PRC_ACTFLO~2017</v>
-      </c>
-      <c r="AC7" s="91" t="str">
-        <f>IFERROR(REPLACE(AC4,SEARCH("-",AC4),1,"~"),AC4)&amp;"~"&amp;2030</f>
-        <v>PRC_ACTFLO~2030</v>
-      </c>
-      <c r="AD7" s="91" t="str">
-        <f t="shared" ref="AD7:AF7" si="10">IFERROR(REPLACE(AD4,SEARCH("-",AD4),1,"~"),AD4)&amp;"~"&amp;2030</f>
-        <v>PRC_ACTFLO~2030</v>
-      </c>
-      <c r="AE7" s="91" t="str">
-        <f t="shared" si="10"/>
-        <v>PRC_ACTFLO~2030</v>
-      </c>
-      <c r="AF7" s="91" t="str">
-        <f t="shared" si="10"/>
-        <v>PRC_ACTFLO~2030</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="309" t="s">
+        <v>610</v>
+      </c>
+      <c r="T7" s="309" t="s">
+        <v>610</v>
+      </c>
+      <c r="U7" s="309" t="s">
+        <v>610</v>
+      </c>
+      <c r="V7" s="309" t="s">
+        <v>610</v>
+      </c>
+      <c r="W7" s="309" t="s">
+        <v>618</v>
+      </c>
+      <c r="X7" s="309" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y7" s="309" t="s">
+        <v>611</v>
+      </c>
+      <c r="Z7" s="309" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA7" s="309" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB7" s="309" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="str">
         <f>Processes_BASE!A8</f>
         <v>* Conversion technologies</v>
@@ -22466,7 +22579,7 @@
       <c r="O8" s="92"/>
       <c r="P8" s="92"/>
     </row>
-    <row r="9" spans="1:32" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="31" t="str">
         <f>Processes_BASE!B9</f>
@@ -22493,16 +22606,12 @@
       </c>
       <c r="T9" s="3"/>
       <c r="Y9" s="93">
-        <f>S9</f>
-        <v>1.5184024154038968E-2</v>
-      </c>
-      <c r="AC9" s="93">
         <f>EB_Exist!G20/EB_Exist!G28</f>
         <v>1.5184024154038968E-2</v>
       </c>
-      <c r="AD9" s="3"/>
-    </row>
-    <row r="10" spans="1:32" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:28" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="D10" s="97" t="str">
         <f>RES!E2</f>
@@ -22523,16 +22632,12 @@
         <f>EB_Exist!K11/EB_Exist!F4</f>
         <v>0.15114499937673032</v>
       </c>
-      <c r="Z10" s="93">
-        <f>T10</f>
-        <v>0.15114499937673032</v>
-      </c>
-      <c r="AD10" s="26">
+      <c r="Z10" s="26">
         <f>EB_Exist!G21/EB_Exist!G28</f>
         <v>0.14441687784826079</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="D11" s="96" t="str">
         <f>RES!F2</f>
@@ -22552,20 +22657,16 @@
         <f>EB_Exist!K12/EB_Exist!F4</f>
         <v>1.740249605672875E-2</v>
       </c>
-      <c r="AA11" s="93">
-        <f>U11</f>
-        <v>1.740249605672875E-2</v>
-      </c>
-      <c r="AE11" s="26">
+      <c r="AA11" s="26">
         <f>EB_Exist!G23/EB_Exist!G28</f>
         <v>1.740249605672875E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="D12" s="96" t="str">
         <f>RES!G2</f>
-        <v>INFGAS</v>
+        <v>INDGAS</v>
       </c>
       <c r="G12" s="92"/>
       <c r="H12" s="92"/>
@@ -22581,16 +22682,12 @@
         <f>EB_Exist!K13/EB_Exist!F4</f>
         <v>1.0221036009077367E-3</v>
       </c>
-      <c r="AB12" s="93">
-        <f>V12</f>
-        <v>1.0221036009077367E-3</v>
-      </c>
-      <c r="AF12" s="26">
+      <c r="AB12" s="26">
         <f>EB_Exist!G22/EB_Exist!G28</f>
         <v>1.0221036009077367E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -22631,7 +22728,7 @@
       </c>
       <c r="X13" s="93"/>
     </row>
-    <row r="14" spans="1:32" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -22652,7 +22749,7 @@
         <v>0.39882077196331445</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="str">
         <f>RES!M15</f>
@@ -22688,12 +22785,8 @@
       <c r="V15" s="3"/>
       <c r="W15" s="93"/>
       <c r="X15" s="93"/>
-      <c r="Y15" s="93">
-        <f>S15</f>
-        <v>1.5335864395579359E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:28" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -22723,12 +22816,8 @@
       <c r="V16" s="3"/>
       <c r="W16" s="93"/>
       <c r="X16" s="93"/>
-      <c r="Z16" s="93">
-        <f>T16</f>
-        <v>0.15265644937049763</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:24" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -22758,18 +22847,14 @@
       <c r="V17" s="3"/>
       <c r="W17" s="93"/>
       <c r="X17" s="93"/>
-      <c r="AA17" s="93">
-        <f>U17</f>
-        <v>1.7576521017296037E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:24" s="26" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="str">
         <f>RES!G2</f>
-        <v>INFGAS</v>
+        <v>INDGAS</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="3"/>
@@ -22793,12 +22878,8 @@
       </c>
       <c r="W18" s="93"/>
       <c r="X18" s="93"/>
-      <c r="AB18" s="93">
-        <f>V18</f>
-        <v>1.032324636916814E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="3" t="str">
         <f>RES!O2</f>
         <v>IPGM</v>
@@ -22811,11 +22892,11 @@
       </c>
       <c r="N19" s="3">
         <f>'PGM methodology'!L85</f>
-        <v>1159.5845779193976</v>
+        <v>1715.6368902773784</v>
       </c>
       <c r="O19" s="3">
         <f>'PGM methodology'!L84</f>
-        <v>214.83825141995794</v>
+        <v>317.8590303780208</v>
       </c>
       <c r="P19" s="3">
         <f>'PGM methodology'!L86</f>
@@ -22833,7 +22914,7 @@
       </c>
       <c r="X19" s="92"/>
     </row>
-    <row r="20" spans="1:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="3" t="str">
         <f>RES!P2</f>
         <v>IPGMOP</v>
@@ -23275,10 +23356,10 @@
   <sheetPr codeName="Sheet31">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23289,13 +23370,11 @@
     <col min="4" max="4" width="8.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="3" customWidth="1"/>
-    <col min="7" max="17" width="9.140625" style="3"/>
-    <col min="18" max="18" width="13.140625" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="301" t="str">
+    <row r="1" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="300" t="str">
         <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
         <v>ProcData</v>
       </c>
@@ -23308,8 +23387,8 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="302" t="str">
+    <row r="2" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="301" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>ProcData_PGMexports</v>
       </c>
@@ -23320,7 +23399,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -23337,13 +23416,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="306"/>
+      <c r="D4" s="305"/>
+      <c r="E4" s="305"/>
+      <c r="F4" s="305"/>
       <c r="G4" s="39" t="s">
         <v>120</v>
       </c>
@@ -23357,37 +23436,19 @@
         <v>127</v>
       </c>
       <c r="K4" s="39" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="N4" s="39" t="s">
-        <v>572</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>572</v>
-      </c>
-      <c r="P4" s="39" t="s">
-        <v>572</v>
-      </c>
-      <c r="Q4" s="39" t="s">
-        <v>572</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>573</v>
-      </c>
-      <c r="S4" s="39" t="s">
-        <v>573</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -23402,48 +23463,30 @@
         <f>D9</f>
         <v>IPGM</v>
       </c>
-      <c r="J5" s="14" t="str">
-        <f>D11</f>
-        <v>IPGMOP</v>
+      <c r="J5" s="14" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="K5" s="38">
         <v>0</v>
       </c>
       <c r="L5" s="3">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="M5" s="3">
-        <v>2013</v>
+        <v>2030</v>
       </c>
       <c r="N5" s="3">
-        <v>2014</v>
-      </c>
-      <c r="O5" s="3">
-        <v>2015</v>
-      </c>
-      <c r="P5" s="3">
-        <v>2016</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>2017</v>
-      </c>
-      <c r="R5" s="3">
-        <v>2017</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2030</v>
-      </c>
-      <c r="T5" s="3">
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
       <c r="E6" s="31" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="39" t="s">
@@ -23462,41 +23505,23 @@
       <c r="N6" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q6" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="R6" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="S6" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="T6" s="39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
-      <c r="B7" s="301" t="s">
-        <v>593</v>
-      </c>
-      <c r="C7" s="301" t="s">
+      <c r="B7" s="300" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="300" t="s">
+        <v>603</v>
+      </c>
+      <c r="D7" s="300" t="s">
+        <v>604</v>
+      </c>
+      <c r="E7" s="300" t="s">
         <v>605</v>
       </c>
-      <c r="D7" s="301" t="s">
+      <c r="F7" s="306" t="s">
         <v>606</v>
-      </c>
-      <c r="E7" s="301" t="s">
-        <v>607</v>
-      </c>
-      <c r="F7" s="307" t="s">
-        <v>608</v>
       </c>
       <c r="G7" s="31" t="str">
         <f>IFERROR(REPLACE(G4,SEARCH("-",G4),1,"~"),G4)</f>
@@ -23515,47 +23540,23 @@
         <v>PRC_ACTUNT</v>
       </c>
       <c r="K7" s="91" t="str">
-        <f t="shared" ref="K7:T7" si="1">IFERROR(REPLACE(K4,SEARCH("-",K4),1,"~"),K4)&amp;"~"&amp;K5</f>
+        <f t="shared" ref="K7:N7" si="1">IFERROR(REPLACE(K4,SEARCH("-",K4),1,"~"),K4)&amp;"~"&amp;K5</f>
         <v>ACT_BND~FX~0</v>
       </c>
       <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>ACT_BND~FX~2012</v>
+        <v>ACT_BND~FX~2017</v>
       </c>
       <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>ACT_BND~FX~2013</v>
+        <v>ACT_BND~LO~2030</v>
       </c>
       <c r="N7" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>ACT_BND~FX~2014</v>
-      </c>
-      <c r="O7" s="91" t="str">
-        <f t="shared" si="1"/>
-        <v>ACT_BND~FX~2015</v>
-      </c>
-      <c r="P7" s="91" t="str">
-        <f t="shared" si="1"/>
-        <v>ACT_BND~FX~2016</v>
-      </c>
-      <c r="Q7" s="91" t="str">
-        <f t="shared" si="1"/>
-        <v>ACT_BND~FX~2017</v>
-      </c>
-      <c r="R7" s="91" t="str">
-        <f t="shared" si="1"/>
-        <v>ACT_BND~LO~2017</v>
-      </c>
-      <c r="S7" s="91" t="str">
-        <f t="shared" si="1"/>
-        <v>ACT_BND~LO~2030</v>
-      </c>
-      <c r="T7" s="91" t="str">
-        <f t="shared" si="1"/>
         <v>ACT_BND~LO~2050</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="str">
         <f>Processes_BASE!A8</f>
         <v>* Conversion technologies</v>
@@ -23565,14 +23566,14 @@
       <c r="F8" s="96"/>
       <c r="G8" s="92"/>
     </row>
-    <row r="9" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="str">
         <f>Processes_BASE!B11</f>
         <v>XIPGM</v>
       </c>
       <c r="C9" s="3" t="str">
         <f>Processes_BASE!C11</f>
-        <v>To local demand</v>
+        <v>Industry - PGMs - to local demand</v>
       </c>
       <c r="D9" s="3" t="str">
         <f>RES!O2</f>
@@ -23592,7 +23593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="str">
         <f>Processes_BASE!B12</f>
         <v>PEXPGM</v>
@@ -23602,12 +23603,8 @@
         <v>Export PGMs - Pt</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>RES!O2</f>
+        <f>Commodities_BASE!B13</f>
         <v>IPGM</v>
-      </c>
-      <c r="E10" s="3" t="str">
-        <f>Commodities_BASE!B16</f>
-        <v>IDUM</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -23621,44 +23618,20 @@
       <c r="K10" s="3">
         <v>3</v>
       </c>
-      <c r="L10" s="294">
-        <f>'PGM methodology'!G23</f>
-        <v>124.69952392131813</v>
-      </c>
-      <c r="M10" s="294">
-        <f>'PGM methodology'!H23</f>
-        <v>130.71131620168498</v>
-      </c>
-      <c r="N10" s="294">
-        <f>'PGM methodology'!I23</f>
-        <v>84.02169487089688</v>
-      </c>
-      <c r="O10" s="294">
-        <f>'PGM methodology'!J23</f>
-        <v>133.92546693812523</v>
-      </c>
-      <c r="P10" s="294">
-        <f>'PGM methodology'!K23</f>
-        <v>127.71131620168498</v>
-      </c>
-      <c r="Q10" s="294">
+      <c r="L10" s="293">
         <f>'PGM methodology'!L23</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="R10" s="294">
-        <f>Q10</f>
+      <c r="M10" s="293">
+        <f>L10</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="S10" s="294">
-        <f>Q10</f>
+      <c r="N10" s="293">
+        <f>M10</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="T10" s="294">
-        <f>S10</f>
-        <v>125.30659928953824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="str">
         <f>Processes_BASE!B13</f>
         <v>PEXPGMO</v>
@@ -23668,12 +23641,8 @@
         <v>Export PGMs - Others</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>RES!P2</f>
+        <f>Commodities_BASE!B14</f>
         <v>IPGMOP</v>
-      </c>
-      <c r="E11" s="3" t="str">
-        <f>E10</f>
-        <v>IDUM</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -23687,43 +23656,20 @@
       <c r="K11" s="3">
         <v>3</v>
       </c>
-      <c r="L11" s="294">
-        <f>'PGM methodology'!G24</f>
-        <v>101.30047607868187</v>
-      </c>
-      <c r="M11" s="294">
-        <f>'PGM methodology'!H24</f>
-        <v>105.28868379831502</v>
-      </c>
-      <c r="N11" s="294">
-        <f>'PGM methodology'!I24</f>
-        <v>74.97830512910312</v>
-      </c>
-      <c r="O11" s="294">
-        <f>'PGM methodology'!J24</f>
-        <v>110.07453306187479</v>
-      </c>
-      <c r="P11" s="294">
-        <f>'PGM methodology'!K24</f>
-        <v>105.28868379831502</v>
-      </c>
-      <c r="Q11" s="294">
+      <c r="L11" s="293">
         <f>'PGM methodology'!L24</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="R11" s="294">
-        <f>Q11</f>
+      <c r="M11" s="293">
+        <f>L11</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="S11" s="294">
-        <f>Q11</f>
+      <c r="N11" s="293">
+        <f>M11</f>
         <v>103.69340071046176</v>
       </c>
-      <c r="T11" s="294">
-        <f>S11</f>
-        <v>103.69340071046176</v>
-      </c>
-    </row>
+    </row>
+    <row r="14" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
@@ -23917,8 +23863,8 @@
   </sheetPr>
   <dimension ref="A1:Y104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23933,7 +23879,7 @@
     <col min="13" max="15" width="8.85546875" style="123"/>
     <col min="16" max="16" width="11" style="123" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="123" customWidth="1"/>
-    <col min="18" max="18" width="49.7109375" style="283" customWidth="1"/>
+    <col min="18" max="18" width="49.7109375" style="282" customWidth="1"/>
     <col min="19" max="16384" width="8.85546875" style="123"/>
   </cols>
   <sheetData>
@@ -23959,8 +23905,8 @@
       <c r="O1" s="122">
         <v>2030</v>
       </c>
-      <c r="R1" s="282" t="s">
-        <v>549</v>
+      <c r="R1" s="281" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -23981,8 +23927,8 @@
         <v>446</v>
       </c>
       <c r="E4" s="189"/>
-      <c r="F4" s="279" t="s">
-        <v>556</v>
+      <c r="F4" s="278" t="s">
+        <v>555</v>
       </c>
       <c r="G4" s="123">
         <f>'Minerals council report 2017'!D24</f>
@@ -24004,12 +23950,12 @@
         <f>'Minerals council report 2017'!H24</f>
         <v>264</v>
       </c>
-      <c r="L4" s="276">
+      <c r="L4" s="275">
         <f>'Minerals council report 2017'!I24</f>
         <v>260</v>
       </c>
-      <c r="R4" s="280" t="s">
-        <v>555</v>
+      <c r="R4" s="279" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -24142,7 +24088,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="122" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D15" s="240"/>
       <c r="F15" s="240"/>
@@ -24166,10 +24112,10 @@
       <c r="L16" s="243"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D17" s="279" t="s">
-        <v>545</v>
-      </c>
-      <c r="F17" s="279" t="s">
+      <c r="D17" s="278" t="s">
+        <v>544</v>
+      </c>
+      <c r="F17" s="278" t="s">
         <v>203</v>
       </c>
       <c r="G17" s="243">
@@ -24198,10 +24144,10 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D18" s="279" t="s">
-        <v>546</v>
-      </c>
-      <c r="F18" s="279" t="s">
+      <c r="D18" s="278" t="s">
+        <v>545</v>
+      </c>
+      <c r="F18" s="278" t="s">
         <v>203</v>
       </c>
       <c r="H18" s="243">
@@ -24226,10 +24172,10 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="D19" s="279" t="s">
-        <v>553</v>
-      </c>
-      <c r="F19" s="279" t="s">
+      <c r="D19" s="278" t="s">
+        <v>552</v>
+      </c>
+      <c r="F19" s="278" t="s">
         <v>203</v>
       </c>
       <c r="H19" s="243">
@@ -24252,26 +24198,26 @@
         <f>SUM(L17:L18)</f>
         <v>282</v>
       </c>
-      <c r="R19" s="280" t="s">
-        <v>554</v>
+      <c r="R19" s="279" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D20" s="279"/>
-      <c r="F20" s="279"/>
+      <c r="D20" s="278"/>
+      <c r="F20" s="278"/>
       <c r="H20" s="243"/>
       <c r="I20" s="243"/>
       <c r="J20" s="243"/>
       <c r="K20" s="243"/>
       <c r="L20" s="243"/>
-      <c r="R20" s="280"/>
+      <c r="R20" s="279"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B21" s="279" t="s">
-        <v>547</v>
-      </c>
-      <c r="D21" s="279"/>
-      <c r="F21" s="279"/>
+      <c r="B21" s="278" t="s">
+        <v>546</v>
+      </c>
+      <c r="D21" s="278"/>
+      <c r="F21" s="278"/>
       <c r="H21" s="243"/>
       <c r="I21" s="243"/>
       <c r="J21" s="243"/>
@@ -24279,10 +24225,10 @@
       <c r="L21" s="243"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D22" s="279" t="s">
-        <v>548</v>
-      </c>
-      <c r="F22" s="279" t="s">
+      <c r="D22" s="278" t="s">
+        <v>547</v>
+      </c>
+      <c r="F22" s="278" t="s">
         <v>203</v>
       </c>
       <c r="G22" s="243">
@@ -24309,13 +24255,13 @@
         <f t="shared" ref="L22" si="5">L17</f>
         <v>31</v>
       </c>
-      <c r="R22" s="280"/>
+      <c r="R22" s="279"/>
     </row>
     <row r="23" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="D23" s="279" t="s">
-        <v>569</v>
-      </c>
-      <c r="F23" s="279" t="s">
+      <c r="D23" s="278" t="s">
+        <v>567</v>
+      </c>
+      <c r="F23" s="278" t="s">
         <v>203</v>
       </c>
       <c r="G23" s="243">
@@ -24342,15 +24288,15 @@
         <f>L12-L22</f>
         <v>125.30659928953824</v>
       </c>
-      <c r="R23" s="280" t="s">
-        <v>571</v>
+      <c r="R23" s="279" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D24" s="279" t="s">
-        <v>570</v>
-      </c>
-      <c r="F24" s="279" t="s">
+      <c r="D24" s="278" t="s">
+        <v>568</v>
+      </c>
+      <c r="F24" s="278" t="s">
         <v>203</v>
       </c>
       <c r="G24" s="243">
@@ -24395,7 +24341,7 @@
       <c r="D29" s="240" t="s">
         <v>172</v>
       </c>
-      <c r="F29" s="284" t="s">
+      <c r="F29" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G29" s="244">
@@ -24430,8 +24376,8 @@
         <f>Index!N16</f>
         <v>0.05</v>
       </c>
-      <c r="R29" s="295" t="s">
-        <v>576</v>
+      <c r="R29" s="294" t="s">
+        <v>574</v>
       </c>
       <c r="S29" s="124" t="s">
         <v>323</v>
@@ -24450,7 +24396,7 @@
       <c r="D30" s="240" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="284" t="s">
+      <c r="F30" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G30" s="244">
@@ -24477,7 +24423,7 @@
         <f t="shared" si="9"/>
         <v>5.8549618320610709E-2</v>
       </c>
-      <c r="O30" s="297">
+      <c r="O30" s="296">
         <f>L30</f>
         <v>5.8549618320610709E-2</v>
       </c>
@@ -24493,7 +24439,7 @@
       <c r="D31" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="284" t="s">
+      <c r="F31" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G31" s="244">
@@ -24520,7 +24466,7 @@
         <f t="shared" si="9"/>
         <v>1.9672671755725195</v>
       </c>
-      <c r="O31" s="297">
+      <c r="O31" s="296">
         <f>L31</f>
         <v>1.9672671755725195</v>
       </c>
@@ -24548,7 +24494,7 @@
       <c r="D32" s="240" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="284" t="s">
+      <c r="F32" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G32" s="244">
@@ -24632,7 +24578,7 @@
       <c r="D34" s="240" t="s">
         <v>172</v>
       </c>
-      <c r="F34" s="284" t="s">
+      <c r="F34" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G34" s="244">
@@ -24667,8 +24613,8 @@
         <f>Q29</f>
         <v>0.05</v>
       </c>
-      <c r="R34" s="295" t="s">
-        <v>576</v>
+      <c r="R34" s="294" t="s">
+        <v>574</v>
       </c>
       <c r="S34" s="146"/>
       <c r="T34" s="123" t="s">
@@ -24698,7 +24644,7 @@
       <c r="D35" s="240" t="s">
         <v>174</v>
       </c>
-      <c r="F35" s="284" t="s">
+      <c r="F35" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G35" s="244">
@@ -24725,7 +24671,7 @@
         <f t="shared" si="10"/>
         <v>2.343880597014926E-2</v>
       </c>
-      <c r="O35" s="297">
+      <c r="O35" s="296">
         <f t="shared" ref="O35:O37" si="11">L35</f>
         <v>2.343880597014926E-2</v>
       </c>
@@ -24751,7 +24697,7 @@
       <c r="D36" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="284" t="s">
+      <c r="F36" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G36" s="244">
@@ -24778,7 +24724,7 @@
         <f t="shared" si="10"/>
         <v>1.980579104477612</v>
       </c>
-      <c r="O36" s="297">
+      <c r="O36" s="296">
         <f t="shared" si="11"/>
         <v>1.980579104477612</v>
       </c>
@@ -24797,7 +24743,7 @@
       <c r="D37" s="240" t="s">
         <v>173</v>
       </c>
-      <c r="F37" s="284" t="s">
+      <c r="F37" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G37" s="244">
@@ -24824,7 +24770,7 @@
         <f t="shared" si="10"/>
         <v>0.24610746268656719</v>
       </c>
-      <c r="O37" s="297">
+      <c r="O37" s="296">
         <f t="shared" si="11"/>
         <v>0.24610746268656719</v>
       </c>
@@ -24845,7 +24791,7 @@
       <c r="D39" s="240" t="s">
         <v>172</v>
       </c>
-      <c r="F39" s="284" t="s">
+      <c r="F39" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G39" s="244">
@@ -24880,8 +24826,8 @@
         <f>Q34</f>
         <v>0.05</v>
       </c>
-      <c r="R39" s="295" t="s">
-        <v>576</v>
+      <c r="R39" s="294" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="3:25" x14ac:dyDescent="0.25">
@@ -24891,7 +24837,7 @@
       <c r="D40" s="240" t="s">
         <v>174</v>
       </c>
-      <c r="F40" s="284" t="s">
+      <c r="F40" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G40" s="244">
@@ -24918,7 +24864,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O40" s="297">
+      <c r="O40" s="296">
         <f t="shared" ref="O40:O42" si="13">L40</f>
         <v>0</v>
       </c>
@@ -24930,7 +24876,7 @@
       <c r="D41" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="F41" s="284" t="s">
+      <c r="F41" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G41" s="244">
@@ -24957,7 +24903,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O41" s="297">
+      <c r="O41" s="296">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -24969,7 +24915,7 @@
       <c r="D42" s="240" t="s">
         <v>173</v>
       </c>
-      <c r="F42" s="284" t="s">
+      <c r="F42" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G42" s="244">
@@ -24996,7 +24942,7 @@
         <f t="shared" si="12"/>
         <v>1.9639473549444356E-2</v>
       </c>
-      <c r="O42" s="297">
+      <c r="O42" s="296">
         <f t="shared" si="13"/>
         <v>1.9639473549444356E-2</v>
       </c>
@@ -25017,7 +24963,7 @@
       <c r="D44" s="240" t="s">
         <v>172</v>
       </c>
-      <c r="F44" s="284" t="s">
+      <c r="F44" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G44" s="244">
@@ -25052,8 +24998,8 @@
         <f>Index!Q16</f>
         <v>0.04</v>
       </c>
-      <c r="R44" s="295" t="s">
-        <v>576</v>
+      <c r="R44" s="294" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="45" spans="3:25" x14ac:dyDescent="0.25">
@@ -25063,7 +25009,7 @@
       <c r="D45" s="240" t="s">
         <v>174</v>
       </c>
-      <c r="F45" s="284" t="s">
+      <c r="F45" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G45" s="244">
@@ -25090,7 +25036,7 @@
         <f t="shared" si="14"/>
         <v>4.4426605504587151</v>
       </c>
-      <c r="O45" s="297">
+      <c r="O45" s="296">
         <f>L45</f>
         <v>4.4426605504587151</v>
       </c>
@@ -25102,7 +25048,7 @@
       <c r="D46" s="240" t="s">
         <v>137</v>
       </c>
-      <c r="F46" s="284" t="s">
+      <c r="F46" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G46" s="244">
@@ -25137,7 +25083,7 @@
       <c r="D47" s="240" t="s">
         <v>173</v>
       </c>
-      <c r="F47" s="284" t="s">
+      <c r="F47" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G47" s="244">
@@ -25173,7 +25119,7 @@
         <v>172</v>
       </c>
       <c r="E50" s="122"/>
-      <c r="F50" s="284" t="s">
+      <c r="F50" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G50" s="245">
@@ -25213,7 +25159,7 @@
         <v>174</v>
       </c>
       <c r="E51" s="122"/>
-      <c r="F51" s="284" t="s">
+      <c r="F51" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G51" s="245">
@@ -25251,7 +25197,7 @@
         <v>137</v>
       </c>
       <c r="E52" s="122"/>
-      <c r="F52" s="284" t="s">
+      <c r="F52" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G52" s="245">
@@ -25289,7 +25235,7 @@
         <v>173</v>
       </c>
       <c r="E53" s="122"/>
-      <c r="F53" s="284" t="s">
+      <c r="F53" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G53" s="245">
@@ -25335,7 +25281,7 @@
       <c r="D55" s="122" t="s">
         <v>216</v>
       </c>
-      <c r="F55" s="284" t="s">
+      <c r="F55" s="283" t="s">
         <v>116</v>
       </c>
       <c r="G55" s="245">
@@ -25592,7 +25538,7 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B82" s="242" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
@@ -25608,28 +25554,29 @@
       <c r="I84" s="122"/>
       <c r="J84" s="122"/>
       <c r="K84" s="122"/>
-      <c r="L84" s="274">
+      <c r="L84" s="273">
         <f>'Waterberg project'!N26*P84</f>
-        <v>214.83825141995794</v>
+        <v>317.8590303780208</v>
       </c>
       <c r="P84" s="201">
-        <v>12.506056651959728</v>
-      </c>
-      <c r="Q84" s="273" t="s">
-        <v>530</v>
+        <v>18.503050620506183</v>
+      </c>
+      <c r="Q84" s="308" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C85" s="122" t="s">
+        <v>531</v>
+      </c>
+      <c r="F85" s="122" t="s">
         <v>532</v>
-      </c>
-      <c r="F85" s="122" t="s">
-        <v>533</v>
       </c>
       <c r="L85" s="244">
         <f>'Waterberg project'!N25*P84</f>
-        <v>1159.5845779193976</v>
-      </c>
+        <v>1715.6368902773784</v>
+      </c>
+      <c r="Q85" s="308"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C86" s="122" t="s">
@@ -25674,7 +25621,9 @@
   <sheetPr codeName="Sheet22"/>
   <dimension ref="B2:Y85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26399,26 +26348,26 @@
     </row>
     <row r="50" spans="2:25" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="146"/>
-      <c r="Q50" s="316"/>
-      <c r="R50" s="316"/>
-      <c r="S50" s="316"/>
-      <c r="T50" s="316"/>
-      <c r="U50" s="316"/>
-      <c r="V50" s="316"/>
-      <c r="W50" s="316"/>
+      <c r="Q50" s="322"/>
+      <c r="R50" s="322"/>
+      <c r="S50" s="322"/>
+      <c r="T50" s="322"/>
+      <c r="U50" s="322"/>
+      <c r="V50" s="322"/>
+      <c r="W50" s="322"/>
       <c r="Y50" s="130"/>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B51" s="146"/>
-      <c r="Q51" s="316"/>
-      <c r="R51" s="316"/>
-      <c r="S51" s="316"/>
-      <c r="T51" s="316"/>
-      <c r="U51" s="316"/>
-      <c r="V51" s="316"/>
-      <c r="W51" s="316"/>
-      <c r="X51" s="316"/>
-      <c r="Y51" s="317"/>
+      <c r="Q51" s="322"/>
+      <c r="R51" s="322"/>
+      <c r="S51" s="322"/>
+      <c r="T51" s="322"/>
+      <c r="U51" s="322"/>
+      <c r="V51" s="322"/>
+      <c r="W51" s="322"/>
+      <c r="X51" s="322"/>
+      <c r="Y51" s="323"/>
     </row>
     <row r="52" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="146"/>
@@ -26434,15 +26383,15 @@
       <c r="T52" s="163">
         <v>0.71299999999999997</v>
       </c>
-      <c r="U52" s="318">
+      <c r="U52" s="324">
         <v>0.34</v>
       </c>
-      <c r="V52" s="319"/>
-      <c r="W52" s="318">
+      <c r="V52" s="325"/>
+      <c r="W52" s="324">
         <v>0.21</v>
       </c>
-      <c r="X52" s="320"/>
-      <c r="Y52" s="321"/>
+      <c r="X52" s="326"/>
+      <c r="Y52" s="327"/>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" s="146"/>
@@ -26458,15 +26407,15 @@
       <c r="T53" s="166">
         <v>0.252</v>
       </c>
-      <c r="U53" s="322">
+      <c r="U53" s="328">
         <v>0.64100000000000001</v>
       </c>
-      <c r="V53" s="323"/>
-      <c r="W53" s="322">
+      <c r="V53" s="329"/>
+      <c r="W53" s="328">
         <v>0.78</v>
       </c>
-      <c r="X53" s="324"/>
-      <c r="Y53" s="325"/>
+      <c r="X53" s="330"/>
+      <c r="Y53" s="331"/>
     </row>
     <row r="54" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="146"/>
@@ -26482,15 +26431,15 @@
       <c r="T54" s="167">
         <v>2.99E-3</v>
       </c>
-      <c r="U54" s="308">
+      <c r="U54" s="314">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="V54" s="309"/>
-      <c r="W54" s="308">
+      <c r="V54" s="315"/>
+      <c r="W54" s="314">
         <v>0.01</v>
       </c>
-      <c r="X54" s="310"/>
-      <c r="Y54" s="311"/>
+      <c r="X54" s="316"/>
+      <c r="Y54" s="317"/>
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B55" s="146"/>
@@ -26506,15 +26455,15 @@
       <c r="T55" s="168">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="U55" s="312" t="s">
+      <c r="U55" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="V55" s="313"/>
-      <c r="W55" s="312" t="s">
+      <c r="V55" s="319"/>
+      <c r="W55" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="X55" s="314"/>
-      <c r="Y55" s="315"/>
+      <c r="X55" s="320"/>
+      <c r="Y55" s="321"/>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" s="146"/>
@@ -26972,26 +26921,26 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="146"/>
-      <c r="C26" s="316"/>
-      <c r="D26" s="316"/>
-      <c r="E26" s="316"/>
-      <c r="F26" s="316"/>
-      <c r="G26" s="316"/>
-      <c r="H26" s="316"/>
-      <c r="I26" s="316"/>
+      <c r="C26" s="322"/>
+      <c r="D26" s="322"/>
+      <c r="E26" s="322"/>
+      <c r="F26" s="322"/>
+      <c r="G26" s="322"/>
+      <c r="H26" s="322"/>
+      <c r="I26" s="322"/>
       <c r="K26" s="130"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="146"/>
-      <c r="C27" s="316"/>
-      <c r="D27" s="316"/>
-      <c r="E27" s="316"/>
-      <c r="F27" s="316"/>
-      <c r="G27" s="316"/>
-      <c r="H27" s="316"/>
-      <c r="I27" s="316"/>
-      <c r="J27" s="316"/>
-      <c r="K27" s="317"/>
+      <c r="C27" s="322"/>
+      <c r="D27" s="322"/>
+      <c r="E27" s="322"/>
+      <c r="F27" s="322"/>
+      <c r="G27" s="322"/>
+      <c r="H27" s="322"/>
+      <c r="I27" s="322"/>
+      <c r="J27" s="322"/>
+      <c r="K27" s="323"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="146"/>
@@ -27007,15 +26956,15 @@
       <c r="F28" s="163">
         <v>0.71299999999999997</v>
       </c>
-      <c r="G28" s="318">
+      <c r="G28" s="324">
         <v>0.34</v>
       </c>
-      <c r="H28" s="319"/>
-      <c r="I28" s="318">
+      <c r="H28" s="325"/>
+      <c r="I28" s="324">
         <v>0.21</v>
       </c>
-      <c r="J28" s="320"/>
-      <c r="K28" s="321"/>
+      <c r="J28" s="326"/>
+      <c r="K28" s="327"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="146"/>
@@ -27031,15 +26980,15 @@
       <c r="F29" s="166">
         <v>0.252</v>
       </c>
-      <c r="G29" s="322">
+      <c r="G29" s="328">
         <v>0.64100000000000001</v>
       </c>
-      <c r="H29" s="323"/>
-      <c r="I29" s="322">
+      <c r="H29" s="329"/>
+      <c r="I29" s="328">
         <v>0.78</v>
       </c>
-      <c r="J29" s="324"/>
-      <c r="K29" s="325"/>
+      <c r="J29" s="330"/>
+      <c r="K29" s="331"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="146"/>
@@ -27055,15 +27004,15 @@
       <c r="F30" s="167">
         <v>2.99E-3</v>
       </c>
-      <c r="G30" s="308">
+      <c r="G30" s="314">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="H30" s="309"/>
-      <c r="I30" s="308">
+      <c r="H30" s="315"/>
+      <c r="I30" s="314">
         <v>0.01</v>
       </c>
-      <c r="J30" s="310"/>
-      <c r="K30" s="311"/>
+      <c r="J30" s="316"/>
+      <c r="K30" s="317"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="146"/>
@@ -27079,15 +27028,15 @@
       <c r="F31" s="168">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="G31" s="312" t="s">
+      <c r="G31" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H31" s="313"/>
-      <c r="I31" s="312" t="s">
+      <c r="H31" s="319"/>
+      <c r="I31" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="J31" s="314"/>
-      <c r="K31" s="315"/>
+      <c r="J31" s="320"/>
+      <c r="K31" s="321"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="146"/>
@@ -27781,7 +27730,7 @@
     </row>
     <row r="2" spans="3:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="271" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>524</v>
@@ -27808,13 +27757,13 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="326" t="s">
+      <c r="C5" s="332" t="s">
         <v>284</v>
       </c>
-      <c r="D5" s="326"/>
-      <c r="E5" s="326"/>
-      <c r="F5" s="326"/>
-      <c r="G5" s="326"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="174" t="s">
@@ -27909,11 +27858,11 @@
       <c r="G11" s="189"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="326" t="s">
+      <c r="C12" s="332" t="s">
         <v>291</v>
       </c>
-      <c r="D12" s="326"/>
-      <c r="E12" s="326"/>
+      <c r="D12" s="332"/>
+      <c r="E12" s="332"/>
       <c r="F12" s="189"/>
       <c r="G12" s="189"/>
     </row>
@@ -28307,7 +28256,7 @@
         <v>12.9</v>
       </c>
       <c r="G3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="4:16" x14ac:dyDescent="0.2">
@@ -28335,7 +28284,7 @@
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E8" t="s">
         <v>333</v>
@@ -28352,7 +28301,7 @@
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G10">
         <f>G7/$F$3</f>
@@ -28397,7 +28346,7 @@
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G11">
         <f>G10*29</f>
@@ -32969,59 +32918,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="337" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="I1" s="331" t="s">
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="I1" s="337" t="s">
         <v>379</v>
       </c>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="M1" s="331"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="M1" s="337"/>
       <c r="N1" s="210" t="s">
         <v>380</v>
       </c>
       <c r="O1" s="210"/>
       <c r="P1" s="210"/>
-      <c r="Z1" s="331"/>
-      <c r="AA1" s="332" t="s">
+      <c r="Z1" s="337"/>
+      <c r="AA1" s="338" t="s">
         <v>381</v>
       </c>
-      <c r="AB1" s="332"/>
-      <c r="AC1" s="332"/>
-      <c r="AD1" s="332"/>
-      <c r="AE1" s="332"/>
-      <c r="AF1" s="332"/>
-      <c r="AG1" s="332"/>
-      <c r="AH1" s="332"/>
-      <c r="AI1" s="332"/>
-      <c r="AJ1" s="332"/>
-      <c r="AK1" s="332"/>
-      <c r="AL1" s="332"/>
-      <c r="AM1" s="332"/>
+      <c r="AB1" s="338"/>
+      <c r="AC1" s="338"/>
+      <c r="AD1" s="338"/>
+      <c r="AE1" s="338"/>
+      <c r="AF1" s="338"/>
+      <c r="AG1" s="338"/>
+      <c r="AH1" s="338"/>
+      <c r="AI1" s="338"/>
+      <c r="AJ1" s="338"/>
+      <c r="AK1" s="338"/>
+      <c r="AL1" s="338"/>
+      <c r="AM1" s="338"/>
       <c r="AN1" s="211"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="334" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="I2" s="328" t="s">
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="I2" s="334" t="s">
         <v>229</v>
       </c>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
-      <c r="M2" s="331"/>
-      <c r="Z2" s="331"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="M2" s="337"/>
+      <c r="Z2" s="337"/>
       <c r="AN2" s="211"/>
     </row>
     <row r="3" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33052,7 +33001,7 @@
       <c r="K3" s="212" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="331"/>
+      <c r="M3" s="337"/>
       <c r="N3" s="209" t="s">
         <v>385</v>
       </c>
@@ -33062,18 +33011,18 @@
       <c r="P3" s="209" t="s">
         <v>386</v>
       </c>
-      <c r="Z3" s="331"/>
-      <c r="AA3" s="333" t="s">
+      <c r="Z3" s="337"/>
+      <c r="AA3" s="339" t="s">
         <v>387</v>
       </c>
-      <c r="AB3" s="333"/>
-      <c r="AD3" s="334" t="s">
+      <c r="AB3" s="339"/>
+      <c r="AD3" s="340" t="s">
         <v>388</v>
       </c>
-      <c r="AE3" s="335"/>
-      <c r="AF3" s="335"/>
-      <c r="AG3" s="335"/>
-      <c r="AH3" s="335"/>
+      <c r="AE3" s="341"/>
+      <c r="AF3" s="341"/>
+      <c r="AG3" s="341"/>
+      <c r="AH3" s="341"/>
       <c r="AN3" s="211"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -33105,8 +33054,8 @@
       <c r="K4" s="212">
         <v>0.21</v>
       </c>
-      <c r="M4" s="331"/>
-      <c r="Z4" s="331"/>
+      <c r="M4" s="337"/>
+      <c r="Z4" s="337"/>
       <c r="AA4" s="212" t="s">
         <v>172</v>
       </c>
@@ -33165,12 +33114,12 @@
       <c r="K5" s="212">
         <v>0.78</v>
       </c>
-      <c r="M5" s="331"/>
-      <c r="N5" s="333" t="s">
+      <c r="M5" s="337"/>
+      <c r="N5" s="339" t="s">
         <v>393</v>
       </c>
-      <c r="O5" s="333"/>
-      <c r="Z5" s="331"/>
+      <c r="O5" s="339"/>
+      <c r="Z5" s="337"/>
       <c r="AA5" s="212" t="s">
         <v>137</v>
       </c>
@@ -33223,7 +33172,7 @@
       <c r="K6" s="212">
         <v>0.01</v>
       </c>
-      <c r="M6" s="331"/>
+      <c r="M6" s="337"/>
       <c r="N6" s="212" t="s">
         <v>395</v>
       </c>
@@ -33231,7 +33180,7 @@
         <f>O3/B34</f>
         <v>99500000</v>
       </c>
-      <c r="Z6" s="331"/>
+      <c r="Z6" s="337"/>
       <c r="AA6" s="212" t="s">
         <v>226</v>
       </c>
@@ -33280,7 +33229,7 @@
       <c r="K7" s="212">
         <v>100</v>
       </c>
-      <c r="M7" s="331"/>
+      <c r="M7" s="337"/>
       <c r="N7" s="212" t="s">
         <v>396</v>
       </c>
@@ -33288,7 +33237,7 @@
         <f>O3/B35</f>
         <v>1990000.0000000002</v>
       </c>
-      <c r="Z7" s="331"/>
+      <c r="Z7" s="337"/>
       <c r="AA7" s="212" t="s">
         <v>173</v>
       </c>
@@ -33336,7 +33285,7 @@
         <f>SUM('Students worksheet'!B8:E8)</f>
         <v>23.700000000000003</v>
       </c>
-      <c r="M8" s="331"/>
+      <c r="M8" s="337"/>
       <c r="N8" s="212" t="s">
         <v>397</v>
       </c>
@@ -33344,7 +33293,7 @@
         <f>O3/B38</f>
         <v>298.64932466233114</v>
       </c>
-      <c r="Z8" s="331"/>
+      <c r="Z8" s="337"/>
       <c r="AA8" s="212" t="s">
         <v>394</v>
       </c>
@@ -33367,18 +33316,18 @@
       <c r="AN8" s="211"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="I9" s="328" t="s">
+      <c r="I9" s="334" t="s">
         <v>398</v>
       </c>
-      <c r="J9" s="328"/>
-      <c r="M9" s="331"/>
-      <c r="R9" s="336" t="s">
+      <c r="J9" s="334"/>
+      <c r="M9" s="337"/>
+      <c r="R9" s="342" t="s">
         <v>388</v>
       </c>
-      <c r="S9" s="336"/>
-      <c r="T9" s="336"/>
-      <c r="U9" s="336"/>
-      <c r="Z9" s="331"/>
+      <c r="S9" s="342"/>
+      <c r="T9" s="342"/>
+      <c r="U9" s="342"/>
+      <c r="Z9" s="337"/>
       <c r="AD9" s="217" t="s">
         <v>233</v>
       </c>
@@ -33395,20 +33344,20 @@
       <c r="AN9" s="211"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A10" s="328" t="s">
+      <c r="A10" s="334" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="328"/>
-      <c r="C10" s="328"/>
-      <c r="D10" s="328"/>
-      <c r="E10" s="328"/>
+      <c r="B10" s="334"/>
+      <c r="C10" s="334"/>
+      <c r="D10" s="334"/>
+      <c r="E10" s="334"/>
       <c r="I10" s="212" t="s">
         <v>285</v>
       </c>
       <c r="J10" s="212" t="s">
         <v>399</v>
       </c>
-      <c r="M10" s="331"/>
+      <c r="M10" s="337"/>
       <c r="N10" s="212" t="s">
         <v>390</v>
       </c>
@@ -33436,7 +33385,7 @@
       <c r="V10" s="212" t="s">
         <v>403</v>
       </c>
-      <c r="Z10" s="331"/>
+      <c r="Z10" s="337"/>
       <c r="AN10" s="211"/>
     </row>
     <row r="11" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33463,7 +33412,7 @@
         <v>287</v>
       </c>
       <c r="J11" s="212"/>
-      <c r="M11" s="331"/>
+      <c r="M11" s="337"/>
       <c r="N11" s="212" t="s">
         <v>220</v>
       </c>
@@ -33496,14 +33445,14 @@
         <f>Q11/$O$3</f>
         <v>0.1</v>
       </c>
-      <c r="Z11" s="331"/>
-      <c r="AD11" s="337" t="s">
+      <c r="Z11" s="337"/>
+      <c r="AD11" s="343" t="s">
         <v>404</v>
       </c>
-      <c r="AE11" s="337"/>
-      <c r="AF11" s="337"/>
-      <c r="AG11" s="337"/>
-      <c r="AH11" s="337"/>
+      <c r="AE11" s="343"/>
+      <c r="AF11" s="343"/>
+      <c r="AG11" s="343"/>
+      <c r="AH11" s="343"/>
       <c r="AN11" s="211"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -33533,7 +33482,7 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M12" s="331"/>
+      <c r="M12" s="337"/>
       <c r="N12" s="212" t="s">
         <v>318</v>
       </c>
@@ -33562,7 +33511,7 @@
         <f>Q12/$O$3</f>
         <v>4.2753623188405795E-2</v>
       </c>
-      <c r="Z12" s="331"/>
+      <c r="Z12" s="337"/>
       <c r="AD12" s="212" t="s">
         <v>390</v>
       </c>
@@ -33613,7 +33562,7 @@
         <f>(C29+C30)/2</f>
         <v>64.481351981351992</v>
       </c>
-      <c r="M13" s="331"/>
+      <c r="M13" s="337"/>
       <c r="N13" s="212" t="s">
         <v>222</v>
       </c>
@@ -33648,7 +33597,7 @@
         <f>Q13/$O$3</f>
         <v>3.0200000000000005E-2</v>
       </c>
-      <c r="Z13" s="331"/>
+      <c r="Z13" s="337"/>
       <c r="AD13" s="212" t="s">
         <v>220</v>
       </c>
@@ -33693,7 +33642,7 @@
         <f t="shared" si="0"/>
         <v>1.9083969465648859E-2</v>
       </c>
-      <c r="M14" s="331"/>
+      <c r="M14" s="337"/>
       <c r="N14" s="212" t="s">
         <v>223</v>
       </c>
@@ -33728,7 +33677,7 @@
         <f>Q14/$O$3</f>
         <v>1.1800000000000001E-2</v>
       </c>
-      <c r="Z14" s="331"/>
+      <c r="Z14" s="337"/>
       <c r="AA14" s="221"/>
       <c r="AD14" s="212" t="s">
         <v>318</v>
@@ -33775,7 +33724,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="223"/>
-      <c r="M15" s="331"/>
+      <c r="M15" s="337"/>
       <c r="N15" s="224" t="s">
         <v>233</v>
       </c>
@@ -33807,7 +33756,7 @@
         <f>Q15/$O$3</f>
         <v>2.0866666666666669E-2</v>
       </c>
-      <c r="Z15" s="331"/>
+      <c r="Z15" s="337"/>
       <c r="AD15" s="212" t="s">
         <v>222</v>
       </c>
@@ -33835,10 +33784,10 @@
       <c r="AN15" s="211"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M16" s="331"/>
+      <c r="M16" s="337"/>
       <c r="Q16" s="226"/>
       <c r="R16" s="226"/>
-      <c r="Z16" s="331"/>
+      <c r="Z16" s="337"/>
       <c r="AD16" s="212" t="s">
         <v>223</v>
       </c>
@@ -33865,14 +33814,14 @@
       <c r="AN16" s="211"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="328" t="s">
+      <c r="A17" s="334" t="s">
         <v>291</v>
       </c>
-      <c r="B17" s="328"/>
-      <c r="C17" s="328"/>
-      <c r="M17" s="331"/>
+      <c r="B17" s="334"/>
+      <c r="C17" s="334"/>
+      <c r="M17" s="337"/>
       <c r="Q17" s="227"/>
-      <c r="Z17" s="331"/>
+      <c r="Z17" s="337"/>
       <c r="AD17" s="212" t="s">
         <v>233</v>
       </c>
@@ -33906,8 +33855,8 @@
       <c r="C18" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="331"/>
-      <c r="Z18" s="331"/>
+      <c r="M18" s="337"/>
+      <c r="Z18" s="337"/>
       <c r="AN18" s="211"/>
     </row>
     <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33921,22 +33870,22 @@
         <v>230</v>
       </c>
       <c r="J19" s="223"/>
-      <c r="M19" s="331"/>
-      <c r="Z19" s="331"/>
-      <c r="AA19" s="327" t="s">
+      <c r="M19" s="337"/>
+      <c r="Z19" s="337"/>
+      <c r="AA19" s="333" t="s">
         <v>408</v>
       </c>
-      <c r="AB19" s="327"/>
-      <c r="AC19" s="327"/>
-      <c r="AD19" s="327"/>
-      <c r="AE19" s="327"/>
-      <c r="AF19" s="327"/>
-      <c r="AG19" s="327"/>
-      <c r="AH19" s="327"/>
-      <c r="AI19" s="327"/>
-      <c r="AJ19" s="327"/>
-      <c r="AK19" s="327"/>
-      <c r="AL19" s="327"/>
+      <c r="AB19" s="333"/>
+      <c r="AC19" s="333"/>
+      <c r="AD19" s="333"/>
+      <c r="AE19" s="333"/>
+      <c r="AF19" s="333"/>
+      <c r="AG19" s="333"/>
+      <c r="AH19" s="333"/>
+      <c r="AI19" s="333"/>
+      <c r="AJ19" s="333"/>
+      <c r="AK19" s="333"/>
+      <c r="AL19" s="333"/>
       <c r="AN19" s="211"/>
     </row>
     <row r="20" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33950,22 +33899,22 @@
         <v>231</v>
       </c>
       <c r="J20" s="228"/>
-      <c r="M20" s="331"/>
-      <c r="N20" s="327" t="s">
+      <c r="M20" s="337"/>
+      <c r="N20" s="333" t="s">
         <v>409</v>
       </c>
-      <c r="O20" s="327"/>
-      <c r="P20" s="327"/>
-      <c r="Q20" s="327"/>
-      <c r="R20" s="327"/>
-      <c r="S20" s="327"/>
-      <c r="T20" s="327"/>
-      <c r="U20" s="327"/>
-      <c r="V20" s="327"/>
-      <c r="W20" s="327"/>
-      <c r="X20" s="327"/>
-      <c r="Y20" s="327"/>
-      <c r="Z20" s="331"/>
+      <c r="O20" s="333"/>
+      <c r="P20" s="333"/>
+      <c r="Q20" s="333"/>
+      <c r="R20" s="333"/>
+      <c r="S20" s="333"/>
+      <c r="T20" s="333"/>
+      <c r="U20" s="333"/>
+      <c r="V20" s="333"/>
+      <c r="W20" s="333"/>
+      <c r="X20" s="333"/>
+      <c r="Y20" s="333"/>
+      <c r="Z20" s="337"/>
       <c r="AN20" s="211"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -33978,7 +33927,7 @@
       <c r="C21" s="212" t="s">
         <v>232</v>
       </c>
-      <c r="M21" s="331"/>
+      <c r="M21" s="337"/>
       <c r="N21" s="212"/>
       <c r="O21" s="212" t="s">
         <v>172</v>
@@ -33992,7 +33941,7 @@
       <c r="R21" s="212" t="s">
         <v>391</v>
       </c>
-      <c r="Z21" s="331"/>
+      <c r="Z21" s="337"/>
       <c r="AJ21" s="229"/>
       <c r="AN21" s="211"/>
     </row>
@@ -34006,7 +33955,7 @@
       <c r="C22" s="212" t="s">
         <v>232</v>
       </c>
-      <c r="M22" s="331"/>
+      <c r="M22" s="337"/>
       <c r="N22" s="212" t="s">
         <v>220</v>
       </c>
@@ -34026,12 +33975,12 @@
         <f t="shared" si="1"/>
         <v>5.1005160550458708</v>
       </c>
-      <c r="Z22" s="331"/>
+      <c r="Z22" s="337"/>
       <c r="AJ22" s="229"/>
       <c r="AN22" s="211"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M23" s="331"/>
+      <c r="M23" s="337"/>
       <c r="N23" s="212" t="s">
         <v>410</v>
       </c>
@@ -34051,12 +34000,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="331"/>
+      <c r="Z23" s="337"/>
       <c r="AJ23" s="229"/>
       <c r="AN23" s="211"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M24" s="331"/>
+      <c r="M24" s="337"/>
       <c r="N24" s="212" t="s">
         <v>222</v>
       </c>
@@ -34076,17 +34025,17 @@
         <f t="shared" si="1"/>
         <v>2.6909552238805975E-2</v>
       </c>
-      <c r="Z24" s="331"/>
+      <c r="Z24" s="337"/>
       <c r="AJ24" s="229"/>
       <c r="AN24" s="211"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A25" s="328" t="s">
+      <c r="A25" s="334" t="s">
         <v>411</v>
       </c>
-      <c r="B25" s="328"/>
-      <c r="C25" s="328"/>
-      <c r="M25" s="331"/>
+      <c r="B25" s="334"/>
+      <c r="C25" s="334"/>
+      <c r="M25" s="337"/>
       <c r="N25" s="212" t="s">
         <v>223</v>
       </c>
@@ -34106,7 +34055,7 @@
         <f t="shared" si="1"/>
         <v>6.721946564885499E-2</v>
       </c>
-      <c r="Z25" s="331"/>
+      <c r="Z25" s="337"/>
       <c r="AN25" s="211"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -34117,7 +34066,7 @@
       <c r="C26" s="212" t="s">
         <v>399</v>
       </c>
-      <c r="M26" s="331"/>
+      <c r="M26" s="337"/>
       <c r="N26" s="212" t="s">
         <v>233</v>
       </c>
@@ -34137,7 +34086,7 @@
         <f t="shared" si="1"/>
         <v>6.2287000000000009E-2</v>
       </c>
-      <c r="Z26" s="331"/>
+      <c r="Z26" s="337"/>
       <c r="AN26" s="211"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -34148,8 +34097,8 @@
         <v>225</v>
       </c>
       <c r="C27" s="212"/>
-      <c r="M27" s="331"/>
-      <c r="Z27" s="331"/>
+      <c r="M27" s="337"/>
+      <c r="Z27" s="337"/>
       <c r="AN27" s="211"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -34163,8 +34112,8 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M28" s="331"/>
-      <c r="Z28" s="331"/>
+      <c r="M28" s="337"/>
+      <c r="Z28" s="337"/>
       <c r="AN28" s="211"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -34178,8 +34127,8 @@
         <f>109/1.56</f>
         <v>69.871794871794876</v>
       </c>
-      <c r="M29" s="331"/>
-      <c r="Z29" s="331"/>
+      <c r="M29" s="337"/>
+      <c r="Z29" s="337"/>
       <c r="AN29" s="211"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -34193,23 +34142,23 @@
         <f>13/0.22</f>
         <v>59.090909090909093</v>
       </c>
-      <c r="M30" s="331"/>
-      <c r="Z30" s="331"/>
+      <c r="M30" s="337"/>
+      <c r="Z30" s="337"/>
       <c r="AN30" s="211"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M31" s="331"/>
-      <c r="Z31" s="331"/>
+      <c r="M31" s="337"/>
+      <c r="Z31" s="337"/>
       <c r="AN31" s="211"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A32" s="329" t="s">
+      <c r="A32" s="335" t="s">
         <v>413</v>
       </c>
-      <c r="B32" s="329"/>
-      <c r="C32" s="329"/>
-      <c r="M32" s="331"/>
-      <c r="Z32" s="331"/>
+      <c r="B32" s="335"/>
+      <c r="C32" s="335"/>
+      <c r="M32" s="337"/>
+      <c r="Z32" s="337"/>
       <c r="AN32" s="211"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.2">
@@ -34219,8 +34168,8 @@
       <c r="B33" s="212" t="s">
         <v>237</v>
       </c>
-      <c r="M33" s="331"/>
-      <c r="Z33" s="331"/>
+      <c r="M33" s="337"/>
+      <c r="Z33" s="337"/>
       <c r="AN33" s="211"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.2">
@@ -34230,8 +34179,8 @@
       <c r="B34" s="230">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="M34" s="331"/>
-      <c r="Z34" s="331"/>
+      <c r="M34" s="337"/>
+      <c r="Z34" s="337"/>
       <c r="AN34" s="211"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -34241,8 +34190,8 @@
       <c r="B35" s="219">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="M35" s="331"/>
-      <c r="Z35" s="331"/>
+      <c r="M35" s="337"/>
+      <c r="Z35" s="337"/>
       <c r="AN35" s="211"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
@@ -34252,8 +34201,8 @@
       <c r="B36" s="219">
         <v>2E-3</v>
       </c>
-      <c r="M36" s="331"/>
-      <c r="Z36" s="331"/>
+      <c r="M36" s="337"/>
+      <c r="Z36" s="337"/>
       <c r="AN36" s="211"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -34263,8 +34212,8 @@
       <c r="B37" s="219">
         <v>0.5</v>
       </c>
-      <c r="M37" s="331"/>
-      <c r="Z37" s="331"/>
+      <c r="M37" s="337"/>
+      <c r="Z37" s="337"/>
       <c r="AN37" s="211"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -34274,31 +34223,31 @@
       <c r="B38" s="219">
         <v>0.99950000000000006</v>
       </c>
-      <c r="M38" s="331"/>
-      <c r="Z38" s="331"/>
+      <c r="M38" s="337"/>
+      <c r="Z38" s="337"/>
       <c r="AN38" s="211"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M39" s="331"/>
-      <c r="Z39" s="331"/>
+      <c r="M39" s="337"/>
+      <c r="Z39" s="337"/>
       <c r="AN39" s="211"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M40" s="331"/>
-      <c r="Z40" s="331"/>
+      <c r="M40" s="337"/>
+      <c r="Z40" s="337"/>
       <c r="AN40" s="211"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="231" t="s">
         <v>414</v>
       </c>
-      <c r="M41" s="331"/>
-      <c r="Z41" s="331"/>
+      <c r="M41" s="337"/>
+      <c r="Z41" s="337"/>
       <c r="AN41" s="211"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M42" s="331"/>
-      <c r="Z42" s="331"/>
+      <c r="M42" s="337"/>
+      <c r="Z42" s="337"/>
       <c r="AN42" s="211"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
@@ -34312,8 +34261,8 @@
       <c r="D43" s="212" t="s">
         <v>415</v>
       </c>
-      <c r="M43" s="331"/>
-      <c r="Z43" s="331"/>
+      <c r="M43" s="337"/>
+      <c r="Z43" s="337"/>
       <c r="AN43" s="211"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -34332,8 +34281,8 @@
         <f>D45/B35/1000000</f>
         <v>1.9933333333333334</v>
       </c>
-      <c r="M44" s="331"/>
-      <c r="Z44" s="331"/>
+      <c r="M44" s="337"/>
+      <c r="Z44" s="337"/>
       <c r="AN44" s="211"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -34349,8 +34298,8 @@
       <c r="D45" s="215">
         <v>299</v>
       </c>
-      <c r="M45" s="331"/>
-      <c r="Z45" s="331"/>
+      <c r="M45" s="337"/>
+      <c r="Z45" s="337"/>
       <c r="AN45" s="211"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -34369,70 +34318,70 @@
         <f>((D44*1000000)-D45)/1000000</f>
         <v>1.9930343333333336</v>
       </c>
-      <c r="M46" s="331"/>
-      <c r="Z46" s="331"/>
+      <c r="M46" s="337"/>
+      <c r="Z46" s="337"/>
       <c r="AN46" s="211"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M47" s="331"/>
-      <c r="Z47" s="331"/>
+      <c r="M47" s="337"/>
+      <c r="Z47" s="337"/>
       <c r="AN47" s="211"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M48" s="331"/>
-      <c r="Z48" s="331"/>
+      <c r="M48" s="337"/>
+      <c r="Z48" s="337"/>
       <c r="AN48" s="211"/>
     </row>
     <row r="49" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M49" s="331"/>
-      <c r="Z49" s="331"/>
+      <c r="M49" s="337"/>
+      <c r="Z49" s="337"/>
       <c r="AN49" s="211"/>
     </row>
     <row r="50" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M50" s="331"/>
-      <c r="Z50" s="331"/>
+      <c r="M50" s="337"/>
+      <c r="Z50" s="337"/>
       <c r="AN50" s="211"/>
     </row>
     <row r="51" spans="13:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="M51" s="331"/>
-      <c r="N51" s="330" t="s">
+      <c r="M51" s="337"/>
+      <c r="N51" s="336" t="s">
         <v>419</v>
       </c>
-      <c r="O51" s="330"/>
-      <c r="P51" s="330"/>
-      <c r="Q51" s="330"/>
-      <c r="R51" s="330"/>
-      <c r="S51" s="330"/>
-      <c r="T51" s="330"/>
-      <c r="U51" s="330"/>
-      <c r="V51" s="330"/>
-      <c r="W51" s="330"/>
-      <c r="X51" s="330"/>
-      <c r="Y51" s="330"/>
-      <c r="Z51" s="331"/>
-      <c r="AA51" s="327" t="s">
+      <c r="O51" s="336"/>
+      <c r="P51" s="336"/>
+      <c r="Q51" s="336"/>
+      <c r="R51" s="336"/>
+      <c r="S51" s="336"/>
+      <c r="T51" s="336"/>
+      <c r="U51" s="336"/>
+      <c r="V51" s="336"/>
+      <c r="W51" s="336"/>
+      <c r="X51" s="336"/>
+      <c r="Y51" s="336"/>
+      <c r="Z51" s="337"/>
+      <c r="AA51" s="333" t="s">
         <v>420</v>
       </c>
-      <c r="AB51" s="327"/>
-      <c r="AC51" s="327"/>
-      <c r="AD51" s="327"/>
-      <c r="AE51" s="327"/>
-      <c r="AF51" s="327"/>
-      <c r="AG51" s="327"/>
-      <c r="AH51" s="327"/>
-      <c r="AI51" s="327"/>
-      <c r="AJ51" s="327"/>
-      <c r="AK51" s="327"/>
-      <c r="AL51" s="327"/>
+      <c r="AB51" s="333"/>
+      <c r="AC51" s="333"/>
+      <c r="AD51" s="333"/>
+      <c r="AE51" s="333"/>
+      <c r="AF51" s="333"/>
+      <c r="AG51" s="333"/>
+      <c r="AH51" s="333"/>
+      <c r="AI51" s="333"/>
+      <c r="AJ51" s="333"/>
+      <c r="AK51" s="333"/>
+      <c r="AL51" s="333"/>
       <c r="AN51" s="211"/>
     </row>
     <row r="52" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M52" s="331"/>
-      <c r="Z52" s="331"/>
+      <c r="M52" s="337"/>
+      <c r="Z52" s="337"/>
       <c r="AN52" s="211"/>
     </row>
     <row r="53" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M53" s="331"/>
+      <c r="M53" s="337"/>
       <c r="N53" s="212"/>
       <c r="O53" s="212" t="s">
         <v>220</v>
@@ -34452,7 +34401,7 @@
       <c r="T53" s="209" t="s">
         <v>216</v>
       </c>
-      <c r="Z53" s="331"/>
+      <c r="Z53" s="337"/>
       <c r="AA53" s="212"/>
       <c r="AB53" s="212" t="s">
         <v>220</v>
@@ -34478,7 +34427,7 @@
       <c r="AN53" s="211"/>
     </row>
     <row r="54" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M54" s="331"/>
+      <c r="M54" s="337"/>
       <c r="N54" s="212" t="s">
         <v>423</v>
       </c>
@@ -34505,7 +34454,7 @@
         <f>SUM(O54:S54)</f>
         <v>55.148956521739137</v>
       </c>
-      <c r="Z54" s="331"/>
+      <c r="Z54" s="337"/>
       <c r="AA54" s="212" t="s">
         <v>424</v>
       </c>
@@ -34542,7 +34491,7 @@
       <c r="AN54" s="211"/>
     </row>
     <row r="55" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M55" s="331"/>
+      <c r="M55" s="337"/>
       <c r="N55" s="212" t="s">
         <v>425</v>
       </c>
@@ -34568,7 +34517,7 @@
         <f>SUM(O55:S55)</f>
         <v>48.840656521739135</v>
       </c>
-      <c r="Z55" s="331"/>
+      <c r="Z55" s="337"/>
       <c r="AA55" s="212" t="s">
         <v>426</v>
       </c>
@@ -34604,27 +34553,27 @@
       <c r="AN55" s="211"/>
     </row>
     <row r="56" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M56" s="331"/>
-      <c r="Z56" s="331"/>
+      <c r="M56" s="337"/>
+      <c r="Z56" s="337"/>
       <c r="AH56" s="227"/>
       <c r="AN56" s="211"/>
     </row>
     <row r="57" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M57" s="331"/>
-      <c r="Z57" s="331"/>
+      <c r="M57" s="337"/>
+      <c r="Z57" s="337"/>
       <c r="AN57" s="211"/>
     </row>
     <row r="58" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M58" s="331"/>
+      <c r="M58" s="337"/>
       <c r="R58" s="227"/>
       <c r="V58" s="233"/>
-      <c r="Z58" s="331"/>
+      <c r="Z58" s="337"/>
       <c r="AN58" s="211"/>
     </row>
     <row r="59" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M59" s="331"/>
+      <c r="M59" s="337"/>
       <c r="V59" s="233"/>
-      <c r="Z59" s="331"/>
+      <c r="Z59" s="337"/>
       <c r="AA59" s="212"/>
       <c r="AB59" s="212" t="s">
         <v>220</v>
@@ -34645,8 +34594,8 @@
       <c r="AN59" s="211"/>
     </row>
     <row r="60" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M60" s="331"/>
-      <c r="Z60" s="331"/>
+      <c r="M60" s="337"/>
+      <c r="Z60" s="337"/>
       <c r="AA60" s="212" t="s">
         <v>423</v>
       </c>
@@ -34672,8 +34621,8 @@
       <c r="AN60" s="211"/>
     </row>
     <row r="61" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M61" s="331"/>
-      <c r="Z61" s="331"/>
+      <c r="M61" s="337"/>
+      <c r="Z61" s="337"/>
       <c r="AA61" s="212" t="s">
         <v>428</v>
       </c>
@@ -34699,116 +34648,116 @@
       <c r="AN61" s="211"/>
     </row>
     <row r="62" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M62" s="331"/>
-      <c r="Z62" s="331"/>
+      <c r="M62" s="337"/>
+      <c r="Z62" s="337"/>
       <c r="AN62" s="211"/>
     </row>
     <row r="63" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M63" s="331"/>
-      <c r="Z63" s="331"/>
+      <c r="M63" s="337"/>
+      <c r="Z63" s="337"/>
       <c r="AN63" s="211"/>
     </row>
     <row r="64" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M64" s="331"/>
-      <c r="Z64" s="331"/>
+      <c r="M64" s="337"/>
+      <c r="Z64" s="337"/>
       <c r="AN64" s="211"/>
     </row>
     <row r="65" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M65" s="331"/>
-      <c r="Z65" s="331"/>
+      <c r="M65" s="337"/>
+      <c r="Z65" s="337"/>
       <c r="AN65" s="211"/>
     </row>
     <row r="66" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M66" s="331"/>
-      <c r="Z66" s="331"/>
+      <c r="M66" s="337"/>
+      <c r="Z66" s="337"/>
       <c r="AN66" s="211"/>
     </row>
     <row r="67" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M67" s="331"/>
-      <c r="Z67" s="331"/>
+      <c r="M67" s="337"/>
+      <c r="Z67" s="337"/>
       <c r="AN67" s="211"/>
     </row>
     <row r="68" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M68" s="331"/>
-      <c r="Z68" s="331"/>
+      <c r="M68" s="337"/>
+      <c r="Z68" s="337"/>
       <c r="AN68" s="211"/>
     </row>
     <row r="69" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M69" s="331"/>
-      <c r="Z69" s="331"/>
+      <c r="M69" s="337"/>
+      <c r="Z69" s="337"/>
       <c r="AN69" s="211"/>
     </row>
     <row r="70" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M70" s="331"/>
-      <c r="Z70" s="331"/>
+      <c r="M70" s="337"/>
+      <c r="Z70" s="337"/>
       <c r="AN70" s="211"/>
     </row>
     <row r="71" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M71" s="331"/>
-      <c r="Z71" s="331"/>
+      <c r="M71" s="337"/>
+      <c r="Z71" s="337"/>
       <c r="AN71" s="211"/>
     </row>
     <row r="72" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M72" s="331"/>
-      <c r="Z72" s="331"/>
+      <c r="M72" s="337"/>
+      <c r="Z72" s="337"/>
       <c r="AN72" s="211"/>
     </row>
     <row r="73" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M73" s="331"/>
-      <c r="Z73" s="331"/>
+      <c r="M73" s="337"/>
+      <c r="Z73" s="337"/>
       <c r="AN73" s="211"/>
     </row>
     <row r="74" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M74" s="331"/>
-      <c r="Z74" s="331"/>
+      <c r="M74" s="337"/>
+      <c r="Z74" s="337"/>
       <c r="AN74" s="211"/>
     </row>
     <row r="75" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M75" s="331"/>
-      <c r="Z75" s="331"/>
+      <c r="M75" s="337"/>
+      <c r="Z75" s="337"/>
       <c r="AN75" s="211"/>
     </row>
     <row r="76" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M76" s="331"/>
-      <c r="Z76" s="331"/>
+      <c r="M76" s="337"/>
+      <c r="Z76" s="337"/>
       <c r="AN76" s="211"/>
     </row>
     <row r="77" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M77" s="331"/>
-      <c r="Z77" s="331"/>
+      <c r="M77" s="337"/>
+      <c r="Z77" s="337"/>
       <c r="AN77" s="211"/>
     </row>
     <row r="78" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M78" s="331"/>
-      <c r="Z78" s="331"/>
+      <c r="M78" s="337"/>
+      <c r="Z78" s="337"/>
       <c r="AN78" s="211"/>
     </row>
     <row r="79" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M79" s="331"/>
-      <c r="Z79" s="331"/>
+      <c r="M79" s="337"/>
+      <c r="Z79" s="337"/>
       <c r="AN79" s="211"/>
     </row>
     <row r="80" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M80" s="331"/>
-      <c r="Z80" s="331"/>
+      <c r="M80" s="337"/>
+      <c r="Z80" s="337"/>
       <c r="AN80" s="211"/>
     </row>
     <row r="81" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M81" s="331"/>
-      <c r="Z81" s="331"/>
+      <c r="M81" s="337"/>
+      <c r="Z81" s="337"/>
       <c r="AN81" s="211"/>
     </row>
     <row r="82" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M82" s="331"/>
-      <c r="Z82" s="331"/>
+      <c r="M82" s="337"/>
+      <c r="Z82" s="337"/>
       <c r="AN82" s="211"/>
     </row>
     <row r="83" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z83" s="331"/>
+      <c r="Z83" s="337"/>
       <c r="AN83" s="211"/>
     </row>
     <row r="84" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z84" s="331"/>
+      <c r="Z84" s="337"/>
       <c r="AN84" s="211"/>
     </row>
     <row r="85" spans="13:40" x14ac:dyDescent="0.2">
@@ -35834,7 +35783,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -36016,7 +35965,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="67" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.2">
@@ -36039,7 +35988,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="67" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M10" t="b" cm="1">
         <f t="array" ref="M10">[1]!pamsindex</f>
@@ -36055,10 +36004,10 @@
         <v>1</v>
       </c>
       <c r="L11" s="67" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
@@ -36068,24 +36017,24 @@
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E13" s="95"/>
       <c r="N13" s="67" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Q13" s="67" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E14" s="95"/>
       <c r="L14" s="67" t="s">
-        <v>579</v>
-      </c>
-      <c r="N14" s="296">
+        <v>577</v>
+      </c>
+      <c r="N14" s="295">
         <v>0.05</v>
       </c>
-      <c r="O14" s="299" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q14" s="296">
+      <c r="O14" s="298" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q14" s="295">
         <f>'[1]PAMS central control panel'!$P$47</f>
         <v>0.04</v>
       </c>
@@ -36093,9 +36042,9 @@
     <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E15" s="95"/>
       <c r="L15" s="67" t="s">
-        <v>580</v>
-      </c>
-      <c r="N15" s="298">
+        <v>578</v>
+      </c>
+      <c r="N15" s="297">
         <f>N14/2</f>
         <v>2.5000000000000001E-2</v>
       </c>
@@ -36107,7 +36056,7 @@
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E16" s="95"/>
       <c r="L16" s="67" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N16">
         <f>INDEX(N14:N15,MATCH($M$11,$L$14:$L$15,0))</f>
@@ -36219,7 +36168,7 @@
       <c r="R7" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -36528,7 +36477,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -36799,7 +36748,7 @@
       <c r="R7" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -37131,7 +37080,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
@@ -37452,7 +37401,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -37733,7 +37682,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -38002,7 +37951,7 @@
   <dimension ref="C1:AF105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38045,8 +37994,8 @@
       <c r="F2" s="239" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="239" t="s">
-        <v>167</v>
+      <c r="G2" s="307" t="s">
+        <v>607</v>
       </c>
       <c r="H2" s="108"/>
       <c r="I2" s="108"/>
@@ -38063,10 +38012,10 @@
       <c r="U2" s="108"/>
       <c r="V2" s="108"/>
       <c r="W2" s="234" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="X2" s="234"/>
-      <c r="Y2" s="278"/>
+      <c r="Y2" s="277"/>
       <c r="Z2" s="98"/>
       <c r="AA2" s="100"/>
     </row>
@@ -38102,11 +38051,11 @@
       </c>
       <c r="U3" s="108"/>
       <c r="V3" s="108"/>
-      <c r="W3" s="278" t="s">
-        <v>563</v>
-      </c>
-      <c r="X3" s="278"/>
-      <c r="Y3" s="278"/>
+      <c r="W3" s="277" t="s">
+        <v>561</v>
+      </c>
+      <c r="X3" s="277"/>
+      <c r="Y3" s="277"/>
       <c r="Z3" s="100"/>
       <c r="AA3" s="105"/>
     </row>
@@ -38174,8 +38123,8 @@
       <c r="P6" s="47"/>
       <c r="Q6" s="117"/>
       <c r="R6" s="117"/>
-      <c r="S6" s="293"/>
-      <c r="T6" s="291"/>
+      <c r="S6" s="292"/>
+      <c r="T6" s="290"/>
       <c r="U6" s="47"/>
       <c r="V6" s="50"/>
       <c r="W6" s="50"/>
@@ -38185,7 +38134,7 @@
       <c r="AA6" s="43"/>
       <c r="AD6" s="107"/>
       <c r="AE6" s="59"/>
-      <c r="AF6" s="286"/>
+      <c r="AF6" s="285"/>
     </row>
     <row r="7" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C7" s="44"/>
@@ -38204,8 +38153,8 @@
       <c r="N7" s="116"/>
       <c r="O7" s="117"/>
       <c r="P7" s="47"/>
-      <c r="T7" s="289" t="s">
-        <v>557</v>
+      <c r="T7" s="55" t="s">
+        <v>608</v>
       </c>
       <c r="U7" s="43"/>
       <c r="V7" s="43"/>
@@ -38240,7 +38189,7 @@
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
       <c r="AA8" s="43"/>
-      <c r="AD8" s="285"/>
+      <c r="AD8" s="284"/>
       <c r="AE8" s="58"/>
     </row>
     <row r="9" spans="3:32" x14ac:dyDescent="0.25">
@@ -38260,8 +38209,8 @@
       <c r="N9" s="44"/>
       <c r="O9" s="43"/>
       <c r="P9" s="45"/>
-      <c r="T9" s="292" t="s">
-        <v>562</v>
+      <c r="T9" s="291" t="s">
+        <v>560</v>
       </c>
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
@@ -38271,8 +38220,8 @@
       <c r="Z9" s="43"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="48"/>
-      <c r="AC9" s="277"/>
-      <c r="AD9" s="287"/>
+      <c r="AC9" s="276"/>
+      <c r="AD9" s="286"/>
       <c r="AE9" s="60"/>
     </row>
     <row r="10" spans="3:32" x14ac:dyDescent="0.25">
@@ -38361,9 +38310,9 @@
       <c r="P13" s="47"/>
       <c r="Q13" s="117"/>
       <c r="R13" s="117"/>
-      <c r="S13" s="293"/>
-      <c r="T13" s="288" t="s">
-        <v>559</v>
+      <c r="S13" s="292"/>
+      <c r="T13" s="287" t="s">
+        <v>557</v>
       </c>
       <c r="U13" s="43"/>
       <c r="V13" s="43"/>
@@ -38415,8 +38364,8 @@
       <c r="N15" s="44"/>
       <c r="O15" s="44"/>
       <c r="P15" s="45"/>
-      <c r="T15" s="289" t="s">
-        <v>558</v>
+      <c r="T15" s="288" t="s">
+        <v>556</v>
       </c>
       <c r="U15" s="43"/>
       <c r="V15" s="43"/>
@@ -38425,7 +38374,7 @@
       <c r="Y15" s="43"/>
       <c r="Z15" s="43"/>
       <c r="AA15" s="43"/>
-      <c r="AC15" s="277"/>
+      <c r="AC15" s="276"/>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C16" s="44"/>
@@ -38441,7 +38390,7 @@
       <c r="N16" s="44"/>
       <c r="O16" s="43"/>
       <c r="P16" s="45"/>
-      <c r="T16" s="290"/>
+      <c r="T16" s="289"/>
       <c r="U16" s="43"/>
       <c r="V16" s="43"/>
       <c r="W16" s="43"/>
@@ -38489,9 +38438,9 @@
       <c r="P18" s="45"/>
       <c r="Q18" s="116"/>
       <c r="R18" s="117"/>
-      <c r="S18" s="293"/>
-      <c r="T18" s="288" t="s">
-        <v>560</v>
+      <c r="S18" s="292"/>
+      <c r="T18" s="287" t="s">
+        <v>558</v>
       </c>
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
@@ -38540,8 +38489,8 @@
       <c r="N20" s="44"/>
       <c r="O20" s="43"/>
       <c r="P20" s="45"/>
-      <c r="T20" s="289" t="s">
-        <v>561</v>
+      <c r="T20" s="288" t="s">
+        <v>559</v>
       </c>
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
@@ -38566,7 +38515,7 @@
       <c r="N21" s="44"/>
       <c r="O21" s="43"/>
       <c r="P21" s="45"/>
-      <c r="T21" s="290"/>
+      <c r="T21" s="289"/>
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
       <c r="W21" s="43"/>
@@ -40371,7 +40320,7 @@
   <dimension ref="A1:AF66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40521,9 +40470,9 @@
       </c>
       <c r="D6" t="str">
         <f>RES!T7</f>
-        <v>To local demand</v>
-      </c>
-      <c r="F6" s="275">
+        <v>Industry - PGMs - to local demand</v>
+      </c>
+      <c r="F6" s="274">
         <f>D34</f>
         <v>31</v>
       </c>
@@ -40541,7 +40490,7 @@
         <f>RES!T13</f>
         <v>Export PGMs - Pt</v>
       </c>
-      <c r="K7" s="275">
+      <c r="K7" s="274">
         <f>D35</f>
         <v>125.30659928953824</v>
       </c>
@@ -40558,7 +40507,7 @@
         <f>RES!T18</f>
         <v>Export PGMs - Others</v>
       </c>
-      <c r="K8" s="275">
+      <c r="K8" s="274">
         <f>D36</f>
         <v>103.69340071046176</v>
       </c>
@@ -40666,7 +40615,7 @@
     <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="109" t="str">
         <f>RES!G2</f>
-        <v>INFGAS</v>
+        <v>INDGAS</v>
       </c>
       <c r="B13" s="85" t="str">
         <f>RES!G3</f>
@@ -40713,7 +40662,7 @@
         <v>175</v>
       </c>
       <c r="G18" s="67" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.2">
@@ -40817,7 +40766,7 @@
     </row>
     <row r="26" spans="2:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M26" s="67"/>
     </row>
@@ -40850,7 +40799,7 @@
       <c r="B29" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="275">
+      <c r="D29" s="274">
         <f>'PGM methodology'!L12</f>
         <v>156.30659928953824</v>
       </c>
@@ -40859,9 +40808,9 @@
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B30" s="67" t="s">
-        <v>538</v>
-      </c>
-      <c r="D30" s="275">
+        <v>537</v>
+      </c>
+      <c r="D30" s="274">
         <f>'PGM methodology'!L13</f>
         <v>103.69340071046176</v>
       </c>
@@ -40876,13 +40825,13 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M33" s="67"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="67" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D34" s="70">
         <f>'PGM methodology'!L22</f>
@@ -40892,7 +40841,7 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="67" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D35" s="70">
         <f>'PGM methodology'!L23</f>
@@ -40902,7 +40851,7 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="67" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D36" s="70">
         <f>'PGM methodology'!L24</f>
@@ -41100,7 +41049,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -41315,7 +41264,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="301" t="str">
+      <c r="A1" s="300" t="str">
         <f ca="1">IF(INDEX(Index!$E$6:$E$37,MATCH(A2,Index!$D$6:$D$37,0))=1,LEFT(A2,SEARCH("_",A2)-1),"")</f>
         <v>Commodities</v>
       </c>
@@ -41324,7 +41273,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="302" t="str">
+      <c r="A2" s="301" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>Commodities_BASE</v>
       </c>
@@ -41335,7 +41284,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -41349,16 +41298,16 @@
         <v>42</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="H7" s="9" t="s">
         <v>587</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -41406,13 +41355,13 @@
         <v>38</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>121</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I10" s="9"/>
     </row>
@@ -41443,7 +41392,7 @@
       </c>
       <c r="B12" s="29" t="str">
         <f>RES!G2</f>
-        <v>INFGAS</v>
+        <v>INDGAS</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>RES!G3</f>
@@ -41526,10 +41475,10 @@
     <row r="16" spans="1:9" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="29"/>
       <c r="B16" s="29" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>116</v>

--- a/vt_REGION1_IND-PGM.xlsx
+++ b/vt_REGION1_IND-PGM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1F9D0A-E8A7-4CCE-8BC2-BF95288C72BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FB2121-2FDF-441F-B1AA-6612CABD26ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="759" firstSheet="2" activeTab="13" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="759" firstSheet="2" activeTab="4" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues outstanding" sheetId="73" r:id="rId1"/>
@@ -4009,20 +4009,14 @@
     <xf numFmtId="4" fontId="56" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="42" fillId="7" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="7" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="42" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="42" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="7" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4037,6 +4031,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="7" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -20988,18 +20988,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -21008,7 +21008,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21038,18 +21038,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -21058,7 +21058,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -21115,44 +21115,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -21160,7 +21135,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21190,44 +21190,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -21235,7 +21210,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -21721,18 +21721,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>142875</xdr:rowOff>
               </to>
@@ -21741,7 +21741,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21771,18 +21771,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>142875</xdr:rowOff>
               </to>
@@ -21791,7 +21791,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22080,52 +22080,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22155,52 +22155,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22214,7 +22214,7 @@
   </sheetPr>
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -22934,18 +22934,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -22954,57 +22979,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157698" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157698" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157699" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157699" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23034,43 +23034,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="157699" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -23079,32 +23054,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="157699" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="157698" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="157698" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -23174,18 +23174,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -23194,57 +23219,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23274,43 +23274,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -23319,32 +23294,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -23679,43 +23679,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -23724,32 +23699,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="206850" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="206850" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206851" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206851" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23779,18 +23779,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -23799,57 +23824,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -32918,59 +32918,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="334" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="I1" s="337" t="s">
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
+      <c r="I1" s="334" t="s">
         <v>379</v>
       </c>
-      <c r="J1" s="337"/>
-      <c r="K1" s="337"/>
-      <c r="M1" s="337"/>
+      <c r="J1" s="334"/>
+      <c r="K1" s="334"/>
+      <c r="M1" s="334"/>
       <c r="N1" s="210" t="s">
         <v>380</v>
       </c>
       <c r="O1" s="210"/>
       <c r="P1" s="210"/>
-      <c r="Z1" s="337"/>
-      <c r="AA1" s="338" t="s">
+      <c r="Z1" s="334"/>
+      <c r="AA1" s="335" t="s">
         <v>381</v>
       </c>
-      <c r="AB1" s="338"/>
-      <c r="AC1" s="338"/>
-      <c r="AD1" s="338"/>
-      <c r="AE1" s="338"/>
-      <c r="AF1" s="338"/>
-      <c r="AG1" s="338"/>
-      <c r="AH1" s="338"/>
-      <c r="AI1" s="338"/>
-      <c r="AJ1" s="338"/>
-      <c r="AK1" s="338"/>
-      <c r="AL1" s="338"/>
-      <c r="AM1" s="338"/>
+      <c r="AB1" s="335"/>
+      <c r="AC1" s="335"/>
+      <c r="AD1" s="335"/>
+      <c r="AE1" s="335"/>
+      <c r="AF1" s="335"/>
+      <c r="AG1" s="335"/>
+      <c r="AH1" s="335"/>
+      <c r="AI1" s="335"/>
+      <c r="AJ1" s="335"/>
+      <c r="AK1" s="335"/>
+      <c r="AL1" s="335"/>
+      <c r="AM1" s="335"/>
       <c r="AN1" s="211"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="336" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="I2" s="334" t="s">
+      <c r="B2" s="336"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="I2" s="336" t="s">
         <v>229</v>
       </c>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="M2" s="337"/>
-      <c r="Z2" s="337"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="M2" s="334"/>
+      <c r="Z2" s="334"/>
       <c r="AN2" s="211"/>
     </row>
     <row r="3" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33001,7 +33001,7 @@
       <c r="K3" s="212" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="337"/>
+      <c r="M3" s="334"/>
       <c r="N3" s="209" t="s">
         <v>385</v>
       </c>
@@ -33011,18 +33011,18 @@
       <c r="P3" s="209" t="s">
         <v>386</v>
       </c>
-      <c r="Z3" s="337"/>
-      <c r="AA3" s="339" t="s">
+      <c r="Z3" s="334"/>
+      <c r="AA3" s="337" t="s">
         <v>387</v>
       </c>
-      <c r="AB3" s="339"/>
-      <c r="AD3" s="340" t="s">
+      <c r="AB3" s="337"/>
+      <c r="AD3" s="338" t="s">
         <v>388</v>
       </c>
-      <c r="AE3" s="341"/>
-      <c r="AF3" s="341"/>
-      <c r="AG3" s="341"/>
-      <c r="AH3" s="341"/>
+      <c r="AE3" s="339"/>
+      <c r="AF3" s="339"/>
+      <c r="AG3" s="339"/>
+      <c r="AH3" s="339"/>
       <c r="AN3" s="211"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -33054,8 +33054,8 @@
       <c r="K4" s="212">
         <v>0.21</v>
       </c>
-      <c r="M4" s="337"/>
-      <c r="Z4" s="337"/>
+      <c r="M4" s="334"/>
+      <c r="Z4" s="334"/>
       <c r="AA4" s="212" t="s">
         <v>172</v>
       </c>
@@ -33114,12 +33114,12 @@
       <c r="K5" s="212">
         <v>0.78</v>
       </c>
-      <c r="M5" s="337"/>
-      <c r="N5" s="339" t="s">
+      <c r="M5" s="334"/>
+      <c r="N5" s="337" t="s">
         <v>393</v>
       </c>
-      <c r="O5" s="339"/>
-      <c r="Z5" s="337"/>
+      <c r="O5" s="337"/>
+      <c r="Z5" s="334"/>
       <c r="AA5" s="212" t="s">
         <v>137</v>
       </c>
@@ -33172,7 +33172,7 @@
       <c r="K6" s="212">
         <v>0.01</v>
       </c>
-      <c r="M6" s="337"/>
+      <c r="M6" s="334"/>
       <c r="N6" s="212" t="s">
         <v>395</v>
       </c>
@@ -33180,7 +33180,7 @@
         <f>O3/B34</f>
         <v>99500000</v>
       </c>
-      <c r="Z6" s="337"/>
+      <c r="Z6" s="334"/>
       <c r="AA6" s="212" t="s">
         <v>226</v>
       </c>
@@ -33229,7 +33229,7 @@
       <c r="K7" s="212">
         <v>100</v>
       </c>
-      <c r="M7" s="337"/>
+      <c r="M7" s="334"/>
       <c r="N7" s="212" t="s">
         <v>396</v>
       </c>
@@ -33237,7 +33237,7 @@
         <f>O3/B35</f>
         <v>1990000.0000000002</v>
       </c>
-      <c r="Z7" s="337"/>
+      <c r="Z7" s="334"/>
       <c r="AA7" s="212" t="s">
         <v>173</v>
       </c>
@@ -33285,7 +33285,7 @@
         <f>SUM('Students worksheet'!B8:E8)</f>
         <v>23.700000000000003</v>
       </c>
-      <c r="M8" s="337"/>
+      <c r="M8" s="334"/>
       <c r="N8" s="212" t="s">
         <v>397</v>
       </c>
@@ -33293,7 +33293,7 @@
         <f>O3/B38</f>
         <v>298.64932466233114</v>
       </c>
-      <c r="Z8" s="337"/>
+      <c r="Z8" s="334"/>
       <c r="AA8" s="212" t="s">
         <v>394</v>
       </c>
@@ -33316,18 +33316,18 @@
       <c r="AN8" s="211"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="I9" s="334" t="s">
+      <c r="I9" s="336" t="s">
         <v>398</v>
       </c>
-      <c r="J9" s="334"/>
-      <c r="M9" s="337"/>
-      <c r="R9" s="342" t="s">
+      <c r="J9" s="336"/>
+      <c r="M9" s="334"/>
+      <c r="R9" s="340" t="s">
         <v>388</v>
       </c>
-      <c r="S9" s="342"/>
-      <c r="T9" s="342"/>
-      <c r="U9" s="342"/>
-      <c r="Z9" s="337"/>
+      <c r="S9" s="340"/>
+      <c r="T9" s="340"/>
+      <c r="U9" s="340"/>
+      <c r="Z9" s="334"/>
       <c r="AD9" s="217" t="s">
         <v>233</v>
       </c>
@@ -33344,20 +33344,20 @@
       <c r="AN9" s="211"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A10" s="334" t="s">
+      <c r="A10" s="336" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="334"/>
-      <c r="C10" s="334"/>
-      <c r="D10" s="334"/>
-      <c r="E10" s="334"/>
+      <c r="B10" s="336"/>
+      <c r="C10" s="336"/>
+      <c r="D10" s="336"/>
+      <c r="E10" s="336"/>
       <c r="I10" s="212" t="s">
         <v>285</v>
       </c>
       <c r="J10" s="212" t="s">
         <v>399</v>
       </c>
-      <c r="M10" s="337"/>
+      <c r="M10" s="334"/>
       <c r="N10" s="212" t="s">
         <v>390</v>
       </c>
@@ -33385,7 +33385,7 @@
       <c r="V10" s="212" t="s">
         <v>403</v>
       </c>
-      <c r="Z10" s="337"/>
+      <c r="Z10" s="334"/>
       <c r="AN10" s="211"/>
     </row>
     <row r="11" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33412,7 +33412,7 @@
         <v>287</v>
       </c>
       <c r="J11" s="212"/>
-      <c r="M11" s="337"/>
+      <c r="M11" s="334"/>
       <c r="N11" s="212" t="s">
         <v>220</v>
       </c>
@@ -33445,14 +33445,14 @@
         <f>Q11/$O$3</f>
         <v>0.1</v>
       </c>
-      <c r="Z11" s="337"/>
-      <c r="AD11" s="343" t="s">
+      <c r="Z11" s="334"/>
+      <c r="AD11" s="341" t="s">
         <v>404</v>
       </c>
-      <c r="AE11" s="343"/>
-      <c r="AF11" s="343"/>
-      <c r="AG11" s="343"/>
-      <c r="AH11" s="343"/>
+      <c r="AE11" s="341"/>
+      <c r="AF11" s="341"/>
+      <c r="AG11" s="341"/>
+      <c r="AH11" s="341"/>
       <c r="AN11" s="211"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -33482,7 +33482,7 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M12" s="337"/>
+      <c r="M12" s="334"/>
       <c r="N12" s="212" t="s">
         <v>318</v>
       </c>
@@ -33511,7 +33511,7 @@
         <f>Q12/$O$3</f>
         <v>4.2753623188405795E-2</v>
       </c>
-      <c r="Z12" s="337"/>
+      <c r="Z12" s="334"/>
       <c r="AD12" s="212" t="s">
         <v>390</v>
       </c>
@@ -33562,7 +33562,7 @@
         <f>(C29+C30)/2</f>
         <v>64.481351981351992</v>
       </c>
-      <c r="M13" s="337"/>
+      <c r="M13" s="334"/>
       <c r="N13" s="212" t="s">
         <v>222</v>
       </c>
@@ -33597,7 +33597,7 @@
         <f>Q13/$O$3</f>
         <v>3.0200000000000005E-2</v>
       </c>
-      <c r="Z13" s="337"/>
+      <c r="Z13" s="334"/>
       <c r="AD13" s="212" t="s">
         <v>220</v>
       </c>
@@ -33642,7 +33642,7 @@
         <f t="shared" si="0"/>
         <v>1.9083969465648859E-2</v>
       </c>
-      <c r="M14" s="337"/>
+      <c r="M14" s="334"/>
       <c r="N14" s="212" t="s">
         <v>223</v>
       </c>
@@ -33677,7 +33677,7 @@
         <f>Q14/$O$3</f>
         <v>1.1800000000000001E-2</v>
       </c>
-      <c r="Z14" s="337"/>
+      <c r="Z14" s="334"/>
       <c r="AA14" s="221"/>
       <c r="AD14" s="212" t="s">
         <v>318</v>
@@ -33724,7 +33724,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="223"/>
-      <c r="M15" s="337"/>
+      <c r="M15" s="334"/>
       <c r="N15" s="224" t="s">
         <v>233</v>
       </c>
@@ -33756,7 +33756,7 @@
         <f>Q15/$O$3</f>
         <v>2.0866666666666669E-2</v>
       </c>
-      <c r="Z15" s="337"/>
+      <c r="Z15" s="334"/>
       <c r="AD15" s="212" t="s">
         <v>222</v>
       </c>
@@ -33784,10 +33784,10 @@
       <c r="AN15" s="211"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M16" s="337"/>
+      <c r="M16" s="334"/>
       <c r="Q16" s="226"/>
       <c r="R16" s="226"/>
-      <c r="Z16" s="337"/>
+      <c r="Z16" s="334"/>
       <c r="AD16" s="212" t="s">
         <v>223</v>
       </c>
@@ -33814,14 +33814,14 @@
       <c r="AN16" s="211"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="334" t="s">
+      <c r="A17" s="336" t="s">
         <v>291</v>
       </c>
-      <c r="B17" s="334"/>
-      <c r="C17" s="334"/>
-      <c r="M17" s="337"/>
+      <c r="B17" s="336"/>
+      <c r="C17" s="336"/>
+      <c r="M17" s="334"/>
       <c r="Q17" s="227"/>
-      <c r="Z17" s="337"/>
+      <c r="Z17" s="334"/>
       <c r="AD17" s="212" t="s">
         <v>233</v>
       </c>
@@ -33855,8 +33855,8 @@
       <c r="C18" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="337"/>
-      <c r="Z18" s="337"/>
+      <c r="M18" s="334"/>
+      <c r="Z18" s="334"/>
       <c r="AN18" s="211"/>
     </row>
     <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33870,8 +33870,8 @@
         <v>230</v>
       </c>
       <c r="J19" s="223"/>
-      <c r="M19" s="337"/>
-      <c r="Z19" s="337"/>
+      <c r="M19" s="334"/>
+      <c r="Z19" s="334"/>
       <c r="AA19" s="333" t="s">
         <v>408</v>
       </c>
@@ -33899,7 +33899,7 @@
         <v>231</v>
       </c>
       <c r="J20" s="228"/>
-      <c r="M20" s="337"/>
+      <c r="M20" s="334"/>
       <c r="N20" s="333" t="s">
         <v>409</v>
       </c>
@@ -33914,7 +33914,7 @@
       <c r="W20" s="333"/>
       <c r="X20" s="333"/>
       <c r="Y20" s="333"/>
-      <c r="Z20" s="337"/>
+      <c r="Z20" s="334"/>
       <c r="AN20" s="211"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -33927,7 +33927,7 @@
       <c r="C21" s="212" t="s">
         <v>232</v>
       </c>
-      <c r="M21" s="337"/>
+      <c r="M21" s="334"/>
       <c r="N21" s="212"/>
       <c r="O21" s="212" t="s">
         <v>172</v>
@@ -33941,7 +33941,7 @@
       <c r="R21" s="212" t="s">
         <v>391</v>
       </c>
-      <c r="Z21" s="337"/>
+      <c r="Z21" s="334"/>
       <c r="AJ21" s="229"/>
       <c r="AN21" s="211"/>
     </row>
@@ -33955,7 +33955,7 @@
       <c r="C22" s="212" t="s">
         <v>232</v>
       </c>
-      <c r="M22" s="337"/>
+      <c r="M22" s="334"/>
       <c r="N22" s="212" t="s">
         <v>220</v>
       </c>
@@ -33975,12 +33975,12 @@
         <f t="shared" si="1"/>
         <v>5.1005160550458708</v>
       </c>
-      <c r="Z22" s="337"/>
+      <c r="Z22" s="334"/>
       <c r="AJ22" s="229"/>
       <c r="AN22" s="211"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M23" s="337"/>
+      <c r="M23" s="334"/>
       <c r="N23" s="212" t="s">
         <v>410</v>
       </c>
@@ -34000,12 +34000,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="337"/>
+      <c r="Z23" s="334"/>
       <c r="AJ23" s="229"/>
       <c r="AN23" s="211"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M24" s="337"/>
+      <c r="M24" s="334"/>
       <c r="N24" s="212" t="s">
         <v>222</v>
       </c>
@@ -34025,17 +34025,17 @@
         <f t="shared" si="1"/>
         <v>2.6909552238805975E-2</v>
       </c>
-      <c r="Z24" s="337"/>
+      <c r="Z24" s="334"/>
       <c r="AJ24" s="229"/>
       <c r="AN24" s="211"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A25" s="334" t="s">
+      <c r="A25" s="336" t="s">
         <v>411</v>
       </c>
-      <c r="B25" s="334"/>
-      <c r="C25" s="334"/>
-      <c r="M25" s="337"/>
+      <c r="B25" s="336"/>
+      <c r="C25" s="336"/>
+      <c r="M25" s="334"/>
       <c r="N25" s="212" t="s">
         <v>223</v>
       </c>
@@ -34055,7 +34055,7 @@
         <f t="shared" si="1"/>
         <v>6.721946564885499E-2</v>
       </c>
-      <c r="Z25" s="337"/>
+      <c r="Z25" s="334"/>
       <c r="AN25" s="211"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -34066,7 +34066,7 @@
       <c r="C26" s="212" t="s">
         <v>399</v>
       </c>
-      <c r="M26" s="337"/>
+      <c r="M26" s="334"/>
       <c r="N26" s="212" t="s">
         <v>233</v>
       </c>
@@ -34086,7 +34086,7 @@
         <f t="shared" si="1"/>
         <v>6.2287000000000009E-2</v>
       </c>
-      <c r="Z26" s="337"/>
+      <c r="Z26" s="334"/>
       <c r="AN26" s="211"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -34097,8 +34097,8 @@
         <v>225</v>
       </c>
       <c r="C27" s="212"/>
-      <c r="M27" s="337"/>
-      <c r="Z27" s="337"/>
+      <c r="M27" s="334"/>
+      <c r="Z27" s="334"/>
       <c r="AN27" s="211"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -34112,8 +34112,8 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M28" s="337"/>
-      <c r="Z28" s="337"/>
+      <c r="M28" s="334"/>
+      <c r="Z28" s="334"/>
       <c r="AN28" s="211"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -34127,8 +34127,8 @@
         <f>109/1.56</f>
         <v>69.871794871794876</v>
       </c>
-      <c r="M29" s="337"/>
-      <c r="Z29" s="337"/>
+      <c r="M29" s="334"/>
+      <c r="Z29" s="334"/>
       <c r="AN29" s="211"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -34142,23 +34142,23 @@
         <f>13/0.22</f>
         <v>59.090909090909093</v>
       </c>
-      <c r="M30" s="337"/>
-      <c r="Z30" s="337"/>
+      <c r="M30" s="334"/>
+      <c r="Z30" s="334"/>
       <c r="AN30" s="211"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M31" s="337"/>
-      <c r="Z31" s="337"/>
+      <c r="M31" s="334"/>
+      <c r="Z31" s="334"/>
       <c r="AN31" s="211"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A32" s="335" t="s">
+      <c r="A32" s="342" t="s">
         <v>413</v>
       </c>
-      <c r="B32" s="335"/>
-      <c r="C32" s="335"/>
-      <c r="M32" s="337"/>
-      <c r="Z32" s="337"/>
+      <c r="B32" s="342"/>
+      <c r="C32" s="342"/>
+      <c r="M32" s="334"/>
+      <c r="Z32" s="334"/>
       <c r="AN32" s="211"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.2">
@@ -34168,8 +34168,8 @@
       <c r="B33" s="212" t="s">
         <v>237</v>
       </c>
-      <c r="M33" s="337"/>
-      <c r="Z33" s="337"/>
+      <c r="M33" s="334"/>
+      <c r="Z33" s="334"/>
       <c r="AN33" s="211"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.2">
@@ -34179,8 +34179,8 @@
       <c r="B34" s="230">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="M34" s="337"/>
-      <c r="Z34" s="337"/>
+      <c r="M34" s="334"/>
+      <c r="Z34" s="334"/>
       <c r="AN34" s="211"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -34190,8 +34190,8 @@
       <c r="B35" s="219">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="M35" s="337"/>
-      <c r="Z35" s="337"/>
+      <c r="M35" s="334"/>
+      <c r="Z35" s="334"/>
       <c r="AN35" s="211"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
@@ -34201,8 +34201,8 @@
       <c r="B36" s="219">
         <v>2E-3</v>
       </c>
-      <c r="M36" s="337"/>
-      <c r="Z36" s="337"/>
+      <c r="M36" s="334"/>
+      <c r="Z36" s="334"/>
       <c r="AN36" s="211"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -34212,8 +34212,8 @@
       <c r="B37" s="219">
         <v>0.5</v>
       </c>
-      <c r="M37" s="337"/>
-      <c r="Z37" s="337"/>
+      <c r="M37" s="334"/>
+      <c r="Z37" s="334"/>
       <c r="AN37" s="211"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -34223,31 +34223,31 @@
       <c r="B38" s="219">
         <v>0.99950000000000006</v>
       </c>
-      <c r="M38" s="337"/>
-      <c r="Z38" s="337"/>
+      <c r="M38" s="334"/>
+      <c r="Z38" s="334"/>
       <c r="AN38" s="211"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M39" s="337"/>
-      <c r="Z39" s="337"/>
+      <c r="M39" s="334"/>
+      <c r="Z39" s="334"/>
       <c r="AN39" s="211"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M40" s="337"/>
-      <c r="Z40" s="337"/>
+      <c r="M40" s="334"/>
+      <c r="Z40" s="334"/>
       <c r="AN40" s="211"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="231" t="s">
         <v>414</v>
       </c>
-      <c r="M41" s="337"/>
-      <c r="Z41" s="337"/>
+      <c r="M41" s="334"/>
+      <c r="Z41" s="334"/>
       <c r="AN41" s="211"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M42" s="337"/>
-      <c r="Z42" s="337"/>
+      <c r="M42" s="334"/>
+      <c r="Z42" s="334"/>
       <c r="AN42" s="211"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
@@ -34261,8 +34261,8 @@
       <c r="D43" s="212" t="s">
         <v>415</v>
       </c>
-      <c r="M43" s="337"/>
-      <c r="Z43" s="337"/>
+      <c r="M43" s="334"/>
+      <c r="Z43" s="334"/>
       <c r="AN43" s="211"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -34281,8 +34281,8 @@
         <f>D45/B35/1000000</f>
         <v>1.9933333333333334</v>
       </c>
-      <c r="M44" s="337"/>
-      <c r="Z44" s="337"/>
+      <c r="M44" s="334"/>
+      <c r="Z44" s="334"/>
       <c r="AN44" s="211"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -34298,8 +34298,8 @@
       <c r="D45" s="215">
         <v>299</v>
       </c>
-      <c r="M45" s="337"/>
-      <c r="Z45" s="337"/>
+      <c r="M45" s="334"/>
+      <c r="Z45" s="334"/>
       <c r="AN45" s="211"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -34318,47 +34318,47 @@
         <f>((D44*1000000)-D45)/1000000</f>
         <v>1.9930343333333336</v>
       </c>
-      <c r="M46" s="337"/>
-      <c r="Z46" s="337"/>
+      <c r="M46" s="334"/>
+      <c r="Z46" s="334"/>
       <c r="AN46" s="211"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M47" s="337"/>
-      <c r="Z47" s="337"/>
+      <c r="M47" s="334"/>
+      <c r="Z47" s="334"/>
       <c r="AN47" s="211"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M48" s="337"/>
-      <c r="Z48" s="337"/>
+      <c r="M48" s="334"/>
+      <c r="Z48" s="334"/>
       <c r="AN48" s="211"/>
     </row>
     <row r="49" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M49" s="337"/>
-      <c r="Z49" s="337"/>
+      <c r="M49" s="334"/>
+      <c r="Z49" s="334"/>
       <c r="AN49" s="211"/>
     </row>
     <row r="50" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M50" s="337"/>
-      <c r="Z50" s="337"/>
+      <c r="M50" s="334"/>
+      <c r="Z50" s="334"/>
       <c r="AN50" s="211"/>
     </row>
     <row r="51" spans="13:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="M51" s="337"/>
-      <c r="N51" s="336" t="s">
+      <c r="M51" s="334"/>
+      <c r="N51" s="343" t="s">
         <v>419</v>
       </c>
-      <c r="O51" s="336"/>
-      <c r="P51" s="336"/>
-      <c r="Q51" s="336"/>
-      <c r="R51" s="336"/>
-      <c r="S51" s="336"/>
-      <c r="T51" s="336"/>
-      <c r="U51" s="336"/>
-      <c r="V51" s="336"/>
-      <c r="W51" s="336"/>
-      <c r="X51" s="336"/>
-      <c r="Y51" s="336"/>
-      <c r="Z51" s="337"/>
+      <c r="O51" s="343"/>
+      <c r="P51" s="343"/>
+      <c r="Q51" s="343"/>
+      <c r="R51" s="343"/>
+      <c r="S51" s="343"/>
+      <c r="T51" s="343"/>
+      <c r="U51" s="343"/>
+      <c r="V51" s="343"/>
+      <c r="W51" s="343"/>
+      <c r="X51" s="343"/>
+      <c r="Y51" s="343"/>
+      <c r="Z51" s="334"/>
       <c r="AA51" s="333" t="s">
         <v>420</v>
       </c>
@@ -34376,12 +34376,12 @@
       <c r="AN51" s="211"/>
     </row>
     <row r="52" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M52" s="337"/>
-      <c r="Z52" s="337"/>
+      <c r="M52" s="334"/>
+      <c r="Z52" s="334"/>
       <c r="AN52" s="211"/>
     </row>
     <row r="53" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M53" s="337"/>
+      <c r="M53" s="334"/>
       <c r="N53" s="212"/>
       <c r="O53" s="212" t="s">
         <v>220</v>
@@ -34401,7 +34401,7 @@
       <c r="T53" s="209" t="s">
         <v>216</v>
       </c>
-      <c r="Z53" s="337"/>
+      <c r="Z53" s="334"/>
       <c r="AA53" s="212"/>
       <c r="AB53" s="212" t="s">
         <v>220</v>
@@ -34427,7 +34427,7 @@
       <c r="AN53" s="211"/>
     </row>
     <row r="54" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M54" s="337"/>
+      <c r="M54" s="334"/>
       <c r="N54" s="212" t="s">
         <v>423</v>
       </c>
@@ -34454,7 +34454,7 @@
         <f>SUM(O54:S54)</f>
         <v>55.148956521739137</v>
       </c>
-      <c r="Z54" s="337"/>
+      <c r="Z54" s="334"/>
       <c r="AA54" s="212" t="s">
         <v>424</v>
       </c>
@@ -34491,7 +34491,7 @@
       <c r="AN54" s="211"/>
     </row>
     <row r="55" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M55" s="337"/>
+      <c r="M55" s="334"/>
       <c r="N55" s="212" t="s">
         <v>425</v>
       </c>
@@ -34517,7 +34517,7 @@
         <f>SUM(O55:S55)</f>
         <v>48.840656521739135</v>
       </c>
-      <c r="Z55" s="337"/>
+      <c r="Z55" s="334"/>
       <c r="AA55" s="212" t="s">
         <v>426</v>
       </c>
@@ -34553,27 +34553,27 @@
       <c r="AN55" s="211"/>
     </row>
     <row r="56" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M56" s="337"/>
-      <c r="Z56" s="337"/>
+      <c r="M56" s="334"/>
+      <c r="Z56" s="334"/>
       <c r="AH56" s="227"/>
       <c r="AN56" s="211"/>
     </row>
     <row r="57" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M57" s="337"/>
-      <c r="Z57" s="337"/>
+      <c r="M57" s="334"/>
+      <c r="Z57" s="334"/>
       <c r="AN57" s="211"/>
     </row>
     <row r="58" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M58" s="337"/>
+      <c r="M58" s="334"/>
       <c r="R58" s="227"/>
       <c r="V58" s="233"/>
-      <c r="Z58" s="337"/>
+      <c r="Z58" s="334"/>
       <c r="AN58" s="211"/>
     </row>
     <row r="59" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M59" s="337"/>
+      <c r="M59" s="334"/>
       <c r="V59" s="233"/>
-      <c r="Z59" s="337"/>
+      <c r="Z59" s="334"/>
       <c r="AA59" s="212"/>
       <c r="AB59" s="212" t="s">
         <v>220</v>
@@ -34594,8 +34594,8 @@
       <c r="AN59" s="211"/>
     </row>
     <row r="60" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M60" s="337"/>
-      <c r="Z60" s="337"/>
+      <c r="M60" s="334"/>
+      <c r="Z60" s="334"/>
       <c r="AA60" s="212" t="s">
         <v>423</v>
       </c>
@@ -34621,8 +34621,8 @@
       <c r="AN60" s="211"/>
     </row>
     <row r="61" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M61" s="337"/>
-      <c r="Z61" s="337"/>
+      <c r="M61" s="334"/>
+      <c r="Z61" s="334"/>
       <c r="AA61" s="212" t="s">
         <v>428</v>
       </c>
@@ -34648,116 +34648,116 @@
       <c r="AN61" s="211"/>
     </row>
     <row r="62" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M62" s="337"/>
-      <c r="Z62" s="337"/>
+      <c r="M62" s="334"/>
+      <c r="Z62" s="334"/>
       <c r="AN62" s="211"/>
     </row>
     <row r="63" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M63" s="337"/>
-      <c r="Z63" s="337"/>
+      <c r="M63" s="334"/>
+      <c r="Z63" s="334"/>
       <c r="AN63" s="211"/>
     </row>
     <row r="64" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M64" s="337"/>
-      <c r="Z64" s="337"/>
+      <c r="M64" s="334"/>
+      <c r="Z64" s="334"/>
       <c r="AN64" s="211"/>
     </row>
     <row r="65" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M65" s="337"/>
-      <c r="Z65" s="337"/>
+      <c r="M65" s="334"/>
+      <c r="Z65" s="334"/>
       <c r="AN65" s="211"/>
     </row>
     <row r="66" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M66" s="337"/>
-      <c r="Z66" s="337"/>
+      <c r="M66" s="334"/>
+      <c r="Z66" s="334"/>
       <c r="AN66" s="211"/>
     </row>
     <row r="67" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M67" s="337"/>
-      <c r="Z67" s="337"/>
+      <c r="M67" s="334"/>
+      <c r="Z67" s="334"/>
       <c r="AN67" s="211"/>
     </row>
     <row r="68" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M68" s="337"/>
-      <c r="Z68" s="337"/>
+      <c r="M68" s="334"/>
+      <c r="Z68" s="334"/>
       <c r="AN68" s="211"/>
     </row>
     <row r="69" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M69" s="337"/>
-      <c r="Z69" s="337"/>
+      <c r="M69" s="334"/>
+      <c r="Z69" s="334"/>
       <c r="AN69" s="211"/>
     </row>
     <row r="70" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M70" s="337"/>
-      <c r="Z70" s="337"/>
+      <c r="M70" s="334"/>
+      <c r="Z70" s="334"/>
       <c r="AN70" s="211"/>
     </row>
     <row r="71" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M71" s="337"/>
-      <c r="Z71" s="337"/>
+      <c r="M71" s="334"/>
+      <c r="Z71" s="334"/>
       <c r="AN71" s="211"/>
     </row>
     <row r="72" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M72" s="337"/>
-      <c r="Z72" s="337"/>
+      <c r="M72" s="334"/>
+      <c r="Z72" s="334"/>
       <c r="AN72" s="211"/>
     </row>
     <row r="73" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M73" s="337"/>
-      <c r="Z73" s="337"/>
+      <c r="M73" s="334"/>
+      <c r="Z73" s="334"/>
       <c r="AN73" s="211"/>
     </row>
     <row r="74" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M74" s="337"/>
-      <c r="Z74" s="337"/>
+      <c r="M74" s="334"/>
+      <c r="Z74" s="334"/>
       <c r="AN74" s="211"/>
     </row>
     <row r="75" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M75" s="337"/>
-      <c r="Z75" s="337"/>
+      <c r="M75" s="334"/>
+      <c r="Z75" s="334"/>
       <c r="AN75" s="211"/>
     </row>
     <row r="76" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M76" s="337"/>
-      <c r="Z76" s="337"/>
+      <c r="M76" s="334"/>
+      <c r="Z76" s="334"/>
       <c r="AN76" s="211"/>
     </row>
     <row r="77" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M77" s="337"/>
-      <c r="Z77" s="337"/>
+      <c r="M77" s="334"/>
+      <c r="Z77" s="334"/>
       <c r="AN77" s="211"/>
     </row>
     <row r="78" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M78" s="337"/>
-      <c r="Z78" s="337"/>
+      <c r="M78" s="334"/>
+      <c r="Z78" s="334"/>
       <c r="AN78" s="211"/>
     </row>
     <row r="79" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M79" s="337"/>
-      <c r="Z79" s="337"/>
+      <c r="M79" s="334"/>
+      <c r="Z79" s="334"/>
       <c r="AN79" s="211"/>
     </row>
     <row r="80" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M80" s="337"/>
-      <c r="Z80" s="337"/>
+      <c r="M80" s="334"/>
+      <c r="Z80" s="334"/>
       <c r="AN80" s="211"/>
     </row>
     <row r="81" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M81" s="337"/>
-      <c r="Z81" s="337"/>
+      <c r="M81" s="334"/>
+      <c r="Z81" s="334"/>
       <c r="AN81" s="211"/>
     </row>
     <row r="82" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M82" s="337"/>
-      <c r="Z82" s="337"/>
+      <c r="M82" s="334"/>
+      <c r="Z82" s="334"/>
       <c r="AN82" s="211"/>
     </row>
     <row r="83" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z83" s="337"/>
+      <c r="Z83" s="334"/>
       <c r="AN83" s="211"/>
     </row>
     <row r="84" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z84" s="337"/>
+      <c r="Z84" s="334"/>
       <c r="AN84" s="211"/>
     </row>
     <row r="85" spans="13:40" x14ac:dyDescent="0.2">
@@ -34765,6 +34765,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N20:Y20"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="N51:Y51"/>
+    <mergeCell ref="AA51:AL51"/>
     <mergeCell ref="AA19:AL19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:K1"/>
@@ -34781,11 +34786,6 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="AD11:AH11"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="N20:Y20"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="N51:Y51"/>
-    <mergeCell ref="AA51:AL51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35448,8 +35448,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId8" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId16" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -35468,182 +35643,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId6" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId14" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35792,8 +35792,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -35812,82 +35887,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36177,8 +36177,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36197,232 +36422,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36486,8 +36486,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36506,182 +36681,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36756,8 +36756,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36776,232 +37001,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -37088,8 +37088,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -37108,232 +37333,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -37410,8 +37410,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -37430,182 +37605,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -37691,8 +37691,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -37711,232 +37936,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -40319,8 +40319,8 @@
   </sheetPr>
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41058,8 +41058,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -41078,32 +41103,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -41164,18 +41164,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41184,7 +41184,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -41214,18 +41214,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41234,7 +41234,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -41556,18 +41556,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41576,7 +41576,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -41606,18 +41606,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41626,7 +41626,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -41699,18 +41699,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -41719,7 +41719,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -41749,18 +41749,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -41769,7 +41769,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/vt_REGION1_IND-PGM.xlsx
+++ b/vt_REGION1_IND-PGM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FB2121-2FDF-441F-B1AA-6612CABD26ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4679EFEB-9AA7-42B9-B10B-4BACCE13C9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="759" firstSheet="2" activeTab="4" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="759" firstSheet="2" activeTab="13" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues outstanding" sheetId="73" r:id="rId1"/>
@@ -4009,14 +4009,20 @@
     <xf numFmtId="4" fontId="56" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="42" fillId="7" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="7" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="4" fontId="42" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="42" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="7" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4031,12 +4037,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="7" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -20988,18 +20988,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -21008,7 +21008,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21038,18 +21038,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -21058,7 +21058,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -21115,19 +21115,44 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -21135,32 +21160,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
+        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21190,19 +21190,44 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -21210,32 +21235,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
+        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -21721,18 +21721,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>142875</xdr:rowOff>
               </to>
@@ -21741,7 +21741,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21771,18 +21771,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>142875</xdr:rowOff>
               </to>
@@ -21791,7 +21791,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22080,52 +22080,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22155,52 +22155,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22214,8 +22214,8 @@
   </sheetPr>
   <dimension ref="A1:AB20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22884,9 +22884,6 @@
         <f>RES!O2</f>
         <v>IPGM</v>
       </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
       <c r="M19" s="3">
         <v>2025</v>
       </c>
@@ -22934,43 +22931,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -22979,32 +22951,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="157698" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="157698" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157699" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157699" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23034,18 +23031,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157699" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -23054,57 +23076,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157699" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157698" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157698" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -23174,43 +23171,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -23219,32 +23191,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23274,18 +23271,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -23294,57 +23316,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -23679,18 +23676,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -23699,57 +23721,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206850" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206850" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206851" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206851" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23779,43 +23776,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
+        <control shapeId="206851" r:id="rId12" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -23824,32 +23796,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="206851" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
+        <control shapeId="206850" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="206850" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -32918,59 +32915,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="337" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="334"/>
-      <c r="I1" s="334" t="s">
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="337"/>
+      <c r="I1" s="337" t="s">
         <v>379</v>
       </c>
-      <c r="J1" s="334"/>
-      <c r="K1" s="334"/>
-      <c r="M1" s="334"/>
+      <c r="J1" s="337"/>
+      <c r="K1" s="337"/>
+      <c r="M1" s="337"/>
       <c r="N1" s="210" t="s">
         <v>380</v>
       </c>
       <c r="O1" s="210"/>
       <c r="P1" s="210"/>
-      <c r="Z1" s="334"/>
-      <c r="AA1" s="335" t="s">
+      <c r="Z1" s="337"/>
+      <c r="AA1" s="338" t="s">
         <v>381</v>
       </c>
-      <c r="AB1" s="335"/>
-      <c r="AC1" s="335"/>
-      <c r="AD1" s="335"/>
-      <c r="AE1" s="335"/>
-      <c r="AF1" s="335"/>
-      <c r="AG1" s="335"/>
-      <c r="AH1" s="335"/>
-      <c r="AI1" s="335"/>
-      <c r="AJ1" s="335"/>
-      <c r="AK1" s="335"/>
-      <c r="AL1" s="335"/>
-      <c r="AM1" s="335"/>
+      <c r="AB1" s="338"/>
+      <c r="AC1" s="338"/>
+      <c r="AD1" s="338"/>
+      <c r="AE1" s="338"/>
+      <c r="AF1" s="338"/>
+      <c r="AG1" s="338"/>
+      <c r="AH1" s="338"/>
+      <c r="AI1" s="338"/>
+      <c r="AJ1" s="338"/>
+      <c r="AK1" s="338"/>
+      <c r="AL1" s="338"/>
+      <c r="AM1" s="338"/>
       <c r="AN1" s="211"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="334" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="336"/>
-      <c r="C2" s="336"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="I2" s="336" t="s">
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="I2" s="334" t="s">
         <v>229</v>
       </c>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336"/>
-      <c r="M2" s="334"/>
-      <c r="Z2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="M2" s="337"/>
+      <c r="Z2" s="337"/>
       <c r="AN2" s="211"/>
     </row>
     <row r="3" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33001,7 +32998,7 @@
       <c r="K3" s="212" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="334"/>
+      <c r="M3" s="337"/>
       <c r="N3" s="209" t="s">
         <v>385</v>
       </c>
@@ -33011,18 +33008,18 @@
       <c r="P3" s="209" t="s">
         <v>386</v>
       </c>
-      <c r="Z3" s="334"/>
-      <c r="AA3" s="337" t="s">
+      <c r="Z3" s="337"/>
+      <c r="AA3" s="339" t="s">
         <v>387</v>
       </c>
-      <c r="AB3" s="337"/>
-      <c r="AD3" s="338" t="s">
+      <c r="AB3" s="339"/>
+      <c r="AD3" s="340" t="s">
         <v>388</v>
       </c>
-      <c r="AE3" s="339"/>
-      <c r="AF3" s="339"/>
-      <c r="AG3" s="339"/>
-      <c r="AH3" s="339"/>
+      <c r="AE3" s="341"/>
+      <c r="AF3" s="341"/>
+      <c r="AG3" s="341"/>
+      <c r="AH3" s="341"/>
       <c r="AN3" s="211"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -33054,8 +33051,8 @@
       <c r="K4" s="212">
         <v>0.21</v>
       </c>
-      <c r="M4" s="334"/>
-      <c r="Z4" s="334"/>
+      <c r="M4" s="337"/>
+      <c r="Z4" s="337"/>
       <c r="AA4" s="212" t="s">
         <v>172</v>
       </c>
@@ -33114,12 +33111,12 @@
       <c r="K5" s="212">
         <v>0.78</v>
       </c>
-      <c r="M5" s="334"/>
-      <c r="N5" s="337" t="s">
+      <c r="M5" s="337"/>
+      <c r="N5" s="339" t="s">
         <v>393</v>
       </c>
-      <c r="O5" s="337"/>
-      <c r="Z5" s="334"/>
+      <c r="O5" s="339"/>
+      <c r="Z5" s="337"/>
       <c r="AA5" s="212" t="s">
         <v>137</v>
       </c>
@@ -33172,7 +33169,7 @@
       <c r="K6" s="212">
         <v>0.01</v>
       </c>
-      <c r="M6" s="334"/>
+      <c r="M6" s="337"/>
       <c r="N6" s="212" t="s">
         <v>395</v>
       </c>
@@ -33180,7 +33177,7 @@
         <f>O3/B34</f>
         <v>99500000</v>
       </c>
-      <c r="Z6" s="334"/>
+      <c r="Z6" s="337"/>
       <c r="AA6" s="212" t="s">
         <v>226</v>
       </c>
@@ -33229,7 +33226,7 @@
       <c r="K7" s="212">
         <v>100</v>
       </c>
-      <c r="M7" s="334"/>
+      <c r="M7" s="337"/>
       <c r="N7" s="212" t="s">
         <v>396</v>
       </c>
@@ -33237,7 +33234,7 @@
         <f>O3/B35</f>
         <v>1990000.0000000002</v>
       </c>
-      <c r="Z7" s="334"/>
+      <c r="Z7" s="337"/>
       <c r="AA7" s="212" t="s">
         <v>173</v>
       </c>
@@ -33285,7 +33282,7 @@
         <f>SUM('Students worksheet'!B8:E8)</f>
         <v>23.700000000000003</v>
       </c>
-      <c r="M8" s="334"/>
+      <c r="M8" s="337"/>
       <c r="N8" s="212" t="s">
         <v>397</v>
       </c>
@@ -33293,7 +33290,7 @@
         <f>O3/B38</f>
         <v>298.64932466233114</v>
       </c>
-      <c r="Z8" s="334"/>
+      <c r="Z8" s="337"/>
       <c r="AA8" s="212" t="s">
         <v>394</v>
       </c>
@@ -33316,18 +33313,18 @@
       <c r="AN8" s="211"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="I9" s="336" t="s">
+      <c r="I9" s="334" t="s">
         <v>398</v>
       </c>
-      <c r="J9" s="336"/>
-      <c r="M9" s="334"/>
-      <c r="R9" s="340" t="s">
+      <c r="J9" s="334"/>
+      <c r="M9" s="337"/>
+      <c r="R9" s="342" t="s">
         <v>388</v>
       </c>
-      <c r="S9" s="340"/>
-      <c r="T9" s="340"/>
-      <c r="U9" s="340"/>
-      <c r="Z9" s="334"/>
+      <c r="S9" s="342"/>
+      <c r="T9" s="342"/>
+      <c r="U9" s="342"/>
+      <c r="Z9" s="337"/>
       <c r="AD9" s="217" t="s">
         <v>233</v>
       </c>
@@ -33344,20 +33341,20 @@
       <c r="AN9" s="211"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A10" s="336" t="s">
+      <c r="A10" s="334" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="336"/>
-      <c r="C10" s="336"/>
-      <c r="D10" s="336"/>
-      <c r="E10" s="336"/>
+      <c r="B10" s="334"/>
+      <c r="C10" s="334"/>
+      <c r="D10" s="334"/>
+      <c r="E10" s="334"/>
       <c r="I10" s="212" t="s">
         <v>285</v>
       </c>
       <c r="J10" s="212" t="s">
         <v>399</v>
       </c>
-      <c r="M10" s="334"/>
+      <c r="M10" s="337"/>
       <c r="N10" s="212" t="s">
         <v>390</v>
       </c>
@@ -33385,7 +33382,7 @@
       <c r="V10" s="212" t="s">
         <v>403</v>
       </c>
-      <c r="Z10" s="334"/>
+      <c r="Z10" s="337"/>
       <c r="AN10" s="211"/>
     </row>
     <row r="11" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33412,7 +33409,7 @@
         <v>287</v>
       </c>
       <c r="J11" s="212"/>
-      <c r="M11" s="334"/>
+      <c r="M11" s="337"/>
       <c r="N11" s="212" t="s">
         <v>220</v>
       </c>
@@ -33445,14 +33442,14 @@
         <f>Q11/$O$3</f>
         <v>0.1</v>
       </c>
-      <c r="Z11" s="334"/>
-      <c r="AD11" s="341" t="s">
+      <c r="Z11" s="337"/>
+      <c r="AD11" s="343" t="s">
         <v>404</v>
       </c>
-      <c r="AE11" s="341"/>
-      <c r="AF11" s="341"/>
-      <c r="AG11" s="341"/>
-      <c r="AH11" s="341"/>
+      <c r="AE11" s="343"/>
+      <c r="AF11" s="343"/>
+      <c r="AG11" s="343"/>
+      <c r="AH11" s="343"/>
       <c r="AN11" s="211"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -33482,7 +33479,7 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M12" s="334"/>
+      <c r="M12" s="337"/>
       <c r="N12" s="212" t="s">
         <v>318</v>
       </c>
@@ -33511,7 +33508,7 @@
         <f>Q12/$O$3</f>
         <v>4.2753623188405795E-2</v>
       </c>
-      <c r="Z12" s="334"/>
+      <c r="Z12" s="337"/>
       <c r="AD12" s="212" t="s">
         <v>390</v>
       </c>
@@ -33562,7 +33559,7 @@
         <f>(C29+C30)/2</f>
         <v>64.481351981351992</v>
       </c>
-      <c r="M13" s="334"/>
+      <c r="M13" s="337"/>
       <c r="N13" s="212" t="s">
         <v>222</v>
       </c>
@@ -33597,7 +33594,7 @@
         <f>Q13/$O$3</f>
         <v>3.0200000000000005E-2</v>
       </c>
-      <c r="Z13" s="334"/>
+      <c r="Z13" s="337"/>
       <c r="AD13" s="212" t="s">
         <v>220</v>
       </c>
@@ -33642,7 +33639,7 @@
         <f t="shared" si="0"/>
         <v>1.9083969465648859E-2</v>
       </c>
-      <c r="M14" s="334"/>
+      <c r="M14" s="337"/>
       <c r="N14" s="212" t="s">
         <v>223</v>
       </c>
@@ -33677,7 +33674,7 @@
         <f>Q14/$O$3</f>
         <v>1.1800000000000001E-2</v>
       </c>
-      <c r="Z14" s="334"/>
+      <c r="Z14" s="337"/>
       <c r="AA14" s="221"/>
       <c r="AD14" s="212" t="s">
         <v>318</v>
@@ -33724,7 +33721,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="223"/>
-      <c r="M15" s="334"/>
+      <c r="M15" s="337"/>
       <c r="N15" s="224" t="s">
         <v>233</v>
       </c>
@@ -33756,7 +33753,7 @@
         <f>Q15/$O$3</f>
         <v>2.0866666666666669E-2</v>
       </c>
-      <c r="Z15" s="334"/>
+      <c r="Z15" s="337"/>
       <c r="AD15" s="212" t="s">
         <v>222</v>
       </c>
@@ -33784,10 +33781,10 @@
       <c r="AN15" s="211"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M16" s="334"/>
+      <c r="M16" s="337"/>
       <c r="Q16" s="226"/>
       <c r="R16" s="226"/>
-      <c r="Z16" s="334"/>
+      <c r="Z16" s="337"/>
       <c r="AD16" s="212" t="s">
         <v>223</v>
       </c>
@@ -33814,14 +33811,14 @@
       <c r="AN16" s="211"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="336" t="s">
+      <c r="A17" s="334" t="s">
         <v>291</v>
       </c>
-      <c r="B17" s="336"/>
-      <c r="C17" s="336"/>
-      <c r="M17" s="334"/>
+      <c r="B17" s="334"/>
+      <c r="C17" s="334"/>
+      <c r="M17" s="337"/>
       <c r="Q17" s="227"/>
-      <c r="Z17" s="334"/>
+      <c r="Z17" s="337"/>
       <c r="AD17" s="212" t="s">
         <v>233</v>
       </c>
@@ -33855,8 +33852,8 @@
       <c r="C18" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="334"/>
-      <c r="Z18" s="334"/>
+      <c r="M18" s="337"/>
+      <c r="Z18" s="337"/>
       <c r="AN18" s="211"/>
     </row>
     <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33870,8 +33867,8 @@
         <v>230</v>
       </c>
       <c r="J19" s="223"/>
-      <c r="M19" s="334"/>
-      <c r="Z19" s="334"/>
+      <c r="M19" s="337"/>
+      <c r="Z19" s="337"/>
       <c r="AA19" s="333" t="s">
         <v>408</v>
       </c>
@@ -33899,7 +33896,7 @@
         <v>231</v>
       </c>
       <c r="J20" s="228"/>
-      <c r="M20" s="334"/>
+      <c r="M20" s="337"/>
       <c r="N20" s="333" t="s">
         <v>409</v>
       </c>
@@ -33914,7 +33911,7 @@
       <c r="W20" s="333"/>
       <c r="X20" s="333"/>
       <c r="Y20" s="333"/>
-      <c r="Z20" s="334"/>
+      <c r="Z20" s="337"/>
       <c r="AN20" s="211"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -33927,7 +33924,7 @@
       <c r="C21" s="212" t="s">
         <v>232</v>
       </c>
-      <c r="M21" s="334"/>
+      <c r="M21" s="337"/>
       <c r="N21" s="212"/>
       <c r="O21" s="212" t="s">
         <v>172</v>
@@ -33941,7 +33938,7 @@
       <c r="R21" s="212" t="s">
         <v>391</v>
       </c>
-      <c r="Z21" s="334"/>
+      <c r="Z21" s="337"/>
       <c r="AJ21" s="229"/>
       <c r="AN21" s="211"/>
     </row>
@@ -33955,7 +33952,7 @@
       <c r="C22" s="212" t="s">
         <v>232</v>
       </c>
-      <c r="M22" s="334"/>
+      <c r="M22" s="337"/>
       <c r="N22" s="212" t="s">
         <v>220</v>
       </c>
@@ -33975,12 +33972,12 @@
         <f t="shared" si="1"/>
         <v>5.1005160550458708</v>
       </c>
-      <c r="Z22" s="334"/>
+      <c r="Z22" s="337"/>
       <c r="AJ22" s="229"/>
       <c r="AN22" s="211"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M23" s="334"/>
+      <c r="M23" s="337"/>
       <c r="N23" s="212" t="s">
         <v>410</v>
       </c>
@@ -34000,12 +33997,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="334"/>
+      <c r="Z23" s="337"/>
       <c r="AJ23" s="229"/>
       <c r="AN23" s="211"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M24" s="334"/>
+      <c r="M24" s="337"/>
       <c r="N24" s="212" t="s">
         <v>222</v>
       </c>
@@ -34025,17 +34022,17 @@
         <f t="shared" si="1"/>
         <v>2.6909552238805975E-2</v>
       </c>
-      <c r="Z24" s="334"/>
+      <c r="Z24" s="337"/>
       <c r="AJ24" s="229"/>
       <c r="AN24" s="211"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A25" s="336" t="s">
+      <c r="A25" s="334" t="s">
         <v>411</v>
       </c>
-      <c r="B25" s="336"/>
-      <c r="C25" s="336"/>
-      <c r="M25" s="334"/>
+      <c r="B25" s="334"/>
+      <c r="C25" s="334"/>
+      <c r="M25" s="337"/>
       <c r="N25" s="212" t="s">
         <v>223</v>
       </c>
@@ -34055,7 +34052,7 @@
         <f t="shared" si="1"/>
         <v>6.721946564885499E-2</v>
       </c>
-      <c r="Z25" s="334"/>
+      <c r="Z25" s="337"/>
       <c r="AN25" s="211"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -34066,7 +34063,7 @@
       <c r="C26" s="212" t="s">
         <v>399</v>
       </c>
-      <c r="M26" s="334"/>
+      <c r="M26" s="337"/>
       <c r="N26" s="212" t="s">
         <v>233</v>
       </c>
@@ -34086,7 +34083,7 @@
         <f t="shared" si="1"/>
         <v>6.2287000000000009E-2</v>
       </c>
-      <c r="Z26" s="334"/>
+      <c r="Z26" s="337"/>
       <c r="AN26" s="211"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -34097,8 +34094,8 @@
         <v>225</v>
       </c>
       <c r="C27" s="212"/>
-      <c r="M27" s="334"/>
-      <c r="Z27" s="334"/>
+      <c r="M27" s="337"/>
+      <c r="Z27" s="337"/>
       <c r="AN27" s="211"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -34112,8 +34109,8 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M28" s="334"/>
-      <c r="Z28" s="334"/>
+      <c r="M28" s="337"/>
+      <c r="Z28" s="337"/>
       <c r="AN28" s="211"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -34127,8 +34124,8 @@
         <f>109/1.56</f>
         <v>69.871794871794876</v>
       </c>
-      <c r="M29" s="334"/>
-      <c r="Z29" s="334"/>
+      <c r="M29" s="337"/>
+      <c r="Z29" s="337"/>
       <c r="AN29" s="211"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -34142,23 +34139,23 @@
         <f>13/0.22</f>
         <v>59.090909090909093</v>
       </c>
-      <c r="M30" s="334"/>
-      <c r="Z30" s="334"/>
+      <c r="M30" s="337"/>
+      <c r="Z30" s="337"/>
       <c r="AN30" s="211"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M31" s="334"/>
-      <c r="Z31" s="334"/>
+      <c r="M31" s="337"/>
+      <c r="Z31" s="337"/>
       <c r="AN31" s="211"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A32" s="342" t="s">
+      <c r="A32" s="335" t="s">
         <v>413</v>
       </c>
-      <c r="B32" s="342"/>
-      <c r="C32" s="342"/>
-      <c r="M32" s="334"/>
-      <c r="Z32" s="334"/>
+      <c r="B32" s="335"/>
+      <c r="C32" s="335"/>
+      <c r="M32" s="337"/>
+      <c r="Z32" s="337"/>
       <c r="AN32" s="211"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.2">
@@ -34168,8 +34165,8 @@
       <c r="B33" s="212" t="s">
         <v>237</v>
       </c>
-      <c r="M33" s="334"/>
-      <c r="Z33" s="334"/>
+      <c r="M33" s="337"/>
+      <c r="Z33" s="337"/>
       <c r="AN33" s="211"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.2">
@@ -34179,8 +34176,8 @@
       <c r="B34" s="230">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="M34" s="334"/>
-      <c r="Z34" s="334"/>
+      <c r="M34" s="337"/>
+      <c r="Z34" s="337"/>
       <c r="AN34" s="211"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -34190,8 +34187,8 @@
       <c r="B35" s="219">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="M35" s="334"/>
-      <c r="Z35" s="334"/>
+      <c r="M35" s="337"/>
+      <c r="Z35" s="337"/>
       <c r="AN35" s="211"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
@@ -34201,8 +34198,8 @@
       <c r="B36" s="219">
         <v>2E-3</v>
       </c>
-      <c r="M36" s="334"/>
-      <c r="Z36" s="334"/>
+      <c r="M36" s="337"/>
+      <c r="Z36" s="337"/>
       <c r="AN36" s="211"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -34212,8 +34209,8 @@
       <c r="B37" s="219">
         <v>0.5</v>
       </c>
-      <c r="M37" s="334"/>
-      <c r="Z37" s="334"/>
+      <c r="M37" s="337"/>
+      <c r="Z37" s="337"/>
       <c r="AN37" s="211"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -34223,31 +34220,31 @@
       <c r="B38" s="219">
         <v>0.99950000000000006</v>
       </c>
-      <c r="M38" s="334"/>
-      <c r="Z38" s="334"/>
+      <c r="M38" s="337"/>
+      <c r="Z38" s="337"/>
       <c r="AN38" s="211"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M39" s="334"/>
-      <c r="Z39" s="334"/>
+      <c r="M39" s="337"/>
+      <c r="Z39" s="337"/>
       <c r="AN39" s="211"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M40" s="334"/>
-      <c r="Z40" s="334"/>
+      <c r="M40" s="337"/>
+      <c r="Z40" s="337"/>
       <c r="AN40" s="211"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="231" t="s">
         <v>414</v>
       </c>
-      <c r="M41" s="334"/>
-      <c r="Z41" s="334"/>
+      <c r="M41" s="337"/>
+      <c r="Z41" s="337"/>
       <c r="AN41" s="211"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M42" s="334"/>
-      <c r="Z42" s="334"/>
+      <c r="M42" s="337"/>
+      <c r="Z42" s="337"/>
       <c r="AN42" s="211"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
@@ -34261,8 +34258,8 @@
       <c r="D43" s="212" t="s">
         <v>415</v>
       </c>
-      <c r="M43" s="334"/>
-      <c r="Z43" s="334"/>
+      <c r="M43" s="337"/>
+      <c r="Z43" s="337"/>
       <c r="AN43" s="211"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -34281,8 +34278,8 @@
         <f>D45/B35/1000000</f>
         <v>1.9933333333333334</v>
       </c>
-      <c r="M44" s="334"/>
-      <c r="Z44" s="334"/>
+      <c r="M44" s="337"/>
+      <c r="Z44" s="337"/>
       <c r="AN44" s="211"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -34298,8 +34295,8 @@
       <c r="D45" s="215">
         <v>299</v>
       </c>
-      <c r="M45" s="334"/>
-      <c r="Z45" s="334"/>
+      <c r="M45" s="337"/>
+      <c r="Z45" s="337"/>
       <c r="AN45" s="211"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -34318,47 +34315,47 @@
         <f>((D44*1000000)-D45)/1000000</f>
         <v>1.9930343333333336</v>
       </c>
-      <c r="M46" s="334"/>
-      <c r="Z46" s="334"/>
+      <c r="M46" s="337"/>
+      <c r="Z46" s="337"/>
       <c r="AN46" s="211"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M47" s="334"/>
-      <c r="Z47" s="334"/>
+      <c r="M47" s="337"/>
+      <c r="Z47" s="337"/>
       <c r="AN47" s="211"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M48" s="334"/>
-      <c r="Z48" s="334"/>
+      <c r="M48" s="337"/>
+      <c r="Z48" s="337"/>
       <c r="AN48" s="211"/>
     </row>
     <row r="49" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M49" s="334"/>
-      <c r="Z49" s="334"/>
+      <c r="M49" s="337"/>
+      <c r="Z49" s="337"/>
       <c r="AN49" s="211"/>
     </row>
     <row r="50" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M50" s="334"/>
-      <c r="Z50" s="334"/>
+      <c r="M50" s="337"/>
+      <c r="Z50" s="337"/>
       <c r="AN50" s="211"/>
     </row>
     <row r="51" spans="13:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="M51" s="334"/>
-      <c r="N51" s="343" t="s">
+      <c r="M51" s="337"/>
+      <c r="N51" s="336" t="s">
         <v>419</v>
       </c>
-      <c r="O51" s="343"/>
-      <c r="P51" s="343"/>
-      <c r="Q51" s="343"/>
-      <c r="R51" s="343"/>
-      <c r="S51" s="343"/>
-      <c r="T51" s="343"/>
-      <c r="U51" s="343"/>
-      <c r="V51" s="343"/>
-      <c r="W51" s="343"/>
-      <c r="X51" s="343"/>
-      <c r="Y51" s="343"/>
-      <c r="Z51" s="334"/>
+      <c r="O51" s="336"/>
+      <c r="P51" s="336"/>
+      <c r="Q51" s="336"/>
+      <c r="R51" s="336"/>
+      <c r="S51" s="336"/>
+      <c r="T51" s="336"/>
+      <c r="U51" s="336"/>
+      <c r="V51" s="336"/>
+      <c r="W51" s="336"/>
+      <c r="X51" s="336"/>
+      <c r="Y51" s="336"/>
+      <c r="Z51" s="337"/>
       <c r="AA51" s="333" t="s">
         <v>420</v>
       </c>
@@ -34376,12 +34373,12 @@
       <c r="AN51" s="211"/>
     </row>
     <row r="52" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M52" s="334"/>
-      <c r="Z52" s="334"/>
+      <c r="M52" s="337"/>
+      <c r="Z52" s="337"/>
       <c r="AN52" s="211"/>
     </row>
     <row r="53" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M53" s="334"/>
+      <c r="M53" s="337"/>
       <c r="N53" s="212"/>
       <c r="O53" s="212" t="s">
         <v>220</v>
@@ -34401,7 +34398,7 @@
       <c r="T53" s="209" t="s">
         <v>216</v>
       </c>
-      <c r="Z53" s="334"/>
+      <c r="Z53" s="337"/>
       <c r="AA53" s="212"/>
       <c r="AB53" s="212" t="s">
         <v>220</v>
@@ -34427,7 +34424,7 @@
       <c r="AN53" s="211"/>
     </row>
     <row r="54" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M54" s="334"/>
+      <c r="M54" s="337"/>
       <c r="N54" s="212" t="s">
         <v>423</v>
       </c>
@@ -34454,7 +34451,7 @@
         <f>SUM(O54:S54)</f>
         <v>55.148956521739137</v>
       </c>
-      <c r="Z54" s="334"/>
+      <c r="Z54" s="337"/>
       <c r="AA54" s="212" t="s">
         <v>424</v>
       </c>
@@ -34491,7 +34488,7 @@
       <c r="AN54" s="211"/>
     </row>
     <row r="55" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M55" s="334"/>
+      <c r="M55" s="337"/>
       <c r="N55" s="212" t="s">
         <v>425</v>
       </c>
@@ -34517,7 +34514,7 @@
         <f>SUM(O55:S55)</f>
         <v>48.840656521739135</v>
       </c>
-      <c r="Z55" s="334"/>
+      <c r="Z55" s="337"/>
       <c r="AA55" s="212" t="s">
         <v>426</v>
       </c>
@@ -34553,27 +34550,27 @@
       <c r="AN55" s="211"/>
     </row>
     <row r="56" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M56" s="334"/>
-      <c r="Z56" s="334"/>
+      <c r="M56" s="337"/>
+      <c r="Z56" s="337"/>
       <c r="AH56" s="227"/>
       <c r="AN56" s="211"/>
     </row>
     <row r="57" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M57" s="334"/>
-      <c r="Z57" s="334"/>
+      <c r="M57" s="337"/>
+      <c r="Z57" s="337"/>
       <c r="AN57" s="211"/>
     </row>
     <row r="58" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M58" s="334"/>
+      <c r="M58" s="337"/>
       <c r="R58" s="227"/>
       <c r="V58" s="233"/>
-      <c r="Z58" s="334"/>
+      <c r="Z58" s="337"/>
       <c r="AN58" s="211"/>
     </row>
     <row r="59" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M59" s="334"/>
+      <c r="M59" s="337"/>
       <c r="V59" s="233"/>
-      <c r="Z59" s="334"/>
+      <c r="Z59" s="337"/>
       <c r="AA59" s="212"/>
       <c r="AB59" s="212" t="s">
         <v>220</v>
@@ -34594,8 +34591,8 @@
       <c r="AN59" s="211"/>
     </row>
     <row r="60" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M60" s="334"/>
-      <c r="Z60" s="334"/>
+      <c r="M60" s="337"/>
+      <c r="Z60" s="337"/>
       <c r="AA60" s="212" t="s">
         <v>423</v>
       </c>
@@ -34621,8 +34618,8 @@
       <c r="AN60" s="211"/>
     </row>
     <row r="61" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M61" s="334"/>
-      <c r="Z61" s="334"/>
+      <c r="M61" s="337"/>
+      <c r="Z61" s="337"/>
       <c r="AA61" s="212" t="s">
         <v>428</v>
       </c>
@@ -34648,116 +34645,116 @@
       <c r="AN61" s="211"/>
     </row>
     <row r="62" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M62" s="334"/>
-      <c r="Z62" s="334"/>
+      <c r="M62" s="337"/>
+      <c r="Z62" s="337"/>
       <c r="AN62" s="211"/>
     </row>
     <row r="63" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M63" s="334"/>
-      <c r="Z63" s="334"/>
+      <c r="M63" s="337"/>
+      <c r="Z63" s="337"/>
       <c r="AN63" s="211"/>
     </row>
     <row r="64" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M64" s="334"/>
-      <c r="Z64" s="334"/>
+      <c r="M64" s="337"/>
+      <c r="Z64" s="337"/>
       <c r="AN64" s="211"/>
     </row>
     <row r="65" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M65" s="334"/>
-      <c r="Z65" s="334"/>
+      <c r="M65" s="337"/>
+      <c r="Z65" s="337"/>
       <c r="AN65" s="211"/>
     </row>
     <row r="66" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M66" s="334"/>
-      <c r="Z66" s="334"/>
+      <c r="M66" s="337"/>
+      <c r="Z66" s="337"/>
       <c r="AN66" s="211"/>
     </row>
     <row r="67" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M67" s="334"/>
-      <c r="Z67" s="334"/>
+      <c r="M67" s="337"/>
+      <c r="Z67" s="337"/>
       <c r="AN67" s="211"/>
     </row>
     <row r="68" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M68" s="334"/>
-      <c r="Z68" s="334"/>
+      <c r="M68" s="337"/>
+      <c r="Z68" s="337"/>
       <c r="AN68" s="211"/>
     </row>
     <row r="69" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M69" s="334"/>
-      <c r="Z69" s="334"/>
+      <c r="M69" s="337"/>
+      <c r="Z69" s="337"/>
       <c r="AN69" s="211"/>
     </row>
     <row r="70" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M70" s="334"/>
-      <c r="Z70" s="334"/>
+      <c r="M70" s="337"/>
+      <c r="Z70" s="337"/>
       <c r="AN70" s="211"/>
     </row>
     <row r="71" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M71" s="334"/>
-      <c r="Z71" s="334"/>
+      <c r="M71" s="337"/>
+      <c r="Z71" s="337"/>
       <c r="AN71" s="211"/>
     </row>
     <row r="72" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M72" s="334"/>
-      <c r="Z72" s="334"/>
+      <c r="M72" s="337"/>
+      <c r="Z72" s="337"/>
       <c r="AN72" s="211"/>
     </row>
     <row r="73" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M73" s="334"/>
-      <c r="Z73" s="334"/>
+      <c r="M73" s="337"/>
+      <c r="Z73" s="337"/>
       <c r="AN73" s="211"/>
     </row>
     <row r="74" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M74" s="334"/>
-      <c r="Z74" s="334"/>
+      <c r="M74" s="337"/>
+      <c r="Z74" s="337"/>
       <c r="AN74" s="211"/>
     </row>
     <row r="75" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M75" s="334"/>
-      <c r="Z75" s="334"/>
+      <c r="M75" s="337"/>
+      <c r="Z75" s="337"/>
       <c r="AN75" s="211"/>
     </row>
     <row r="76" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M76" s="334"/>
-      <c r="Z76" s="334"/>
+      <c r="M76" s="337"/>
+      <c r="Z76" s="337"/>
       <c r="AN76" s="211"/>
     </row>
     <row r="77" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M77" s="334"/>
-      <c r="Z77" s="334"/>
+      <c r="M77" s="337"/>
+      <c r="Z77" s="337"/>
       <c r="AN77" s="211"/>
     </row>
     <row r="78" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M78" s="334"/>
-      <c r="Z78" s="334"/>
+      <c r="M78" s="337"/>
+      <c r="Z78" s="337"/>
       <c r="AN78" s="211"/>
     </row>
     <row r="79" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M79" s="334"/>
-      <c r="Z79" s="334"/>
+      <c r="M79" s="337"/>
+      <c r="Z79" s="337"/>
       <c r="AN79" s="211"/>
     </row>
     <row r="80" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M80" s="334"/>
-      <c r="Z80" s="334"/>
+      <c r="M80" s="337"/>
+      <c r="Z80" s="337"/>
       <c r="AN80" s="211"/>
     </row>
     <row r="81" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M81" s="334"/>
-      <c r="Z81" s="334"/>
+      <c r="M81" s="337"/>
+      <c r="Z81" s="337"/>
       <c r="AN81" s="211"/>
     </row>
     <row r="82" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M82" s="334"/>
-      <c r="Z82" s="334"/>
+      <c r="M82" s="337"/>
+      <c r="Z82" s="337"/>
       <c r="AN82" s="211"/>
     </row>
     <row r="83" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z83" s="334"/>
+      <c r="Z83" s="337"/>
       <c r="AN83" s="211"/>
     </row>
     <row r="84" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z84" s="334"/>
+      <c r="Z84" s="337"/>
       <c r="AN84" s="211"/>
     </row>
     <row r="85" spans="13:40" x14ac:dyDescent="0.2">
@@ -34765,11 +34762,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N20:Y20"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="N51:Y51"/>
-    <mergeCell ref="AA51:AL51"/>
     <mergeCell ref="AA19:AL19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:K1"/>
@@ -34786,6 +34778,11 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="AD11:AH11"/>
     <mergeCell ref="A17:C17"/>
+    <mergeCell ref="N20:Y20"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="N51:Y51"/>
+    <mergeCell ref="AA51:AL51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35448,8 +35445,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1085850</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId6" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId14" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -35468,182 +35640,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId8" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId16" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1085850</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
+        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35792,8 +35789,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -35812,82 +35884,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
+        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36177,8 +36174,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -36197,232 +36419,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36486,8 +36483,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -36506,182 +36678,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
+        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36756,8 +36753,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -36776,232 +36998,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -37088,8 +37085,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -37108,232 +37330,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
+        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -37410,8 +37407,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -37430,182 +37602,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
+        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -37691,8 +37688,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>9</xdr:col>
@@ -37711,232 +37933,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
+        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -40319,7 +40316,7 @@
   </sheetPr>
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -41058,8 +41055,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -41078,32 +41100,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
+        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -41164,18 +41161,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41184,7 +41181,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -41214,18 +41211,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41234,7 +41231,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -41556,18 +41553,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41576,7 +41573,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -41606,18 +41603,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41626,7 +41623,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -41699,18 +41696,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -41719,7 +41716,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -41749,18 +41746,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -41769,7 +41766,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/vt_REGION1_IND-PGM.xlsx
+++ b/vt_REGION1_IND-PGM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4679EFEB-9AA7-42B9-B10B-4BACCE13C9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523F536D-7174-4FD6-81D8-74F806F0FD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="759" firstSheet="2" activeTab="13" xr2:uid="{01C5F1A3-3E45-467D-9726-EEF4E68E73D8}"/>
   </bookViews>
@@ -4009,20 +4009,14 @@
     <xf numFmtId="4" fontId="56" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="42" fillId="7" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="7" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="42" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="42" fillId="8" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="42" fillId="2" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="7" borderId="7" xfId="14" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4037,6 +4031,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="7" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="42" fillId="13" borderId="0" xfId="14" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -20988,18 +20988,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -21008,7 +21008,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101377" r:id="rId4" name="cmdConstraintSets"/>
+        <control shapeId="101379" r:id="rId4" name="cmdConstraintUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21038,18 +21038,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -21058,7 +21058,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="101379" r:id="rId8" name="cmdConstraintUnit"/>
+        <control shapeId="101377" r:id="rId8" name="cmdConstraintSets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -21115,44 +21115,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet">
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90116" r:id="rId4" name="cmdCheckCommDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -21160,7 +21135,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90115" r:id="rId6" name="cmdAddParamQualifier1"/>
+        <control shapeId="90118" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90113" r:id="rId6" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21190,44 +21190,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter">
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="90113" r:id="rId10" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -21235,7 +21210,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="90118" r:id="rId12" name="cmdAddParamQualifier2"/>
+        <control shapeId="90115" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="90116" r:id="rId12" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -21721,18 +21721,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>142875</xdr:rowOff>
               </to>
@@ -21741,7 +21741,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128003" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="128001" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -21771,18 +21771,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>142875</xdr:rowOff>
               </to>
@@ -21791,7 +21791,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="128001" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="128003" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22080,52 +22080,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126981" r:id="rId4" name="cmdAddParamQualifier2"/>
+        <control shapeId="126977" r:id="rId4" name="cmdAddParameter"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet">
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126980" r:id="rId6" name="cmdCheckCommDataSheet"/>
+        <control shapeId="126978" r:id="rId6" name="cmdCommNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -22155,52 +22155,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc">
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126978" r:id="rId10" name="cmdCommNameAndDesc"/>
+        <control shapeId="126980" r:id="rId10" name="cmdCheckCommDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter">
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="126977" r:id="rId12" name="cmdAddParameter"/>
+        <control shapeId="126981" r:id="rId12" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -22215,7 +22215,7 @@
   <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22809,8 +22809,8 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="92">
-        <f>T10*101%</f>
-        <v>0.15265644937049763</v>
+        <f>T10</f>
+        <v>0.15114499937673032</v>
       </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -22841,8 +22841,8 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="92">
-        <f>U11*101%</f>
-        <v>1.7576521017296037E-2</v>
+        <f>U11</f>
+        <v>1.740249605672875E-2</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="93"/>
@@ -22873,8 +22873,8 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="92">
-        <f>V12*101%</f>
-        <v>1.032324636916814E-3</v>
+        <f>V12</f>
+        <v>1.0221036009077367E-3</v>
       </c>
       <c r="W18" s="93"/>
       <c r="X18" s="93"/>
@@ -22931,18 +22931,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157703" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>847725</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -22951,57 +22976,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157697" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="157702" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157698" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157698" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157699" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157699" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="157701" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23031,43 +23031,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="157699" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="157701" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -23076,32 +23051,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157702" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="157699" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="157698" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="157703" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="157698" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>847725</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="157697" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -23171,18 +23171,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc">
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113672" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -23191,57 +23216,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113665" r:id="rId4" name="cmdTechNameAndDesc"/>
+        <control shapeId="113670" r:id="rId6" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113666" r:id="rId6" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>619125</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113667" r:id="rId8" name="cmdCommOUT"/>
+        <control shapeId="113669" r:id="rId8" name="cmdAddParamQualifier1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23271,43 +23271,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1">
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="113669" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>209550</xdr:rowOff>
               </to>
@@ -23316,32 +23291,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113670" r:id="rId14" name="cmdCheckTechDataSheet"/>
+        <control shapeId="113667" r:id="rId12" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="113672" r:id="rId16" name="cmdAddParamQualifier2"/>
+        <control shapeId="113666" r:id="rId14" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="113665" r:id="rId16" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -23676,43 +23676,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2">
+        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206855" r:id="rId4" name="cmdAddParamQualifier2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -23721,32 +23696,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206854" r:id="rId6" name="cmdCheckTechDataSheet"/>
+        <control shapeId="206849" r:id="rId4" name="cmdTechNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="206850" r:id="rId6" name="cmdCommIN">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206853" r:id="rId8" name="cmdAddParamQualifier1"/>
+        <control shapeId="206850" r:id="rId6" name="cmdCommIN"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206851" r:id="rId8" name="cmdCommOUT">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206851" r:id="rId8" name="cmdCommOUT"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -23776,18 +23776,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="206853" r:id="rId12" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>190500</xdr:rowOff>
               </to>
@@ -23796,57 +23821,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206851" r:id="rId12" name="cmdCommOUT"/>
+        <control shapeId="206854" r:id="rId14" name="cmdCheckTechDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="206850" r:id="rId14" name="cmdCommIN"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="206849" r:id="rId16" name="cmdTechNameAndDesc"/>
+        <control shapeId="206855" r:id="rId16" name="cmdAddParamQualifier2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -32915,59 +32915,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="334" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="I1" s="337" t="s">
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
+      <c r="I1" s="334" t="s">
         <v>379</v>
       </c>
-      <c r="J1" s="337"/>
-      <c r="K1" s="337"/>
-      <c r="M1" s="337"/>
+      <c r="J1" s="334"/>
+      <c r="K1" s="334"/>
+      <c r="M1" s="334"/>
       <c r="N1" s="210" t="s">
         <v>380</v>
       </c>
       <c r="O1" s="210"/>
       <c r="P1" s="210"/>
-      <c r="Z1" s="337"/>
-      <c r="AA1" s="338" t="s">
+      <c r="Z1" s="334"/>
+      <c r="AA1" s="335" t="s">
         <v>381</v>
       </c>
-      <c r="AB1" s="338"/>
-      <c r="AC1" s="338"/>
-      <c r="AD1" s="338"/>
-      <c r="AE1" s="338"/>
-      <c r="AF1" s="338"/>
-      <c r="AG1" s="338"/>
-      <c r="AH1" s="338"/>
-      <c r="AI1" s="338"/>
-      <c r="AJ1" s="338"/>
-      <c r="AK1" s="338"/>
-      <c r="AL1" s="338"/>
-      <c r="AM1" s="338"/>
+      <c r="AB1" s="335"/>
+      <c r="AC1" s="335"/>
+      <c r="AD1" s="335"/>
+      <c r="AE1" s="335"/>
+      <c r="AF1" s="335"/>
+      <c r="AG1" s="335"/>
+      <c r="AH1" s="335"/>
+      <c r="AI1" s="335"/>
+      <c r="AJ1" s="335"/>
+      <c r="AK1" s="335"/>
+      <c r="AL1" s="335"/>
+      <c r="AM1" s="335"/>
       <c r="AN1" s="211"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="336" t="s">
         <v>382</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="I2" s="334" t="s">
+      <c r="B2" s="336"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="I2" s="336" t="s">
         <v>229</v>
       </c>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="M2" s="337"/>
-      <c r="Z2" s="337"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="M2" s="334"/>
+      <c r="Z2" s="334"/>
       <c r="AN2" s="211"/>
     </row>
     <row r="3" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -32998,7 +32998,7 @@
       <c r="K3" s="212" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="337"/>
+      <c r="M3" s="334"/>
       <c r="N3" s="209" t="s">
         <v>385</v>
       </c>
@@ -33008,18 +33008,18 @@
       <c r="P3" s="209" t="s">
         <v>386</v>
       </c>
-      <c r="Z3" s="337"/>
-      <c r="AA3" s="339" t="s">
+      <c r="Z3" s="334"/>
+      <c r="AA3" s="337" t="s">
         <v>387</v>
       </c>
-      <c r="AB3" s="339"/>
-      <c r="AD3" s="340" t="s">
+      <c r="AB3" s="337"/>
+      <c r="AD3" s="338" t="s">
         <v>388</v>
       </c>
-      <c r="AE3" s="341"/>
-      <c r="AF3" s="341"/>
-      <c r="AG3" s="341"/>
-      <c r="AH3" s="341"/>
+      <c r="AE3" s="339"/>
+      <c r="AF3" s="339"/>
+      <c r="AG3" s="339"/>
+      <c r="AH3" s="339"/>
       <c r="AN3" s="211"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -33051,8 +33051,8 @@
       <c r="K4" s="212">
         <v>0.21</v>
       </c>
-      <c r="M4" s="337"/>
-      <c r="Z4" s="337"/>
+      <c r="M4" s="334"/>
+      <c r="Z4" s="334"/>
       <c r="AA4" s="212" t="s">
         <v>172</v>
       </c>
@@ -33111,12 +33111,12 @@
       <c r="K5" s="212">
         <v>0.78</v>
       </c>
-      <c r="M5" s="337"/>
-      <c r="N5" s="339" t="s">
+      <c r="M5" s="334"/>
+      <c r="N5" s="337" t="s">
         <v>393</v>
       </c>
-      <c r="O5" s="339"/>
-      <c r="Z5" s="337"/>
+      <c r="O5" s="337"/>
+      <c r="Z5" s="334"/>
       <c r="AA5" s="212" t="s">
         <v>137</v>
       </c>
@@ -33169,7 +33169,7 @@
       <c r="K6" s="212">
         <v>0.01</v>
       </c>
-      <c r="M6" s="337"/>
+      <c r="M6" s="334"/>
       <c r="N6" s="212" t="s">
         <v>395</v>
       </c>
@@ -33177,7 +33177,7 @@
         <f>O3/B34</f>
         <v>99500000</v>
       </c>
-      <c r="Z6" s="337"/>
+      <c r="Z6" s="334"/>
       <c r="AA6" s="212" t="s">
         <v>226</v>
       </c>
@@ -33226,7 +33226,7 @@
       <c r="K7" s="212">
         <v>100</v>
       </c>
-      <c r="M7" s="337"/>
+      <c r="M7" s="334"/>
       <c r="N7" s="212" t="s">
         <v>396</v>
       </c>
@@ -33234,7 +33234,7 @@
         <f>O3/B35</f>
         <v>1990000.0000000002</v>
       </c>
-      <c r="Z7" s="337"/>
+      <c r="Z7" s="334"/>
       <c r="AA7" s="212" t="s">
         <v>173</v>
       </c>
@@ -33282,7 +33282,7 @@
         <f>SUM('Students worksheet'!B8:E8)</f>
         <v>23.700000000000003</v>
       </c>
-      <c r="M8" s="337"/>
+      <c r="M8" s="334"/>
       <c r="N8" s="212" t="s">
         <v>397</v>
       </c>
@@ -33290,7 +33290,7 @@
         <f>O3/B38</f>
         <v>298.64932466233114</v>
       </c>
-      <c r="Z8" s="337"/>
+      <c r="Z8" s="334"/>
       <c r="AA8" s="212" t="s">
         <v>394</v>
       </c>
@@ -33313,18 +33313,18 @@
       <c r="AN8" s="211"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="I9" s="334" t="s">
+      <c r="I9" s="336" t="s">
         <v>398</v>
       </c>
-      <c r="J9" s="334"/>
-      <c r="M9" s="337"/>
-      <c r="R9" s="342" t="s">
+      <c r="J9" s="336"/>
+      <c r="M9" s="334"/>
+      <c r="R9" s="340" t="s">
         <v>388</v>
       </c>
-      <c r="S9" s="342"/>
-      <c r="T9" s="342"/>
-      <c r="U9" s="342"/>
-      <c r="Z9" s="337"/>
+      <c r="S9" s="340"/>
+      <c r="T9" s="340"/>
+      <c r="U9" s="340"/>
+      <c r="Z9" s="334"/>
       <c r="AD9" s="217" t="s">
         <v>233</v>
       </c>
@@ -33341,20 +33341,20 @@
       <c r="AN9" s="211"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A10" s="334" t="s">
+      <c r="A10" s="336" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="334"/>
-      <c r="C10" s="334"/>
-      <c r="D10" s="334"/>
-      <c r="E10" s="334"/>
+      <c r="B10" s="336"/>
+      <c r="C10" s="336"/>
+      <c r="D10" s="336"/>
+      <c r="E10" s="336"/>
       <c r="I10" s="212" t="s">
         <v>285</v>
       </c>
       <c r="J10" s="212" t="s">
         <v>399</v>
       </c>
-      <c r="M10" s="337"/>
+      <c r="M10" s="334"/>
       <c r="N10" s="212" t="s">
         <v>390</v>
       </c>
@@ -33382,7 +33382,7 @@
       <c r="V10" s="212" t="s">
         <v>403</v>
       </c>
-      <c r="Z10" s="337"/>
+      <c r="Z10" s="334"/>
       <c r="AN10" s="211"/>
     </row>
     <row r="11" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33409,7 +33409,7 @@
         <v>287</v>
       </c>
       <c r="J11" s="212"/>
-      <c r="M11" s="337"/>
+      <c r="M11" s="334"/>
       <c r="N11" s="212" t="s">
         <v>220</v>
       </c>
@@ -33442,14 +33442,14 @@
         <f>Q11/$O$3</f>
         <v>0.1</v>
       </c>
-      <c r="Z11" s="337"/>
-      <c r="AD11" s="343" t="s">
+      <c r="Z11" s="334"/>
+      <c r="AD11" s="341" t="s">
         <v>404</v>
       </c>
-      <c r="AE11" s="343"/>
-      <c r="AF11" s="343"/>
-      <c r="AG11" s="343"/>
-      <c r="AH11" s="343"/>
+      <c r="AE11" s="341"/>
+      <c r="AF11" s="341"/>
+      <c r="AG11" s="341"/>
+      <c r="AH11" s="341"/>
       <c r="AN11" s="211"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.2">
@@ -33479,7 +33479,7 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M12" s="337"/>
+      <c r="M12" s="334"/>
       <c r="N12" s="212" t="s">
         <v>318</v>
       </c>
@@ -33508,7 +33508,7 @@
         <f>Q12/$O$3</f>
         <v>4.2753623188405795E-2</v>
       </c>
-      <c r="Z12" s="337"/>
+      <c r="Z12" s="334"/>
       <c r="AD12" s="212" t="s">
         <v>390</v>
       </c>
@@ -33559,7 +33559,7 @@
         <f>(C29+C30)/2</f>
         <v>64.481351981351992</v>
       </c>
-      <c r="M13" s="337"/>
+      <c r="M13" s="334"/>
       <c r="N13" s="212" t="s">
         <v>222</v>
       </c>
@@ -33594,7 +33594,7 @@
         <f>Q13/$O$3</f>
         <v>3.0200000000000005E-2</v>
       </c>
-      <c r="Z13" s="337"/>
+      <c r="Z13" s="334"/>
       <c r="AD13" s="212" t="s">
         <v>220</v>
       </c>
@@ -33639,7 +33639,7 @@
         <f t="shared" si="0"/>
         <v>1.9083969465648859E-2</v>
       </c>
-      <c r="M14" s="337"/>
+      <c r="M14" s="334"/>
       <c r="N14" s="212" t="s">
         <v>223</v>
       </c>
@@ -33674,7 +33674,7 @@
         <f>Q14/$O$3</f>
         <v>1.1800000000000001E-2</v>
       </c>
-      <c r="Z14" s="337"/>
+      <c r="Z14" s="334"/>
       <c r="AA14" s="221"/>
       <c r="AD14" s="212" t="s">
         <v>318</v>
@@ -33721,7 +33721,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="223"/>
-      <c r="M15" s="337"/>
+      <c r="M15" s="334"/>
       <c r="N15" s="224" t="s">
         <v>233</v>
       </c>
@@ -33753,7 +33753,7 @@
         <f>Q15/$O$3</f>
         <v>2.0866666666666669E-2</v>
       </c>
-      <c r="Z15" s="337"/>
+      <c r="Z15" s="334"/>
       <c r="AD15" s="212" t="s">
         <v>222</v>
       </c>
@@ -33781,10 +33781,10 @@
       <c r="AN15" s="211"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M16" s="337"/>
+      <c r="M16" s="334"/>
       <c r="Q16" s="226"/>
       <c r="R16" s="226"/>
-      <c r="Z16" s="337"/>
+      <c r="Z16" s="334"/>
       <c r="AD16" s="212" t="s">
         <v>223</v>
       </c>
@@ -33811,14 +33811,14 @@
       <c r="AN16" s="211"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17" s="334" t="s">
+      <c r="A17" s="336" t="s">
         <v>291</v>
       </c>
-      <c r="B17" s="334"/>
-      <c r="C17" s="334"/>
-      <c r="M17" s="337"/>
+      <c r="B17" s="336"/>
+      <c r="C17" s="336"/>
+      <c r="M17" s="334"/>
       <c r="Q17" s="227"/>
-      <c r="Z17" s="337"/>
+      <c r="Z17" s="334"/>
       <c r="AD17" s="212" t="s">
         <v>233</v>
       </c>
@@ -33852,8 +33852,8 @@
       <c r="C18" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="337"/>
-      <c r="Z18" s="337"/>
+      <c r="M18" s="334"/>
+      <c r="Z18" s="334"/>
       <c r="AN18" s="211"/>
     </row>
     <row r="19" spans="1:40" ht="15" x14ac:dyDescent="0.25">
@@ -33867,8 +33867,8 @@
         <v>230</v>
       </c>
       <c r="J19" s="223"/>
-      <c r="M19" s="337"/>
-      <c r="Z19" s="337"/>
+      <c r="M19" s="334"/>
+      <c r="Z19" s="334"/>
       <c r="AA19" s="333" t="s">
         <v>408</v>
       </c>
@@ -33896,7 +33896,7 @@
         <v>231</v>
       </c>
       <c r="J20" s="228"/>
-      <c r="M20" s="337"/>
+      <c r="M20" s="334"/>
       <c r="N20" s="333" t="s">
         <v>409</v>
       </c>
@@ -33911,7 +33911,7 @@
       <c r="W20" s="333"/>
       <c r="X20" s="333"/>
       <c r="Y20" s="333"/>
-      <c r="Z20" s="337"/>
+      <c r="Z20" s="334"/>
       <c r="AN20" s="211"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.2">
@@ -33924,7 +33924,7 @@
       <c r="C21" s="212" t="s">
         <v>232</v>
       </c>
-      <c r="M21" s="337"/>
+      <c r="M21" s="334"/>
       <c r="N21" s="212"/>
       <c r="O21" s="212" t="s">
         <v>172</v>
@@ -33938,7 +33938,7 @@
       <c r="R21" s="212" t="s">
         <v>391</v>
       </c>
-      <c r="Z21" s="337"/>
+      <c r="Z21" s="334"/>
       <c r="AJ21" s="229"/>
       <c r="AN21" s="211"/>
     </row>
@@ -33952,7 +33952,7 @@
       <c r="C22" s="212" t="s">
         <v>232</v>
       </c>
-      <c r="M22" s="337"/>
+      <c r="M22" s="334"/>
       <c r="N22" s="212" t="s">
         <v>220</v>
       </c>
@@ -33972,12 +33972,12 @@
         <f t="shared" si="1"/>
         <v>5.1005160550458708</v>
       </c>
-      <c r="Z22" s="337"/>
+      <c r="Z22" s="334"/>
       <c r="AJ22" s="229"/>
       <c r="AN22" s="211"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M23" s="337"/>
+      <c r="M23" s="334"/>
       <c r="N23" s="212" t="s">
         <v>410</v>
       </c>
@@ -33997,12 +33997,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="337"/>
+      <c r="Z23" s="334"/>
       <c r="AJ23" s="229"/>
       <c r="AN23" s="211"/>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M24" s="337"/>
+      <c r="M24" s="334"/>
       <c r="N24" s="212" t="s">
         <v>222</v>
       </c>
@@ -34022,17 +34022,17 @@
         <f t="shared" si="1"/>
         <v>2.6909552238805975E-2</v>
       </c>
-      <c r="Z24" s="337"/>
+      <c r="Z24" s="334"/>
       <c r="AJ24" s="229"/>
       <c r="AN24" s="211"/>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A25" s="334" t="s">
+      <c r="A25" s="336" t="s">
         <v>411</v>
       </c>
-      <c r="B25" s="334"/>
-      <c r="C25" s="334"/>
-      <c r="M25" s="337"/>
+      <c r="B25" s="336"/>
+      <c r="C25" s="336"/>
+      <c r="M25" s="334"/>
       <c r="N25" s="212" t="s">
         <v>223</v>
       </c>
@@ -34052,7 +34052,7 @@
         <f t="shared" si="1"/>
         <v>6.721946564885499E-2</v>
       </c>
-      <c r="Z25" s="337"/>
+      <c r="Z25" s="334"/>
       <c r="AN25" s="211"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
@@ -34063,7 +34063,7 @@
       <c r="C26" s="212" t="s">
         <v>399</v>
       </c>
-      <c r="M26" s="337"/>
+      <c r="M26" s="334"/>
       <c r="N26" s="212" t="s">
         <v>233</v>
       </c>
@@ -34083,7 +34083,7 @@
         <f t="shared" si="1"/>
         <v>6.2287000000000009E-2</v>
       </c>
-      <c r="Z26" s="337"/>
+      <c r="Z26" s="334"/>
       <c r="AN26" s="211"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
@@ -34094,8 +34094,8 @@
         <v>225</v>
       </c>
       <c r="C27" s="212"/>
-      <c r="M27" s="337"/>
-      <c r="Z27" s="337"/>
+      <c r="M27" s="334"/>
+      <c r="Z27" s="334"/>
       <c r="AN27" s="211"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
@@ -34109,8 +34109,8 @@
         <f>305/3.37</f>
         <v>90.504451038575667</v>
       </c>
-      <c r="M28" s="337"/>
-      <c r="Z28" s="337"/>
+      <c r="M28" s="334"/>
+      <c r="Z28" s="334"/>
       <c r="AN28" s="211"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.2">
@@ -34124,8 +34124,8 @@
         <f>109/1.56</f>
         <v>69.871794871794876</v>
       </c>
-      <c r="M29" s="337"/>
-      <c r="Z29" s="337"/>
+      <c r="M29" s="334"/>
+      <c r="Z29" s="334"/>
       <c r="AN29" s="211"/>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.2">
@@ -34139,23 +34139,23 @@
         <f>13/0.22</f>
         <v>59.090909090909093</v>
       </c>
-      <c r="M30" s="337"/>
-      <c r="Z30" s="337"/>
+      <c r="M30" s="334"/>
+      <c r="Z30" s="334"/>
       <c r="AN30" s="211"/>
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M31" s="337"/>
-      <c r="Z31" s="337"/>
+      <c r="M31" s="334"/>
+      <c r="Z31" s="334"/>
       <c r="AN31" s="211"/>
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A32" s="335" t="s">
+      <c r="A32" s="342" t="s">
         <v>413</v>
       </c>
-      <c r="B32" s="335"/>
-      <c r="C32" s="335"/>
-      <c r="M32" s="337"/>
-      <c r="Z32" s="337"/>
+      <c r="B32" s="342"/>
+      <c r="C32" s="342"/>
+      <c r="M32" s="334"/>
+      <c r="Z32" s="334"/>
       <c r="AN32" s="211"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.2">
@@ -34165,8 +34165,8 @@
       <c r="B33" s="212" t="s">
         <v>237</v>
       </c>
-      <c r="M33" s="337"/>
-      <c r="Z33" s="337"/>
+      <c r="M33" s="334"/>
+      <c r="Z33" s="334"/>
       <c r="AN33" s="211"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.2">
@@ -34176,8 +34176,8 @@
       <c r="B34" s="230">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="M34" s="337"/>
-      <c r="Z34" s="337"/>
+      <c r="M34" s="334"/>
+      <c r="Z34" s="334"/>
       <c r="AN34" s="211"/>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.2">
@@ -34187,8 +34187,8 @@
       <c r="B35" s="219">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="M35" s="337"/>
-      <c r="Z35" s="337"/>
+      <c r="M35" s="334"/>
+      <c r="Z35" s="334"/>
       <c r="AN35" s="211"/>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.2">
@@ -34198,8 +34198,8 @@
       <c r="B36" s="219">
         <v>2E-3</v>
       </c>
-      <c r="M36" s="337"/>
-      <c r="Z36" s="337"/>
+      <c r="M36" s="334"/>
+      <c r="Z36" s="334"/>
       <c r="AN36" s="211"/>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.2">
@@ -34209,8 +34209,8 @@
       <c r="B37" s="219">
         <v>0.5</v>
       </c>
-      <c r="M37" s="337"/>
-      <c r="Z37" s="337"/>
+      <c r="M37" s="334"/>
+      <c r="Z37" s="334"/>
       <c r="AN37" s="211"/>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.2">
@@ -34220,31 +34220,31 @@
       <c r="B38" s="219">
         <v>0.99950000000000006</v>
       </c>
-      <c r="M38" s="337"/>
-      <c r="Z38" s="337"/>
+      <c r="M38" s="334"/>
+      <c r="Z38" s="334"/>
       <c r="AN38" s="211"/>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M39" s="337"/>
-      <c r="Z39" s="337"/>
+      <c r="M39" s="334"/>
+      <c r="Z39" s="334"/>
       <c r="AN39" s="211"/>
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M40" s="337"/>
-      <c r="Z40" s="337"/>
+      <c r="M40" s="334"/>
+      <c r="Z40" s="334"/>
       <c r="AN40" s="211"/>
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="231" t="s">
         <v>414</v>
       </c>
-      <c r="M41" s="337"/>
-      <c r="Z41" s="337"/>
+      <c r="M41" s="334"/>
+      <c r="Z41" s="334"/>
       <c r="AN41" s="211"/>
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M42" s="337"/>
-      <c r="Z42" s="337"/>
+      <c r="M42" s="334"/>
+      <c r="Z42" s="334"/>
       <c r="AN42" s="211"/>
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.2">
@@ -34258,8 +34258,8 @@
       <c r="D43" s="212" t="s">
         <v>415</v>
       </c>
-      <c r="M43" s="337"/>
-      <c r="Z43" s="337"/>
+      <c r="M43" s="334"/>
+      <c r="Z43" s="334"/>
       <c r="AN43" s="211"/>
     </row>
     <row r="44" spans="1:40" x14ac:dyDescent="0.2">
@@ -34278,8 +34278,8 @@
         <f>D45/B35/1000000</f>
         <v>1.9933333333333334</v>
       </c>
-      <c r="M44" s="337"/>
-      <c r="Z44" s="337"/>
+      <c r="M44" s="334"/>
+      <c r="Z44" s="334"/>
       <c r="AN44" s="211"/>
     </row>
     <row r="45" spans="1:40" x14ac:dyDescent="0.2">
@@ -34295,8 +34295,8 @@
       <c r="D45" s="215">
         <v>299</v>
       </c>
-      <c r="M45" s="337"/>
-      <c r="Z45" s="337"/>
+      <c r="M45" s="334"/>
+      <c r="Z45" s="334"/>
       <c r="AN45" s="211"/>
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.2">
@@ -34315,47 +34315,47 @@
         <f>((D44*1000000)-D45)/1000000</f>
         <v>1.9930343333333336</v>
       </c>
-      <c r="M46" s="337"/>
-      <c r="Z46" s="337"/>
+      <c r="M46" s="334"/>
+      <c r="Z46" s="334"/>
       <c r="AN46" s="211"/>
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M47" s="337"/>
-      <c r="Z47" s="337"/>
+      <c r="M47" s="334"/>
+      <c r="Z47" s="334"/>
       <c r="AN47" s="211"/>
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="M48" s="337"/>
-      <c r="Z48" s="337"/>
+      <c r="M48" s="334"/>
+      <c r="Z48" s="334"/>
       <c r="AN48" s="211"/>
     </row>
     <row r="49" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M49" s="337"/>
-      <c r="Z49" s="337"/>
+      <c r="M49" s="334"/>
+      <c r="Z49" s="334"/>
       <c r="AN49" s="211"/>
     </row>
     <row r="50" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M50" s="337"/>
-      <c r="Z50" s="337"/>
+      <c r="M50" s="334"/>
+      <c r="Z50" s="334"/>
       <c r="AN50" s="211"/>
     </row>
     <row r="51" spans="13:40" ht="15" x14ac:dyDescent="0.25">
-      <c r="M51" s="337"/>
-      <c r="N51" s="336" t="s">
+      <c r="M51" s="334"/>
+      <c r="N51" s="343" t="s">
         <v>419</v>
       </c>
-      <c r="O51" s="336"/>
-      <c r="P51" s="336"/>
-      <c r="Q51" s="336"/>
-      <c r="R51" s="336"/>
-      <c r="S51" s="336"/>
-      <c r="T51" s="336"/>
-      <c r="U51" s="336"/>
-      <c r="V51" s="336"/>
-      <c r="W51" s="336"/>
-      <c r="X51" s="336"/>
-      <c r="Y51" s="336"/>
-      <c r="Z51" s="337"/>
+      <c r="O51" s="343"/>
+      <c r="P51" s="343"/>
+      <c r="Q51" s="343"/>
+      <c r="R51" s="343"/>
+      <c r="S51" s="343"/>
+      <c r="T51" s="343"/>
+      <c r="U51" s="343"/>
+      <c r="V51" s="343"/>
+      <c r="W51" s="343"/>
+      <c r="X51" s="343"/>
+      <c r="Y51" s="343"/>
+      <c r="Z51" s="334"/>
       <c r="AA51" s="333" t="s">
         <v>420</v>
       </c>
@@ -34373,12 +34373,12 @@
       <c r="AN51" s="211"/>
     </row>
     <row r="52" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M52" s="337"/>
-      <c r="Z52" s="337"/>
+      <c r="M52" s="334"/>
+      <c r="Z52" s="334"/>
       <c r="AN52" s="211"/>
     </row>
     <row r="53" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M53" s="337"/>
+      <c r="M53" s="334"/>
       <c r="N53" s="212"/>
       <c r="O53" s="212" t="s">
         <v>220</v>
@@ -34398,7 +34398,7 @@
       <c r="T53" s="209" t="s">
         <v>216</v>
       </c>
-      <c r="Z53" s="337"/>
+      <c r="Z53" s="334"/>
       <c r="AA53" s="212"/>
       <c r="AB53" s="212" t="s">
         <v>220</v>
@@ -34424,7 +34424,7 @@
       <c r="AN53" s="211"/>
     </row>
     <row r="54" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M54" s="337"/>
+      <c r="M54" s="334"/>
       <c r="N54" s="212" t="s">
         <v>423</v>
       </c>
@@ -34451,7 +34451,7 @@
         <f>SUM(O54:S54)</f>
         <v>55.148956521739137</v>
       </c>
-      <c r="Z54" s="337"/>
+      <c r="Z54" s="334"/>
       <c r="AA54" s="212" t="s">
         <v>424</v>
       </c>
@@ -34488,7 +34488,7 @@
       <c r="AN54" s="211"/>
     </row>
     <row r="55" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M55" s="337"/>
+      <c r="M55" s="334"/>
       <c r="N55" s="212" t="s">
         <v>425</v>
       </c>
@@ -34514,7 +34514,7 @@
         <f>SUM(O55:S55)</f>
         <v>48.840656521739135</v>
       </c>
-      <c r="Z55" s="337"/>
+      <c r="Z55" s="334"/>
       <c r="AA55" s="212" t="s">
         <v>426</v>
       </c>
@@ -34550,27 +34550,27 @@
       <c r="AN55" s="211"/>
     </row>
     <row r="56" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M56" s="337"/>
-      <c r="Z56" s="337"/>
+      <c r="M56" s="334"/>
+      <c r="Z56" s="334"/>
       <c r="AH56" s="227"/>
       <c r="AN56" s="211"/>
     </row>
     <row r="57" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M57" s="337"/>
-      <c r="Z57" s="337"/>
+      <c r="M57" s="334"/>
+      <c r="Z57" s="334"/>
       <c r="AN57" s="211"/>
     </row>
     <row r="58" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M58" s="337"/>
+      <c r="M58" s="334"/>
       <c r="R58" s="227"/>
       <c r="V58" s="233"/>
-      <c r="Z58" s="337"/>
+      <c r="Z58" s="334"/>
       <c r="AN58" s="211"/>
     </row>
     <row r="59" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M59" s="337"/>
+      <c r="M59" s="334"/>
       <c r="V59" s="233"/>
-      <c r="Z59" s="337"/>
+      <c r="Z59" s="334"/>
       <c r="AA59" s="212"/>
       <c r="AB59" s="212" t="s">
         <v>220</v>
@@ -34591,8 +34591,8 @@
       <c r="AN59" s="211"/>
     </row>
     <row r="60" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M60" s="337"/>
-      <c r="Z60" s="337"/>
+      <c r="M60" s="334"/>
+      <c r="Z60" s="334"/>
       <c r="AA60" s="212" t="s">
         <v>423</v>
       </c>
@@ -34618,8 +34618,8 @@
       <c r="AN60" s="211"/>
     </row>
     <row r="61" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M61" s="337"/>
-      <c r="Z61" s="337"/>
+      <c r="M61" s="334"/>
+      <c r="Z61" s="334"/>
       <c r="AA61" s="212" t="s">
         <v>428</v>
       </c>
@@ -34645,116 +34645,116 @@
       <c r="AN61" s="211"/>
     </row>
     <row r="62" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M62" s="337"/>
-      <c r="Z62" s="337"/>
+      <c r="M62" s="334"/>
+      <c r="Z62" s="334"/>
       <c r="AN62" s="211"/>
     </row>
     <row r="63" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M63" s="337"/>
-      <c r="Z63" s="337"/>
+      <c r="M63" s="334"/>
+      <c r="Z63" s="334"/>
       <c r="AN63" s="211"/>
     </row>
     <row r="64" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M64" s="337"/>
-      <c r="Z64" s="337"/>
+      <c r="M64" s="334"/>
+      <c r="Z64" s="334"/>
       <c r="AN64" s="211"/>
     </row>
     <row r="65" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M65" s="337"/>
-      <c r="Z65" s="337"/>
+      <c r="M65" s="334"/>
+      <c r="Z65" s="334"/>
       <c r="AN65" s="211"/>
     </row>
     <row r="66" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M66" s="337"/>
-      <c r="Z66" s="337"/>
+      <c r="M66" s="334"/>
+      <c r="Z66" s="334"/>
       <c r="AN66" s="211"/>
     </row>
     <row r="67" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M67" s="337"/>
-      <c r="Z67" s="337"/>
+      <c r="M67" s="334"/>
+      <c r="Z67" s="334"/>
       <c r="AN67" s="211"/>
     </row>
     <row r="68" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M68" s="337"/>
-      <c r="Z68" s="337"/>
+      <c r="M68" s="334"/>
+      <c r="Z68" s="334"/>
       <c r="AN68" s="211"/>
     </row>
     <row r="69" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M69" s="337"/>
-      <c r="Z69" s="337"/>
+      <c r="M69" s="334"/>
+      <c r="Z69" s="334"/>
       <c r="AN69" s="211"/>
     </row>
     <row r="70" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M70" s="337"/>
-      <c r="Z70" s="337"/>
+      <c r="M70" s="334"/>
+      <c r="Z70" s="334"/>
       <c r="AN70" s="211"/>
     </row>
     <row r="71" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M71" s="337"/>
-      <c r="Z71" s="337"/>
+      <c r="M71" s="334"/>
+      <c r="Z71" s="334"/>
       <c r="AN71" s="211"/>
     </row>
     <row r="72" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M72" s="337"/>
-      <c r="Z72" s="337"/>
+      <c r="M72" s="334"/>
+      <c r="Z72" s="334"/>
       <c r="AN72" s="211"/>
     </row>
     <row r="73" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M73" s="337"/>
-      <c r="Z73" s="337"/>
+      <c r="M73" s="334"/>
+      <c r="Z73" s="334"/>
       <c r="AN73" s="211"/>
     </row>
     <row r="74" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M74" s="337"/>
-      <c r="Z74" s="337"/>
+      <c r="M74" s="334"/>
+      <c r="Z74" s="334"/>
       <c r="AN74" s="211"/>
     </row>
     <row r="75" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M75" s="337"/>
-      <c r="Z75" s="337"/>
+      <c r="M75" s="334"/>
+      <c r="Z75" s="334"/>
       <c r="AN75" s="211"/>
     </row>
     <row r="76" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M76" s="337"/>
-      <c r="Z76" s="337"/>
+      <c r="M76" s="334"/>
+      <c r="Z76" s="334"/>
       <c r="AN76" s="211"/>
     </row>
     <row r="77" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M77" s="337"/>
-      <c r="Z77" s="337"/>
+      <c r="M77" s="334"/>
+      <c r="Z77" s="334"/>
       <c r="AN77" s="211"/>
     </row>
     <row r="78" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M78" s="337"/>
-      <c r="Z78" s="337"/>
+      <c r="M78" s="334"/>
+      <c r="Z78" s="334"/>
       <c r="AN78" s="211"/>
     </row>
     <row r="79" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M79" s="337"/>
-      <c r="Z79" s="337"/>
+      <c r="M79" s="334"/>
+      <c r="Z79" s="334"/>
       <c r="AN79" s="211"/>
     </row>
     <row r="80" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M80" s="337"/>
-      <c r="Z80" s="337"/>
+      <c r="M80" s="334"/>
+      <c r="Z80" s="334"/>
       <c r="AN80" s="211"/>
     </row>
     <row r="81" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M81" s="337"/>
-      <c r="Z81" s="337"/>
+      <c r="M81" s="334"/>
+      <c r="Z81" s="334"/>
       <c r="AN81" s="211"/>
     </row>
     <row r="82" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="M82" s="337"/>
-      <c r="Z82" s="337"/>
+      <c r="M82" s="334"/>
+      <c r="Z82" s="334"/>
       <c r="AN82" s="211"/>
     </row>
     <row r="83" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z83" s="337"/>
+      <c r="Z83" s="334"/>
       <c r="AN83" s="211"/>
     </row>
     <row r="84" spans="13:40" x14ac:dyDescent="0.2">
-      <c r="Z84" s="337"/>
+      <c r="Z84" s="334"/>
       <c r="AN84" s="211"/>
     </row>
     <row r="85" spans="13:40" x14ac:dyDescent="0.2">
@@ -34762,6 +34762,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N20:Y20"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="N51:Y51"/>
+    <mergeCell ref="AA51:AL51"/>
     <mergeCell ref="AA19:AL19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:K1"/>
@@ -34778,11 +34783,6 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="AD11:AH11"/>
     <mergeCell ref="A17:C17"/>
-    <mergeCell ref="N20:Y20"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="N51:Y51"/>
-    <mergeCell ref="AA51:AL51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35445,8 +35445,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102409" r:id="rId4" name="cmdAddParamQualifier2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102408" r:id="rId6" name="cmdTimeSlice"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102407" r:id="rId8" name="cmdCommName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102407" r:id="rId8" name="cmdCommName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102405" r:id="rId10" name="cmdAddParamQualifier1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102404" r:id="rId12" name="cmdCheckConstrDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102403" r:id="rId14" name="cmdAddParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102402" r:id="rId16" name="cmdProcName">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>238125</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="102402" r:id="rId16" name="cmdProcName"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -35465,182 +35640,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="102401" r:id="rId4" name="cmdConstrNameAndDesc"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102402" r:id="rId6" name="cmdProcName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102402" r:id="rId6" name="cmdProcName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102403" r:id="rId8" name="cmdAddParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102404" r:id="rId10" name="cmdCheckConstrDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102405" r:id="rId12" name="cmdAddParamQualifier1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102407" r:id="rId14" name="cmdCommName">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102407" r:id="rId14" name="cmdCommName"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>238125</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102408" r:id="rId16" name="cmdTimeSlice"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="102409" r:id="rId18" name="cmdAddParamQualifier2"/>
+        <control shapeId="102401" r:id="rId18" name="cmdConstrNameAndDesc"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -35789,8 +35789,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet">
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55300" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55299" r:id="rId6" name="cmdSpecifyUnits"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="55298" r:id="rId8" name="cmdSpecifyComponent"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -35809,82 +35884,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="55297" r:id="rId4" name="cmdCheckItemsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55298" r:id="rId6" name="cmdSpecifyComponent"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55299" r:id="rId8" name="cmdSpecifyUnits"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="55300" r:id="rId10" name="cmdSpecifySets"/>
+        <control shapeId="55297" r:id="rId10" name="cmdCheckItemsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36174,8 +36174,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57353" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57352" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57351" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57350" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57349" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57348" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57347" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57346" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="57345" r:id="rId20" name="cmdCheckTSDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36194,232 +36419,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="57354" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57345" r:id="rId6" name="cmdCheckTSDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57346" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57347" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57348" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57349" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57350" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57351" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57352" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="57353" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="57354" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36483,8 +36483,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet">
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58376" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58375" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58374" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58373" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58372" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58371" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="58370" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36503,182 +36678,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="58369" r:id="rId4" name="cmdCheckTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58370" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58371" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58372" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58373" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58374" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58375" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="58376" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="58369" r:id="rId18" name="cmdCheckTIDDataSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -36753,8 +36753,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59401" r:id="rId3" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId5" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId7" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59398" r:id="rId9" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59397" r:id="rId11" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59396" r:id="rId13" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59395" r:id="rId15" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59394" r:id="rId17" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59393" r:id="rId19" name="cmdCheckTSandTIDDataSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -36773,232 +36998,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59402" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59393" r:id="rId5" name="cmdCheckTSandTIDDataSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59394" r:id="rId7" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59395" r:id="rId9" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59396" r:id="rId11" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59397" r:id="rId13" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59398" r:id="rId15" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId17" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId19" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59401" r:id="rId21" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="59402" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -37085,8 +37085,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears">
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>838200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60426" r:id="rId3" name="cmdCheckTSTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60425" r:id="rId5" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60424" r:id="rId7" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60423" r:id="rId9" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60422" r:id="rId11" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60421" r:id="rId13" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60420" r:id="rId15" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60419" r:id="rId17" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="60418" r:id="rId19" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -37105,232 +37330,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="60427" r:id="rId3" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60418" r:id="rId5" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60419" r:id="rId7" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60420" r:id="rId9" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60421" r:id="rId11" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60422" r:id="rId13" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60423" r:id="rId15" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60424" r:id="rId17" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60425" r:id="rId19" name="cmdSpecifyIEOptcode"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId22">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>838200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="60426" r:id="rId21" name="cmdCheckTSTradeSheet"/>
+        <control shapeId="60427" r:id="rId21" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -37407,8 +37407,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet">
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61449" r:id="rId4" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61448" r:id="rId6" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61447" r:id="rId8" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61446" r:id="rId10" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61445" r:id="rId12" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61444" r:id="rId14" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="61443" r:id="rId16" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -37427,182 +37602,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="61442" r:id="rId4" name="cmdCheckTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61443" r:id="rId6" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61444" r:id="rId8" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61445" r:id="rId10" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61446" r:id="rId12" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61447" r:id="rId14" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61448" r:id="rId16" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="61449" r:id="rId18" name="cmdSpecifyArg6"/>
+        <control shapeId="61442" r:id="rId18" name="cmdCheckTIDTradeSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -37688,8 +37688,233 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears">
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62474" r:id="rId4" name="cmdSpecifyIEOptcode"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62473" r:id="rId6" name="cmdSpecifyArg6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62472" r:id="rId8" name="cmdSpecifyArg5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62471" r:id="rId10" name="cmdSpecifyArg4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62470" r:id="rId12" name="cmdSpecifyArg3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62469" r:id="rId14" name="cmdSpecifyArg2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62468" r:id="rId16" name="cmdSpecifyArg1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62467" r:id="rId18" name="cmdSpecifyParameter"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="62466" r:id="rId20" name="cmdCheckTSandTIDTradeSheet"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -37708,232 +37933,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="62475" r:id="rId4" name="cmdPopulateDataYears"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62466" r:id="rId6" name="cmdCheckTSandTIDTradeSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62467" r:id="rId8" name="cmdSpecifyParameter"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62468" r:id="rId10" name="cmdSpecifyArg1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62469" r:id="rId12" name="cmdSpecifyArg2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62470" r:id="rId14" name="cmdSpecifyArg3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62471" r:id="rId16" name="cmdSpecifyArg4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62472" r:id="rId18" name="cmdSpecifyArg5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62473" r:id="rId20" name="cmdSpecifyArg6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="62474" r:id="rId22" name="cmdSpecifyIEOptcode"/>
+        <control shapeId="62475" r:id="rId22" name="cmdPopulateDataYears"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -41055,8 +41055,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet">
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="63490" r:id="rId4" name="cmdSpecifySets"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -41075,32 +41100,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="63489" r:id="rId4" name="cmdCheckRegionsSheet"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="63490" r:id="rId6" name="cmdSpecifySets"/>
+        <control shapeId="63489" r:id="rId6" name="cmdCheckRegionsSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -41161,18 +41161,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets">
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41181,7 +41181,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71681" r:id="rId4" name="cmdSpecifySets"/>
+        <control shapeId="71683" r:id="rId4" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -41211,18 +41211,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit">
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41231,7 +41231,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="71683" r:id="rId8" name="cmdCommUnit"/>
+        <control shapeId="71681" r:id="rId8" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -41553,18 +41553,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit">
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41573,7 +41573,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125955" r:id="rId4" name="cmdCommUnit"/>
+        <control shapeId="125953" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -41603,18 +41603,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -41623,7 +41623,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="125953" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="125955" r:id="rId8" name="cmdCommUnit"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -41696,18 +41696,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits">
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1924050</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -41716,7 +41716,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80899" r:id="rId4" name="cmdProcUnits"/>
+        <control shapeId="80897" r:id="rId4" name="cmdSpecifySets"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -41746,18 +41746,18 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets">
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1924050</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -41766,7 +41766,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="80897" r:id="rId8" name="cmdSpecifySets"/>
+        <control shapeId="80899" r:id="rId8" name="cmdProcUnits"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
